--- a/TNR_PREJDD/PREJDD.RT.ART.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.ART.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="LoyWsBkDcCp4smV40wJzLBXIQx66b0BJPZe0/zgFXaI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="ekFFBIz7r8zmy5fVSkXlau5tT9ltPGYXC9+7fdvMbc4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -333,6 +333,18 @@
   </si>
   <si>
     <t>TEXTE ARTICLE PRESTATION</t>
+  </si>
+  <si>
+    <t>RT.ART.006.SRM.01</t>
+  </si>
+  <si>
+    <t>ART.RT.ART.006.SRM.01</t>
+  </si>
+  <si>
+    <t>RT.ART.006.SRS.01</t>
+  </si>
+  <si>
+    <t>ART.RT.ART.006.SRS.01</t>
   </si>
   <si>
     <t>RT.MAT.001.CRE.01</t>
@@ -2975,7 +2987,7 @@
       <c r="B9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>105</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -3075,7 +3087,7 @@
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -3869,14 +3881,14 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>120</v>
+      <c r="A18" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>69</v>
@@ -3969,14 +3981,14 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>123</v>
+      <c r="A19" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>69</v>
@@ -4070,7 +4082,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>54</v>
@@ -4169,64 +4181,204 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="F21" s="21"/>
-      <c r="G21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="G21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="N21" s="21"/>
+      <c r="O21" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
+      <c r="U21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="X21" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="Y21" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>0.0</v>
+      </c>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="21"/>
-      <c r="AE21" s="29"/>
+      <c r="AE21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG21" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="AH21" s="21"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
+      <c r="AI21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ21" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN21" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="F22" s="21"/>
-      <c r="G22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="G22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="N22" s="21"/>
+      <c r="O22" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
+      <c r="U22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="X22" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="Y22" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AA22" s="17">
+        <v>0.0</v>
+      </c>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
       <c r="AD22" s="21"/>
-      <c r="AE22" s="29"/>
+      <c r="AE22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG22" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="AH22" s="21"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
+      <c r="AI22" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ22" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN22" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
@@ -10079,6 +10231,7 @@
       <c r="AN217" s="29"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="2"/>
       <c r="B218" s="29"/>
       <c r="E218" s="29"/>
       <c r="F218" s="21"/>
@@ -10108,6 +10261,7 @@
       <c r="AN218" s="29"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="2"/>
       <c r="B219" s="29"/>
       <c r="E219" s="29"/>
       <c r="F219" s="21"/>
@@ -32697,6 +32851,64 @@
       <c r="AL997" s="29"/>
       <c r="AM997" s="29"/>
       <c r="AN997" s="29"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="B998" s="29"/>
+      <c r="E998" s="29"/>
+      <c r="F998" s="21"/>
+      <c r="G998" s="29"/>
+      <c r="K998" s="29"/>
+      <c r="N998" s="21"/>
+      <c r="P998" s="24"/>
+      <c r="Q998" s="24"/>
+      <c r="R998" s="24"/>
+      <c r="S998" s="24"/>
+      <c r="T998" s="24"/>
+      <c r="U998" s="29"/>
+      <c r="V998" s="29"/>
+      <c r="W998" s="29"/>
+      <c r="X998" s="29"/>
+      <c r="Y998" s="29"/>
+      <c r="Z998" s="29"/>
+      <c r="AA998" s="29"/>
+      <c r="AB998" s="21"/>
+      <c r="AC998" s="21"/>
+      <c r="AD998" s="21"/>
+      <c r="AE998" s="29"/>
+      <c r="AH998" s="21"/>
+      <c r="AK998" s="29"/>
+      <c r="AL998" s="29"/>
+      <c r="AM998" s="29"/>
+      <c r="AN998" s="29"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="B999" s="29"/>
+      <c r="E999" s="29"/>
+      <c r="F999" s="21"/>
+      <c r="G999" s="29"/>
+      <c r="K999" s="29"/>
+      <c r="N999" s="21"/>
+      <c r="P999" s="24"/>
+      <c r="Q999" s="24"/>
+      <c r="R999" s="24"/>
+      <c r="S999" s="24"/>
+      <c r="T999" s="24"/>
+      <c r="U999" s="29"/>
+      <c r="V999" s="29"/>
+      <c r="W999" s="29"/>
+      <c r="X999" s="29"/>
+      <c r="Y999" s="29"/>
+      <c r="Z999" s="29"/>
+      <c r="AA999" s="29"/>
+      <c r="AB999" s="21"/>
+      <c r="AC999" s="21"/>
+      <c r="AD999" s="21"/>
+      <c r="AE999" s="29"/>
+      <c r="AH999" s="21"/>
+      <c r="AK999" s="29"/>
+      <c r="AL999" s="29"/>
+      <c r="AM999" s="29"/>
+      <c r="AN999" s="29"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -32729,13 +32941,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -32769,7 +32981,7 @@
         <v>1000.0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -34266,7 +34478,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>14</v>
@@ -34275,7 +34487,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>16</v>
@@ -34287,55 +34499,55 @@
         <v>19</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>30</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="R1" s="34" t="s">
         <v>38</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="T1" s="34" t="s">
         <v>33</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="W1" s="34" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="X1" s="34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Y1" s="34" t="s">
         <v>49</v>
@@ -34361,7 +34573,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>69</v>
@@ -34373,13 +34585,13 @@
         <v>56</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K2" s="19">
         <v>10.0</v>
@@ -34392,13 +34604,13 @@
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="36" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="R2" s="37" t="s">
         <v>56</v>
@@ -34419,7 +34631,7 @@
         <v>45292.0</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="22" t="s">
         <v>65</v>
@@ -34445,7 +34657,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>69</v>
@@ -34457,13 +34669,13 @@
         <v>56</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K3" s="19">
         <v>20.0</v>
@@ -34476,13 +34688,13 @@
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="R3" s="37" t="s">
         <v>56</v>
@@ -34503,7 +34715,7 @@
         <v>45292.0</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="22" t="s">
         <v>65</v>
@@ -34529,7 +34741,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>69</v>
@@ -34541,13 +34753,13 @@
         <v>56</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="19">
         <v>30.0</v>
@@ -34560,13 +34772,13 @@
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="36" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="R4" s="37" t="s">
         <v>56</v>
@@ -34587,7 +34799,7 @@
         <v>45292.0</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y4" s="22" t="s">
         <v>65</v>
@@ -34613,7 +34825,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>69</v>
@@ -34625,13 +34837,13 @@
         <v>56</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K5" s="19">
         <v>40.0</v>
@@ -34644,13 +34856,13 @@
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="36" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="R5" s="37" t="s">
         <v>56</v>
@@ -34671,7 +34883,7 @@
         <v>45292.0</v>
       </c>
       <c r="X5" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="22" t="s">
         <v>65</v>
@@ -34688,16 +34900,16 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>69</v>
@@ -34709,13 +34921,13 @@
         <v>56</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K6" s="19">
         <v>50.0</v>
@@ -34728,13 +34940,13 @@
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="R6" s="37" t="s">
         <v>56</v>
@@ -34755,7 +34967,7 @@
         <v>45292.0</v>
       </c>
       <c r="X6" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y6" s="22" t="s">
         <v>65</v>
@@ -34772,16 +34984,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>69</v>
@@ -34793,13 +35005,13 @@
         <v>56</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K7" s="19">
         <v>60.0</v>
@@ -34812,13 +35024,13 @@
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="R7" s="37" t="s">
         <v>56</v>
@@ -34839,7 +35051,7 @@
         <v>45292.0</v>
       </c>
       <c r="X7" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="22" t="s">
         <v>65</v>
@@ -34856,16 +35068,16 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>69</v>
@@ -34877,13 +35089,13 @@
         <v>56</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K8" s="19">
         <v>70.0</v>
@@ -34896,13 +35108,13 @@
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>56</v>
@@ -34923,7 +35135,7 @@
         <v>45292.0</v>
       </c>
       <c r="X8" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="22" t="s">
         <v>65</v>
@@ -34940,16 +35152,16 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>69</v>
@@ -34961,13 +35173,13 @@
         <v>56</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K9" s="19">
         <v>80.0</v>
@@ -34980,13 +35192,13 @@
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R9" s="37" t="s">
         <v>56</v>
@@ -35007,7 +35219,7 @@
         <v>45292.0</v>
       </c>
       <c r="X9" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="22" t="s">
         <v>65</v>
@@ -35024,16 +35236,16 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>69</v>
@@ -35045,13 +35257,13 @@
         <v>56</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K10" s="19">
         <v>90.0</v>
@@ -35064,13 +35276,13 @@
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="R10" s="37" t="s">
         <v>56</v>
@@ -35091,7 +35303,7 @@
         <v>45292.0</v>
       </c>
       <c r="X10" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="22" t="s">
         <v>65</v>
@@ -35108,16 +35320,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>69</v>
@@ -35129,13 +35341,13 @@
         <v>56</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K11" s="19">
         <v>100.0</v>
@@ -35148,13 +35360,13 @@
       </c>
       <c r="N11" s="21"/>
       <c r="O11" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R11" s="37" t="s">
         <v>56</v>
@@ -35175,7 +35387,7 @@
         <v>45292.0</v>
       </c>
       <c r="X11" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y11" s="22" t="s">
         <v>65</v>
@@ -35192,16 +35404,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>69</v>
@@ -35213,13 +35425,13 @@
         <v>56</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K12" s="19">
         <v>110.0</v>
@@ -35232,13 +35444,13 @@
       </c>
       <c r="N12" s="21"/>
       <c r="O12" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R12" s="37" t="s">
         <v>56</v>
@@ -35259,7 +35471,7 @@
         <v>45292.0</v>
       </c>
       <c r="X12" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y12" s="22" t="s">
         <v>65</v>
@@ -35276,16 +35488,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>69</v>
@@ -35297,13 +35509,13 @@
         <v>56</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K13" s="19">
         <v>120.0</v>
@@ -35316,13 +35528,13 @@
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="R13" s="37" t="s">
         <v>56</v>
@@ -35343,7 +35555,7 @@
         <v>45292.0</v>
       </c>
       <c r="X13" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y13" s="22" t="s">
         <v>65</v>
@@ -35360,16 +35572,16 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>69</v>
@@ -35381,13 +35593,13 @@
         <v>56</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K14" s="19">
         <v>130.0</v>
@@ -35400,13 +35612,13 @@
       </c>
       <c r="N14" s="21"/>
       <c r="O14" s="25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="R14" s="37" t="s">
         <v>56</v>
@@ -35427,7 +35639,7 @@
         <v>45292.0</v>
       </c>
       <c r="X14" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y14" s="22" t="s">
         <v>65</v>
@@ -35444,16 +35656,16 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>69</v>
@@ -35465,13 +35677,13 @@
         <v>56</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K15" s="19">
         <v>140.0</v>
@@ -35484,13 +35696,13 @@
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="R15" s="37" t="s">
         <v>56</v>
@@ -35511,7 +35723,7 @@
         <v>45292.0</v>
       </c>
       <c r="X15" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y15" s="22" t="s">
         <v>65</v>
@@ -35528,16 +35740,16 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>69</v>
@@ -35549,13 +35761,13 @@
         <v>56</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K16" s="19">
         <v>150.0</v>
@@ -35568,13 +35780,13 @@
       </c>
       <c r="N16" s="21"/>
       <c r="O16" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="R16" s="37" t="s">
         <v>56</v>
@@ -35595,7 +35807,7 @@
         <v>45292.0</v>
       </c>
       <c r="X16" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y16" s="22" t="s">
         <v>65</v>
@@ -35612,16 +35824,16 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>69</v>
@@ -35633,13 +35845,13 @@
         <v>56</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K17" s="19">
         <v>160.0</v>
@@ -35652,13 +35864,13 @@
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="R17" s="37" t="s">
         <v>56</v>
@@ -35679,7 +35891,7 @@
         <v>45292.0</v>
       </c>
       <c r="X17" s="25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y17" s="22" t="s">
         <v>65</v>
@@ -38877,7 +39089,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>14</v>
@@ -38886,7 +39098,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -41973,10 +42185,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>

--- a/TNR_PREJDD/PREJDD.RT.ART.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.ART.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -2345,14 +2345,14 @@
       <c r="AA2" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB2" s="19">
-        <v>100.0</v>
-      </c>
-      <c r="AC2" s="19">
-        <v>200.0</v>
-      </c>
-      <c r="AD2" s="19">
-        <v>300.0</v>
+      <c r="AB2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE2" s="22" t="s">
         <v>65</v>
@@ -2453,14 +2453,14 @@
       <c r="AA3" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB3" s="19">
-        <v>101.0</v>
-      </c>
-      <c r="AC3" s="19">
-        <v>201.0</v>
-      </c>
-      <c r="AD3" s="19">
-        <v>302.0</v>
+      <c r="AB3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE3" s="22" t="s">
         <v>65</v>
@@ -2561,14 +2561,14 @@
       <c r="AA4" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB4" s="19">
-        <v>102.0</v>
-      </c>
-      <c r="AC4" s="19">
-        <v>202.0</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>304.0</v>
+      <c r="AB4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE4" s="22" t="s">
         <v>65</v>
@@ -2669,14 +2669,14 @@
       <c r="AA5" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB5" s="19">
-        <v>103.0</v>
-      </c>
-      <c r="AC5" s="19">
-        <v>203.0</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>306.0</v>
+      <c r="AB5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE5" s="22" t="s">
         <v>65</v>
@@ -2777,14 +2777,14 @@
       <c r="AA6" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB6" s="19">
-        <v>104.0</v>
-      </c>
-      <c r="AC6" s="19">
-        <v>204.0</v>
-      </c>
-      <c r="AD6" s="19">
-        <v>308.0</v>
+      <c r="AB6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE6" s="22" t="s">
         <v>65</v>
@@ -2885,14 +2885,14 @@
       <c r="AA7" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB7" s="19">
-        <v>105.0</v>
-      </c>
-      <c r="AC7" s="19">
-        <v>205.0</v>
-      </c>
-      <c r="AD7" s="19">
-        <v>310.0</v>
+      <c r="AB7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE7" s="22" t="s">
         <v>65</v>
@@ -2993,14 +2993,14 @@
       <c r="AA8" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB8" s="19">
-        <v>106.0</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>206.0</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>312.0</v>
+      <c r="AB8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE8" s="22" t="s">
         <v>65</v>
@@ -3101,14 +3101,14 @@
       <c r="AA9" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB9" s="19">
-        <v>107.0</v>
-      </c>
-      <c r="AC9" s="19">
-        <v>207.0</v>
-      </c>
-      <c r="AD9" s="19">
-        <v>314.0</v>
+      <c r="AB9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE9" s="22" t="s">
         <v>65</v>
@@ -3209,14 +3209,14 @@
       <c r="AA10" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB10" s="19">
-        <v>108.0</v>
-      </c>
-      <c r="AC10" s="19">
-        <v>208.0</v>
-      </c>
-      <c r="AD10" s="19">
-        <v>316.0</v>
+      <c r="AB10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE10" s="22" t="s">
         <v>65</v>
@@ -3317,14 +3317,14 @@
       <c r="AA11" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB11" s="19">
-        <v>109.0</v>
-      </c>
-      <c r="AC11" s="19">
-        <v>209.0</v>
-      </c>
-      <c r="AD11" s="19">
-        <v>318.0</v>
+      <c r="AB11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE11" s="22" t="s">
         <v>65</v>
@@ -3425,14 +3425,14 @@
       <c r="AA12" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB12" s="19">
-        <v>110.0</v>
-      </c>
-      <c r="AC12" s="19">
-        <v>210.0</v>
-      </c>
-      <c r="AD12" s="19">
-        <v>320.0</v>
+      <c r="AB12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE12" s="22" t="s">
         <v>65</v>
@@ -3533,14 +3533,14 @@
       <c r="AA13" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB13" s="19">
-        <v>111.0</v>
-      </c>
-      <c r="AC13" s="19">
-        <v>211.0</v>
-      </c>
-      <c r="AD13" s="19">
-        <v>322.0</v>
+      <c r="AB13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE13" s="22" t="s">
         <v>65</v>
@@ -3641,14 +3641,14 @@
       <c r="AA14" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB14" s="19">
-        <v>112.0</v>
-      </c>
-      <c r="AC14" s="19">
-        <v>212.0</v>
-      </c>
-      <c r="AD14" s="19">
-        <v>324.0</v>
+      <c r="AB14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE14" s="22" t="s">
         <v>65</v>
@@ -3749,14 +3749,14 @@
       <c r="AA15" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB15" s="19">
-        <v>113.0</v>
-      </c>
-      <c r="AC15" s="19">
-        <v>213.0</v>
-      </c>
-      <c r="AD15" s="19">
-        <v>326.0</v>
+      <c r="AB15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE15" s="22" t="s">
         <v>65</v>
@@ -3857,14 +3857,14 @@
       <c r="AA16" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB16" s="19">
-        <v>114.0</v>
-      </c>
-      <c r="AC16" s="19">
-        <v>214.0</v>
-      </c>
-      <c r="AD16" s="19">
-        <v>328.0</v>
+      <c r="AB16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE16" s="22" t="s">
         <v>65</v>
@@ -3965,14 +3965,14 @@
       <c r="AA17" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB17" s="19">
-        <v>115.0</v>
-      </c>
-      <c r="AC17" s="19">
-        <v>215.0</v>
-      </c>
-      <c r="AD17" s="19">
-        <v>330.0</v>
+      <c r="AB17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE17" s="22" t="s">
         <v>65</v>
@@ -4073,14 +4073,14 @@
       <c r="AA18" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB18" s="19">
-        <v>116.0</v>
-      </c>
-      <c r="AC18" s="19">
-        <v>216.0</v>
-      </c>
-      <c r="AD18" s="19">
-        <v>332.0</v>
+      <c r="AB18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE18" s="22" t="s">
         <v>65</v>
@@ -4181,14 +4181,14 @@
       <c r="AA19" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB19" s="19">
-        <v>117.0</v>
-      </c>
-      <c r="AC19" s="19">
-        <v>217.0</v>
-      </c>
-      <c r="AD19" s="19">
-        <v>334.0</v>
+      <c r="AB19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE19" s="22" t="s">
         <v>65</v>
@@ -4289,14 +4289,14 @@
       <c r="AA20" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB20" s="19">
-        <v>118.0</v>
-      </c>
-      <c r="AC20" s="19">
-        <v>218.0</v>
-      </c>
-      <c r="AD20" s="19">
-        <v>336.0</v>
+      <c r="AB20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE20" s="22" t="s">
         <v>65</v>
@@ -4397,14 +4397,14 @@
       <c r="AA21" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB21" s="19">
-        <v>119.0</v>
-      </c>
-      <c r="AC21" s="19">
-        <v>219.0</v>
-      </c>
-      <c r="AD21" s="19">
-        <v>338.0</v>
+      <c r="AB21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE21" s="22" t="s">
         <v>65</v>
@@ -4505,14 +4505,14 @@
       <c r="AA22" s="17">
         <v>0.0</v>
       </c>
-      <c r="AB22" s="19">
-        <v>120.0</v>
-      </c>
-      <c r="AC22" s="19">
-        <v>220.0</v>
-      </c>
-      <c r="AD22" s="19">
-        <v>340.0</v>
+      <c r="AB22" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC22" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="AE22" s="22" t="s">
         <v>65</v>

--- a/TNR_PREJDD/PREJDD.RT.ART.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.ART.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,9 @@
     <t>CCO.RT.ART.001.MAJ.01</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>VENTELIV</t>
   </si>
   <si>
@@ -486,9 +489,6 @@
   </si>
   <si>
     <t>FOU.RT.ART.001.LEC.01</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>REF RT.ART.001.LEC.01</t>
@@ -2253,7 +2253,7 @@
       <c r="P1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="12" t="s">
         <v>29</v>
       </c>
       <c r="R1" s="15" t="s">
@@ -2371,7 +2371,9 @@
       <c r="P2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="25"/>
+      <c r="Q2" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
@@ -2479,7 +2481,9 @@
       <c r="P3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="25"/>
+      <c r="Q3" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
@@ -2524,7 +2528,7 @@
       </c>
       <c r="AH3" s="21"/>
       <c r="AI3" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>68</v>
@@ -2544,16 +2548,16 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="29">
         <v>2000.0</v>
@@ -2563,22 +2567,22 @@
         <v>57</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="19" t="s">
@@ -2587,7 +2591,9 @@
       <c r="P4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="25"/>
+      <c r="Q4" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
@@ -2632,7 +2638,7 @@
       </c>
       <c r="AH4" s="21"/>
       <c r="AI4" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>68</v>
@@ -2652,13 +2658,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>71</v>
@@ -2671,22 +2677,22 @@
         <v>57</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="19" t="s">
@@ -2695,7 +2701,9 @@
       <c r="P5" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
@@ -2760,13 +2768,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>71</v>
@@ -2785,13 +2793,13 @@
         <v>57</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>57</v>
@@ -2803,7 +2811,9 @@
       <c r="P6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
@@ -2848,7 +2858,7 @@
       </c>
       <c r="AH6" s="21"/>
       <c r="AI6" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>68</v>
@@ -2868,13 +2878,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>71</v>
@@ -2893,13 +2903,13 @@
         <v>57</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>57</v>
@@ -2911,7 +2921,9 @@
       <c r="P7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="25"/>
+      <c r="Q7" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
@@ -2956,7 +2968,7 @@
       </c>
       <c r="AH7" s="21"/>
       <c r="AI7" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>68</v>
@@ -2976,13 +2988,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>71</v>
@@ -3001,13 +3013,13 @@
         <v>57</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>75</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>57</v>
@@ -3019,7 +3031,9 @@
       <c r="P8" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" s="25"/>
+      <c r="Q8" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
@@ -3064,7 +3078,7 @@
       </c>
       <c r="AH8" s="21"/>
       <c r="AI8" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>68</v>
@@ -3084,13 +3098,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>71</v>
@@ -3109,13 +3123,13 @@
         <v>57</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>57</v>
@@ -3127,7 +3141,9 @@
       <c r="P9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q9" s="25"/>
+      <c r="Q9" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
@@ -3172,7 +3188,7 @@
       </c>
       <c r="AH9" s="21"/>
       <c r="AI9" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ9" s="28" t="s">
         <v>68</v>
@@ -3192,13 +3208,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>71</v>
@@ -3217,13 +3233,13 @@
         <v>57</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>57</v>
@@ -3235,7 +3251,9 @@
       <c r="P10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="25"/>
+      <c r="Q10" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
@@ -3280,7 +3298,7 @@
       </c>
       <c r="AH10" s="21"/>
       <c r="AI10" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ10" s="28" t="s">
         <v>68</v>
@@ -3300,13 +3318,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>71</v>
@@ -3325,13 +3343,13 @@
         <v>57</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>57</v>
@@ -3343,7 +3361,9 @@
       <c r="P11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="25"/>
+      <c r="Q11" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
@@ -3388,7 +3408,7 @@
       </c>
       <c r="AH11" s="21"/>
       <c r="AI11" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ11" s="28" t="s">
         <v>68</v>
@@ -3408,13 +3428,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>71</v>
@@ -3433,13 +3453,13 @@
         <v>57</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>57</v>
@@ -3451,7 +3471,9 @@
       <c r="P12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="25"/>
+      <c r="Q12" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
@@ -3496,7 +3518,7 @@
       </c>
       <c r="AH12" s="21"/>
       <c r="AI12" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ12" s="28" t="s">
         <v>68</v>
@@ -3516,13 +3538,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>71</v>
@@ -3541,13 +3563,13 @@
         <v>57</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>57</v>
@@ -3559,7 +3581,9 @@
       <c r="P13" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="25"/>
+      <c r="Q13" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
@@ -3604,7 +3628,7 @@
       </c>
       <c r="AH13" s="21"/>
       <c r="AI13" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ13" s="28" t="s">
         <v>68</v>
@@ -3624,13 +3648,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>71</v>
@@ -3649,13 +3673,13 @@
         <v>57</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>57</v>
@@ -3667,7 +3691,9 @@
       <c r="P14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="25"/>
+      <c r="Q14" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
@@ -3712,7 +3738,7 @@
       </c>
       <c r="AH14" s="21"/>
       <c r="AI14" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ14" s="28" t="s">
         <v>68</v>
@@ -3732,13 +3758,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>71</v>
@@ -3757,13 +3783,13 @@
         <v>57</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>57</v>
@@ -3775,7 +3801,9 @@
       <c r="P15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" s="25"/>
+      <c r="Q15" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
@@ -3820,7 +3848,7 @@
       </c>
       <c r="AH15" s="21"/>
       <c r="AI15" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ15" s="28" t="s">
         <v>68</v>
@@ -3840,13 +3868,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>71</v>
@@ -3865,13 +3893,13 @@
         <v>57</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>57</v>
@@ -3883,7 +3911,9 @@
       <c r="P16" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q16" s="25"/>
+      <c r="Q16" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
@@ -3928,7 +3958,7 @@
       </c>
       <c r="AH16" s="21"/>
       <c r="AI16" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ16" s="28" t="s">
         <v>68</v>
@@ -3948,13 +3978,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>71</v>
@@ -3973,13 +4003,13 @@
         <v>57</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>57</v>
@@ -3991,7 +4021,9 @@
       <c r="P17" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="25"/>
+      <c r="Q17" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
@@ -4036,7 +4068,7 @@
       </c>
       <c r="AH17" s="21"/>
       <c r="AI17" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ17" s="28" t="s">
         <v>68</v>
@@ -4056,13 +4088,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>71</v>
@@ -4081,13 +4113,13 @@
         <v>57</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>57</v>
@@ -4099,7 +4131,9 @@
       <c r="P18" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q18" s="25"/>
+      <c r="Q18" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
@@ -4144,7 +4178,7 @@
       </c>
       <c r="AH18" s="21"/>
       <c r="AI18" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ18" s="28" t="s">
         <v>68</v>
@@ -4164,13 +4198,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>71</v>
@@ -4189,13 +4223,13 @@
         <v>57</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>57</v>
@@ -4207,7 +4241,9 @@
       <c r="P19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="25"/>
+      <c r="Q19" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -4252,7 +4288,7 @@
       </c>
       <c r="AH19" s="21"/>
       <c r="AI19" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ19" s="28" t="s">
         <v>68</v>
@@ -4272,13 +4308,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>71</v>
@@ -4297,13 +4333,13 @@
         <v>57</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>57</v>
@@ -4315,7 +4351,9 @@
       <c r="P20" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q20" s="25"/>
+      <c r="Q20" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
@@ -4360,7 +4398,7 @@
       </c>
       <c r="AH20" s="21"/>
       <c r="AI20" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ20" s="28" t="s">
         <v>68</v>
@@ -4380,13 +4418,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>71</v>
@@ -4405,13 +4443,13 @@
         <v>57</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>57</v>
@@ -4423,7 +4461,9 @@
       <c r="P21" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q21" s="25"/>
+      <c r="Q21" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
       <c r="T21" s="25"/>
@@ -4468,7 +4508,7 @@
       </c>
       <c r="AH21" s="21"/>
       <c r="AI21" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ21" s="28" t="s">
         <v>68</v>
@@ -4488,13 +4528,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>71</v>
@@ -4513,13 +4553,13 @@
         <v>57</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M22" s="19" t="s">
         <v>57</v>
@@ -4531,7 +4571,9 @@
       <c r="P22" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="Q22" s="25"/>
+      <c r="Q22" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
@@ -4576,7 +4618,7 @@
       </c>
       <c r="AH22" s="21"/>
       <c r="AI22" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ22" s="28" t="s">
         <v>68</v>
@@ -4603,7 +4645,6 @@
       <c r="K23" s="31"/>
       <c r="N23" s="21"/>
       <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
@@ -4630,7 +4671,6 @@
       <c r="K24" s="31"/>
       <c r="N24" s="21"/>
       <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
@@ -4657,7 +4697,6 @@
       <c r="K25" s="31"/>
       <c r="N25" s="21"/>
       <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
@@ -4684,7 +4723,6 @@
       <c r="K26" s="31"/>
       <c r="N26" s="21"/>
       <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="25"/>
@@ -4711,7 +4749,6 @@
       <c r="K27" s="31"/>
       <c r="N27" s="21"/>
       <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
@@ -4738,7 +4775,6 @@
       <c r="K28" s="31"/>
       <c r="N28" s="21"/>
       <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
@@ -4765,7 +4801,6 @@
       <c r="K29" s="31"/>
       <c r="N29" s="21"/>
       <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
@@ -4792,7 +4827,6 @@
       <c r="K30" s="31"/>
       <c r="N30" s="21"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -4819,7 +4853,6 @@
       <c r="K31" s="31"/>
       <c r="N31" s="21"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
@@ -4846,7 +4879,6 @@
       <c r="K32" s="31"/>
       <c r="N32" s="21"/>
       <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
       <c r="T32" s="25"/>
@@ -4873,7 +4905,6 @@
       <c r="K33" s="31"/>
       <c r="N33" s="21"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
@@ -4900,7 +4931,6 @@
       <c r="K34" s="31"/>
       <c r="N34" s="21"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="25"/>
@@ -4927,7 +4957,6 @@
       <c r="K35" s="31"/>
       <c r="N35" s="21"/>
       <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
@@ -4954,7 +4983,6 @@
       <c r="K36" s="31"/>
       <c r="N36" s="21"/>
       <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
@@ -4981,7 +5009,6 @@
       <c r="K37" s="31"/>
       <c r="N37" s="21"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
@@ -5008,7 +5035,6 @@
       <c r="K38" s="31"/>
       <c r="N38" s="21"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
@@ -5035,7 +5061,6 @@
       <c r="K39" s="31"/>
       <c r="N39" s="21"/>
       <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
@@ -5062,7 +5087,6 @@
       <c r="K40" s="31"/>
       <c r="N40" s="21"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
@@ -5089,7 +5113,6 @@
       <c r="K41" s="31"/>
       <c r="N41" s="21"/>
       <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
@@ -5116,7 +5139,6 @@
       <c r="K42" s="31"/>
       <c r="N42" s="21"/>
       <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
@@ -5143,7 +5165,6 @@
       <c r="K43" s="31"/>
       <c r="N43" s="21"/>
       <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
@@ -5170,7 +5191,6 @@
       <c r="K44" s="31"/>
       <c r="N44" s="21"/>
       <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
@@ -5197,7 +5217,6 @@
       <c r="K45" s="31"/>
       <c r="N45" s="21"/>
       <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
@@ -5224,7 +5243,6 @@
       <c r="K46" s="31"/>
       <c r="N46" s="21"/>
       <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
@@ -5251,7 +5269,6 @@
       <c r="K47" s="31"/>
       <c r="N47" s="21"/>
       <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
@@ -5278,7 +5295,6 @@
       <c r="K48" s="31"/>
       <c r="N48" s="21"/>
       <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
       <c r="R48" s="25"/>
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
@@ -5305,7 +5321,6 @@
       <c r="K49" s="31"/>
       <c r="N49" s="21"/>
       <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
       <c r="T49" s="25"/>
@@ -5332,7 +5347,6 @@
       <c r="K50" s="31"/>
       <c r="N50" s="21"/>
       <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
@@ -5359,7 +5373,6 @@
       <c r="K51" s="31"/>
       <c r="N51" s="21"/>
       <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
       <c r="T51" s="25"/>
@@ -5386,7 +5399,6 @@
       <c r="K52" s="31"/>
       <c r="N52" s="21"/>
       <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
@@ -5413,7 +5425,6 @@
       <c r="K53" s="31"/>
       <c r="N53" s="21"/>
       <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
@@ -5440,7 +5451,6 @@
       <c r="K54" s="31"/>
       <c r="N54" s="21"/>
       <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
@@ -5467,7 +5477,6 @@
       <c r="K55" s="31"/>
       <c r="N55" s="21"/>
       <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
       <c r="R55" s="25"/>
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
@@ -5494,7 +5503,6 @@
       <c r="K56" s="31"/>
       <c r="N56" s="21"/>
       <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
       <c r="R56" s="25"/>
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
@@ -5521,7 +5529,6 @@
       <c r="K57" s="31"/>
       <c r="N57" s="21"/>
       <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
       <c r="R57" s="25"/>
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
@@ -5548,7 +5555,6 @@
       <c r="K58" s="31"/>
       <c r="N58" s="21"/>
       <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
       <c r="R58" s="25"/>
       <c r="S58" s="25"/>
       <c r="T58" s="25"/>
@@ -5575,7 +5581,6 @@
       <c r="K59" s="31"/>
       <c r="N59" s="21"/>
       <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
       <c r="R59" s="25"/>
       <c r="S59" s="25"/>
       <c r="T59" s="25"/>
@@ -5602,7 +5607,6 @@
       <c r="K60" s="31"/>
       <c r="N60" s="21"/>
       <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
       <c r="R60" s="25"/>
       <c r="S60" s="25"/>
       <c r="T60" s="25"/>
@@ -5629,7 +5633,6 @@
       <c r="K61" s="31"/>
       <c r="N61" s="21"/>
       <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
       <c r="R61" s="25"/>
       <c r="S61" s="25"/>
       <c r="T61" s="25"/>
@@ -5656,7 +5659,6 @@
       <c r="K62" s="31"/>
       <c r="N62" s="21"/>
       <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
       <c r="R62" s="25"/>
       <c r="S62" s="25"/>
       <c r="T62" s="25"/>
@@ -5683,7 +5685,6 @@
       <c r="K63" s="31"/>
       <c r="N63" s="21"/>
       <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
       <c r="T63" s="25"/>
@@ -5710,7 +5711,6 @@
       <c r="K64" s="31"/>
       <c r="N64" s="21"/>
       <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
       <c r="T64" s="25"/>
@@ -5737,7 +5737,6 @@
       <c r="K65" s="31"/>
       <c r="N65" s="21"/>
       <c r="P65" s="25"/>
-      <c r="Q65" s="25"/>
       <c r="R65" s="25"/>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
@@ -5764,7 +5763,6 @@
       <c r="K66" s="31"/>
       <c r="N66" s="21"/>
       <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
       <c r="R66" s="25"/>
       <c r="S66" s="25"/>
       <c r="T66" s="25"/>
@@ -5791,7 +5789,6 @@
       <c r="K67" s="31"/>
       <c r="N67" s="21"/>
       <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
       <c r="R67" s="25"/>
       <c r="S67" s="25"/>
       <c r="T67" s="25"/>
@@ -5818,7 +5815,6 @@
       <c r="K68" s="31"/>
       <c r="N68" s="21"/>
       <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
       <c r="R68" s="25"/>
       <c r="S68" s="25"/>
       <c r="T68" s="25"/>
@@ -5845,7 +5841,6 @@
       <c r="K69" s="31"/>
       <c r="N69" s="21"/>
       <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
       <c r="R69" s="25"/>
       <c r="S69" s="25"/>
       <c r="T69" s="25"/>
@@ -5872,7 +5867,6 @@
       <c r="K70" s="31"/>
       <c r="N70" s="21"/>
       <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
       <c r="R70" s="25"/>
       <c r="S70" s="25"/>
       <c r="T70" s="25"/>
@@ -5899,7 +5893,6 @@
       <c r="K71" s="31"/>
       <c r="N71" s="21"/>
       <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
       <c r="R71" s="25"/>
       <c r="S71" s="25"/>
       <c r="T71" s="25"/>
@@ -5926,7 +5919,6 @@
       <c r="K72" s="31"/>
       <c r="N72" s="21"/>
       <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
       <c r="R72" s="25"/>
       <c r="S72" s="25"/>
       <c r="T72" s="25"/>
@@ -5953,7 +5945,6 @@
       <c r="K73" s="31"/>
       <c r="N73" s="21"/>
       <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
       <c r="R73" s="25"/>
       <c r="S73" s="25"/>
       <c r="T73" s="25"/>
@@ -5980,7 +5971,6 @@
       <c r="K74" s="31"/>
       <c r="N74" s="21"/>
       <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
       <c r="R74" s="25"/>
       <c r="S74" s="25"/>
       <c r="T74" s="25"/>
@@ -6007,7 +5997,6 @@
       <c r="K75" s="31"/>
       <c r="N75" s="21"/>
       <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
       <c r="R75" s="25"/>
       <c r="S75" s="25"/>
       <c r="T75" s="25"/>
@@ -6034,7 +6023,6 @@
       <c r="K76" s="31"/>
       <c r="N76" s="21"/>
       <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
       <c r="R76" s="25"/>
       <c r="S76" s="25"/>
       <c r="T76" s="25"/>
@@ -6061,7 +6049,6 @@
       <c r="K77" s="31"/>
       <c r="N77" s="21"/>
       <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
       <c r="R77" s="25"/>
       <c r="S77" s="25"/>
       <c r="T77" s="25"/>
@@ -6088,7 +6075,6 @@
       <c r="K78" s="31"/>
       <c r="N78" s="21"/>
       <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
       <c r="R78" s="25"/>
       <c r="S78" s="25"/>
       <c r="T78" s="25"/>
@@ -6115,7 +6101,6 @@
       <c r="K79" s="31"/>
       <c r="N79" s="21"/>
       <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
       <c r="R79" s="25"/>
       <c r="S79" s="25"/>
       <c r="T79" s="25"/>
@@ -6142,7 +6127,6 @@
       <c r="K80" s="31"/>
       <c r="N80" s="21"/>
       <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
       <c r="R80" s="25"/>
       <c r="S80" s="25"/>
       <c r="T80" s="25"/>
@@ -6169,7 +6153,6 @@
       <c r="K81" s="31"/>
       <c r="N81" s="21"/>
       <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
       <c r="R81" s="25"/>
       <c r="S81" s="25"/>
       <c r="T81" s="25"/>
@@ -6196,7 +6179,6 @@
       <c r="K82" s="31"/>
       <c r="N82" s="21"/>
       <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
       <c r="R82" s="25"/>
       <c r="S82" s="25"/>
       <c r="T82" s="25"/>
@@ -6223,7 +6205,6 @@
       <c r="K83" s="31"/>
       <c r="N83" s="21"/>
       <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
       <c r="R83" s="25"/>
       <c r="S83" s="25"/>
       <c r="T83" s="25"/>
@@ -6250,7 +6231,6 @@
       <c r="K84" s="31"/>
       <c r="N84" s="21"/>
       <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
       <c r="R84" s="25"/>
       <c r="S84" s="25"/>
       <c r="T84" s="25"/>
@@ -6277,7 +6257,6 @@
       <c r="K85" s="31"/>
       <c r="N85" s="21"/>
       <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
       <c r="R85" s="25"/>
       <c r="S85" s="25"/>
       <c r="T85" s="25"/>
@@ -6304,7 +6283,6 @@
       <c r="K86" s="31"/>
       <c r="N86" s="21"/>
       <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
       <c r="R86" s="25"/>
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
@@ -6331,7 +6309,6 @@
       <c r="K87" s="31"/>
       <c r="N87" s="21"/>
       <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
       <c r="R87" s="25"/>
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
@@ -6358,7 +6335,6 @@
       <c r="K88" s="31"/>
       <c r="N88" s="21"/>
       <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
       <c r="R88" s="25"/>
       <c r="S88" s="25"/>
       <c r="T88" s="25"/>
@@ -6385,7 +6361,6 @@
       <c r="K89" s="31"/>
       <c r="N89" s="21"/>
       <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
       <c r="R89" s="25"/>
       <c r="S89" s="25"/>
       <c r="T89" s="25"/>
@@ -6412,7 +6387,6 @@
       <c r="K90" s="31"/>
       <c r="N90" s="21"/>
       <c r="P90" s="25"/>
-      <c r="Q90" s="25"/>
       <c r="R90" s="25"/>
       <c r="S90" s="25"/>
       <c r="T90" s="25"/>
@@ -6439,7 +6413,6 @@
       <c r="K91" s="31"/>
       <c r="N91" s="21"/>
       <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
       <c r="R91" s="25"/>
       <c r="S91" s="25"/>
       <c r="T91" s="25"/>
@@ -6466,7 +6439,6 @@
       <c r="K92" s="31"/>
       <c r="N92" s="21"/>
       <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
       <c r="R92" s="25"/>
       <c r="S92" s="25"/>
       <c r="T92" s="25"/>
@@ -6493,7 +6465,6 @@
       <c r="K93" s="31"/>
       <c r="N93" s="21"/>
       <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
       <c r="R93" s="25"/>
       <c r="S93" s="25"/>
       <c r="T93" s="25"/>
@@ -6520,7 +6491,6 @@
       <c r="K94" s="31"/>
       <c r="N94" s="21"/>
       <c r="P94" s="25"/>
-      <c r="Q94" s="25"/>
       <c r="R94" s="25"/>
       <c r="S94" s="25"/>
       <c r="T94" s="25"/>
@@ -6547,7 +6517,6 @@
       <c r="K95" s="31"/>
       <c r="N95" s="21"/>
       <c r="P95" s="25"/>
-      <c r="Q95" s="25"/>
       <c r="R95" s="25"/>
       <c r="S95" s="25"/>
       <c r="T95" s="25"/>
@@ -6574,7 +6543,6 @@
       <c r="K96" s="31"/>
       <c r="N96" s="21"/>
       <c r="P96" s="25"/>
-      <c r="Q96" s="25"/>
       <c r="R96" s="25"/>
       <c r="S96" s="25"/>
       <c r="T96" s="25"/>
@@ -6601,7 +6569,6 @@
       <c r="K97" s="31"/>
       <c r="N97" s="21"/>
       <c r="P97" s="25"/>
-      <c r="Q97" s="25"/>
       <c r="R97" s="25"/>
       <c r="S97" s="25"/>
       <c r="T97" s="25"/>
@@ -6628,7 +6595,6 @@
       <c r="K98" s="31"/>
       <c r="N98" s="21"/>
       <c r="P98" s="25"/>
-      <c r="Q98" s="25"/>
       <c r="R98" s="25"/>
       <c r="S98" s="25"/>
       <c r="T98" s="25"/>
@@ -6655,7 +6621,6 @@
       <c r="K99" s="31"/>
       <c r="N99" s="21"/>
       <c r="P99" s="25"/>
-      <c r="Q99" s="25"/>
       <c r="R99" s="25"/>
       <c r="S99" s="25"/>
       <c r="T99" s="25"/>
@@ -6682,7 +6647,6 @@
       <c r="K100" s="31"/>
       <c r="N100" s="21"/>
       <c r="P100" s="25"/>
-      <c r="Q100" s="25"/>
       <c r="R100" s="25"/>
       <c r="S100" s="25"/>
       <c r="T100" s="25"/>
@@ -6709,7 +6673,6 @@
       <c r="K101" s="31"/>
       <c r="N101" s="21"/>
       <c r="P101" s="25"/>
-      <c r="Q101" s="25"/>
       <c r="R101" s="25"/>
       <c r="S101" s="25"/>
       <c r="T101" s="25"/>
@@ -6736,7 +6699,6 @@
       <c r="K102" s="31"/>
       <c r="N102" s="21"/>
       <c r="P102" s="25"/>
-      <c r="Q102" s="25"/>
       <c r="R102" s="25"/>
       <c r="S102" s="25"/>
       <c r="T102" s="25"/>
@@ -6763,7 +6725,6 @@
       <c r="K103" s="31"/>
       <c r="N103" s="21"/>
       <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
       <c r="R103" s="25"/>
       <c r="S103" s="25"/>
       <c r="T103" s="25"/>
@@ -6790,7 +6751,6 @@
       <c r="K104" s="31"/>
       <c r="N104" s="21"/>
       <c r="P104" s="25"/>
-      <c r="Q104" s="25"/>
       <c r="R104" s="25"/>
       <c r="S104" s="25"/>
       <c r="T104" s="25"/>
@@ -6817,7 +6777,6 @@
       <c r="K105" s="31"/>
       <c r="N105" s="21"/>
       <c r="P105" s="25"/>
-      <c r="Q105" s="25"/>
       <c r="R105" s="25"/>
       <c r="S105" s="25"/>
       <c r="T105" s="25"/>
@@ -6844,7 +6803,6 @@
       <c r="K106" s="31"/>
       <c r="N106" s="21"/>
       <c r="P106" s="25"/>
-      <c r="Q106" s="25"/>
       <c r="R106" s="25"/>
       <c r="S106" s="25"/>
       <c r="T106" s="25"/>
@@ -6871,7 +6829,6 @@
       <c r="K107" s="31"/>
       <c r="N107" s="21"/>
       <c r="P107" s="25"/>
-      <c r="Q107" s="25"/>
       <c r="R107" s="25"/>
       <c r="S107" s="25"/>
       <c r="T107" s="25"/>
@@ -6898,7 +6855,6 @@
       <c r="K108" s="31"/>
       <c r="N108" s="21"/>
       <c r="P108" s="25"/>
-      <c r="Q108" s="25"/>
       <c r="R108" s="25"/>
       <c r="S108" s="25"/>
       <c r="T108" s="25"/>
@@ -6925,7 +6881,6 @@
       <c r="K109" s="31"/>
       <c r="N109" s="21"/>
       <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
       <c r="R109" s="25"/>
       <c r="S109" s="25"/>
       <c r="T109" s="25"/>
@@ -6952,7 +6907,6 @@
       <c r="K110" s="31"/>
       <c r="N110" s="21"/>
       <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
       <c r="R110" s="25"/>
       <c r="S110" s="25"/>
       <c r="T110" s="25"/>
@@ -6979,7 +6933,6 @@
       <c r="K111" s="31"/>
       <c r="N111" s="21"/>
       <c r="P111" s="25"/>
-      <c r="Q111" s="25"/>
       <c r="R111" s="25"/>
       <c r="S111" s="25"/>
       <c r="T111" s="25"/>
@@ -7006,7 +6959,6 @@
       <c r="K112" s="31"/>
       <c r="N112" s="21"/>
       <c r="P112" s="25"/>
-      <c r="Q112" s="25"/>
       <c r="R112" s="25"/>
       <c r="S112" s="25"/>
       <c r="T112" s="25"/>
@@ -7033,7 +6985,6 @@
       <c r="K113" s="31"/>
       <c r="N113" s="21"/>
       <c r="P113" s="25"/>
-      <c r="Q113" s="25"/>
       <c r="R113" s="25"/>
       <c r="S113" s="25"/>
       <c r="T113" s="25"/>
@@ -7060,7 +7011,6 @@
       <c r="K114" s="31"/>
       <c r="N114" s="21"/>
       <c r="P114" s="25"/>
-      <c r="Q114" s="25"/>
       <c r="R114" s="25"/>
       <c r="S114" s="25"/>
       <c r="T114" s="25"/>
@@ -7087,7 +7037,6 @@
       <c r="K115" s="31"/>
       <c r="N115" s="21"/>
       <c r="P115" s="25"/>
-      <c r="Q115" s="25"/>
       <c r="R115" s="25"/>
       <c r="S115" s="25"/>
       <c r="T115" s="25"/>
@@ -7114,7 +7063,6 @@
       <c r="K116" s="31"/>
       <c r="N116" s="21"/>
       <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
       <c r="R116" s="25"/>
       <c r="S116" s="25"/>
       <c r="T116" s="25"/>
@@ -7141,7 +7089,6 @@
       <c r="K117" s="31"/>
       <c r="N117" s="21"/>
       <c r="P117" s="25"/>
-      <c r="Q117" s="25"/>
       <c r="R117" s="25"/>
       <c r="S117" s="25"/>
       <c r="T117" s="25"/>
@@ -7168,7 +7115,6 @@
       <c r="K118" s="31"/>
       <c r="N118" s="21"/>
       <c r="P118" s="25"/>
-      <c r="Q118" s="25"/>
       <c r="R118" s="25"/>
       <c r="S118" s="25"/>
       <c r="T118" s="25"/>
@@ -7195,7 +7141,6 @@
       <c r="K119" s="31"/>
       <c r="N119" s="21"/>
       <c r="P119" s="25"/>
-      <c r="Q119" s="25"/>
       <c r="R119" s="25"/>
       <c r="S119" s="25"/>
       <c r="T119" s="25"/>
@@ -7222,7 +7167,6 @@
       <c r="K120" s="31"/>
       <c r="N120" s="21"/>
       <c r="P120" s="25"/>
-      <c r="Q120" s="25"/>
       <c r="R120" s="25"/>
       <c r="S120" s="25"/>
       <c r="T120" s="25"/>
@@ -7249,7 +7193,6 @@
       <c r="K121" s="31"/>
       <c r="N121" s="21"/>
       <c r="P121" s="25"/>
-      <c r="Q121" s="25"/>
       <c r="R121" s="25"/>
       <c r="S121" s="25"/>
       <c r="T121" s="25"/>
@@ -7276,7 +7219,6 @@
       <c r="K122" s="31"/>
       <c r="N122" s="21"/>
       <c r="P122" s="25"/>
-      <c r="Q122" s="25"/>
       <c r="R122" s="25"/>
       <c r="S122" s="25"/>
       <c r="T122" s="25"/>
@@ -7303,7 +7245,6 @@
       <c r="K123" s="31"/>
       <c r="N123" s="21"/>
       <c r="P123" s="25"/>
-      <c r="Q123" s="25"/>
       <c r="R123" s="25"/>
       <c r="S123" s="25"/>
       <c r="T123" s="25"/>
@@ -7330,7 +7271,6 @@
       <c r="K124" s="31"/>
       <c r="N124" s="21"/>
       <c r="P124" s="25"/>
-      <c r="Q124" s="25"/>
       <c r="R124" s="25"/>
       <c r="S124" s="25"/>
       <c r="T124" s="25"/>
@@ -7357,7 +7297,6 @@
       <c r="K125" s="31"/>
       <c r="N125" s="21"/>
       <c r="P125" s="25"/>
-      <c r="Q125" s="25"/>
       <c r="R125" s="25"/>
       <c r="S125" s="25"/>
       <c r="T125" s="25"/>
@@ -7384,7 +7323,6 @@
       <c r="K126" s="31"/>
       <c r="N126" s="21"/>
       <c r="P126" s="25"/>
-      <c r="Q126" s="25"/>
       <c r="R126" s="25"/>
       <c r="S126" s="25"/>
       <c r="T126" s="25"/>
@@ -7411,7 +7349,6 @@
       <c r="K127" s="31"/>
       <c r="N127" s="21"/>
       <c r="P127" s="25"/>
-      <c r="Q127" s="25"/>
       <c r="R127" s="25"/>
       <c r="S127" s="25"/>
       <c r="T127" s="25"/>
@@ -7438,7 +7375,6 @@
       <c r="K128" s="31"/>
       <c r="N128" s="21"/>
       <c r="P128" s="25"/>
-      <c r="Q128" s="25"/>
       <c r="R128" s="25"/>
       <c r="S128" s="25"/>
       <c r="T128" s="25"/>
@@ -7465,7 +7401,6 @@
       <c r="K129" s="31"/>
       <c r="N129" s="21"/>
       <c r="P129" s="25"/>
-      <c r="Q129" s="25"/>
       <c r="R129" s="25"/>
       <c r="S129" s="25"/>
       <c r="T129" s="25"/>
@@ -7492,7 +7427,6 @@
       <c r="K130" s="31"/>
       <c r="N130" s="21"/>
       <c r="P130" s="25"/>
-      <c r="Q130" s="25"/>
       <c r="R130" s="25"/>
       <c r="S130" s="25"/>
       <c r="T130" s="25"/>
@@ -7519,7 +7453,6 @@
       <c r="K131" s="31"/>
       <c r="N131" s="21"/>
       <c r="P131" s="25"/>
-      <c r="Q131" s="25"/>
       <c r="R131" s="25"/>
       <c r="S131" s="25"/>
       <c r="T131" s="25"/>
@@ -7546,7 +7479,6 @@
       <c r="K132" s="31"/>
       <c r="N132" s="21"/>
       <c r="P132" s="25"/>
-      <c r="Q132" s="25"/>
       <c r="R132" s="25"/>
       <c r="S132" s="25"/>
       <c r="T132" s="25"/>
@@ -7573,7 +7505,6 @@
       <c r="K133" s="31"/>
       <c r="N133" s="21"/>
       <c r="P133" s="25"/>
-      <c r="Q133" s="25"/>
       <c r="R133" s="25"/>
       <c r="S133" s="25"/>
       <c r="T133" s="25"/>
@@ -7600,7 +7531,6 @@
       <c r="K134" s="31"/>
       <c r="N134" s="21"/>
       <c r="P134" s="25"/>
-      <c r="Q134" s="25"/>
       <c r="R134" s="25"/>
       <c r="S134" s="25"/>
       <c r="T134" s="25"/>
@@ -7627,7 +7557,6 @@
       <c r="K135" s="31"/>
       <c r="N135" s="21"/>
       <c r="P135" s="25"/>
-      <c r="Q135" s="25"/>
       <c r="R135" s="25"/>
       <c r="S135" s="25"/>
       <c r="T135" s="25"/>
@@ -7654,7 +7583,6 @@
       <c r="K136" s="31"/>
       <c r="N136" s="21"/>
       <c r="P136" s="25"/>
-      <c r="Q136" s="25"/>
       <c r="R136" s="25"/>
       <c r="S136" s="25"/>
       <c r="T136" s="25"/>
@@ -7681,7 +7609,6 @@
       <c r="K137" s="31"/>
       <c r="N137" s="21"/>
       <c r="P137" s="25"/>
-      <c r="Q137" s="25"/>
       <c r="R137" s="25"/>
       <c r="S137" s="25"/>
       <c r="T137" s="25"/>
@@ -7708,7 +7635,6 @@
       <c r="K138" s="31"/>
       <c r="N138" s="21"/>
       <c r="P138" s="25"/>
-      <c r="Q138" s="25"/>
       <c r="R138" s="25"/>
       <c r="S138" s="25"/>
       <c r="T138" s="25"/>
@@ -7735,7 +7661,6 @@
       <c r="K139" s="31"/>
       <c r="N139" s="21"/>
       <c r="P139" s="25"/>
-      <c r="Q139" s="25"/>
       <c r="R139" s="25"/>
       <c r="S139" s="25"/>
       <c r="T139" s="25"/>
@@ -7762,7 +7687,6 @@
       <c r="K140" s="31"/>
       <c r="N140" s="21"/>
       <c r="P140" s="25"/>
-      <c r="Q140" s="25"/>
       <c r="R140" s="25"/>
       <c r="S140" s="25"/>
       <c r="T140" s="25"/>
@@ -7789,7 +7713,6 @@
       <c r="K141" s="31"/>
       <c r="N141" s="21"/>
       <c r="P141" s="25"/>
-      <c r="Q141" s="25"/>
       <c r="R141" s="25"/>
       <c r="S141" s="25"/>
       <c r="T141" s="25"/>
@@ -7816,7 +7739,6 @@
       <c r="K142" s="31"/>
       <c r="N142" s="21"/>
       <c r="P142" s="25"/>
-      <c r="Q142" s="25"/>
       <c r="R142" s="25"/>
       <c r="S142" s="25"/>
       <c r="T142" s="25"/>
@@ -7843,7 +7765,6 @@
       <c r="K143" s="31"/>
       <c r="N143" s="21"/>
       <c r="P143" s="25"/>
-      <c r="Q143" s="25"/>
       <c r="R143" s="25"/>
       <c r="S143" s="25"/>
       <c r="T143" s="25"/>
@@ -7870,7 +7791,6 @@
       <c r="K144" s="31"/>
       <c r="N144" s="21"/>
       <c r="P144" s="25"/>
-      <c r="Q144" s="25"/>
       <c r="R144" s="25"/>
       <c r="S144" s="25"/>
       <c r="T144" s="25"/>
@@ -7897,7 +7817,6 @@
       <c r="K145" s="31"/>
       <c r="N145" s="21"/>
       <c r="P145" s="25"/>
-      <c r="Q145" s="25"/>
       <c r="R145" s="25"/>
       <c r="S145" s="25"/>
       <c r="T145" s="25"/>
@@ -7924,7 +7843,6 @@
       <c r="K146" s="31"/>
       <c r="N146" s="21"/>
       <c r="P146" s="25"/>
-      <c r="Q146" s="25"/>
       <c r="R146" s="25"/>
       <c r="S146" s="25"/>
       <c r="T146" s="25"/>
@@ -7951,7 +7869,6 @@
       <c r="K147" s="31"/>
       <c r="N147" s="21"/>
       <c r="P147" s="25"/>
-      <c r="Q147" s="25"/>
       <c r="R147" s="25"/>
       <c r="S147" s="25"/>
       <c r="T147" s="25"/>
@@ -7978,7 +7895,6 @@
       <c r="K148" s="31"/>
       <c r="N148" s="21"/>
       <c r="P148" s="25"/>
-      <c r="Q148" s="25"/>
       <c r="R148" s="25"/>
       <c r="S148" s="25"/>
       <c r="T148" s="25"/>
@@ -8005,7 +7921,6 @@
       <c r="K149" s="31"/>
       <c r="N149" s="21"/>
       <c r="P149" s="25"/>
-      <c r="Q149" s="25"/>
       <c r="R149" s="25"/>
       <c r="S149" s="25"/>
       <c r="T149" s="25"/>
@@ -8032,7 +7947,6 @@
       <c r="K150" s="31"/>
       <c r="N150" s="21"/>
       <c r="P150" s="25"/>
-      <c r="Q150" s="25"/>
       <c r="R150" s="25"/>
       <c r="S150" s="25"/>
       <c r="T150" s="25"/>
@@ -8059,7 +7973,6 @@
       <c r="K151" s="31"/>
       <c r="N151" s="21"/>
       <c r="P151" s="25"/>
-      <c r="Q151" s="25"/>
       <c r="R151" s="25"/>
       <c r="S151" s="25"/>
       <c r="T151" s="25"/>
@@ -8086,7 +7999,6 @@
       <c r="K152" s="31"/>
       <c r="N152" s="21"/>
       <c r="P152" s="25"/>
-      <c r="Q152" s="25"/>
       <c r="R152" s="25"/>
       <c r="S152" s="25"/>
       <c r="T152" s="25"/>
@@ -8113,7 +8025,6 @@
       <c r="K153" s="31"/>
       <c r="N153" s="21"/>
       <c r="P153" s="25"/>
-      <c r="Q153" s="25"/>
       <c r="R153" s="25"/>
       <c r="S153" s="25"/>
       <c r="T153" s="25"/>
@@ -8140,7 +8051,6 @@
       <c r="K154" s="31"/>
       <c r="N154" s="21"/>
       <c r="P154" s="25"/>
-      <c r="Q154" s="25"/>
       <c r="R154" s="25"/>
       <c r="S154" s="25"/>
       <c r="T154" s="25"/>
@@ -8167,7 +8077,6 @@
       <c r="K155" s="31"/>
       <c r="N155" s="21"/>
       <c r="P155" s="25"/>
-      <c r="Q155" s="25"/>
       <c r="R155" s="25"/>
       <c r="S155" s="25"/>
       <c r="T155" s="25"/>
@@ -8194,7 +8103,6 @@
       <c r="K156" s="31"/>
       <c r="N156" s="21"/>
       <c r="P156" s="25"/>
-      <c r="Q156" s="25"/>
       <c r="R156" s="25"/>
       <c r="S156" s="25"/>
       <c r="T156" s="25"/>
@@ -8221,7 +8129,6 @@
       <c r="K157" s="31"/>
       <c r="N157" s="21"/>
       <c r="P157" s="25"/>
-      <c r="Q157" s="25"/>
       <c r="R157" s="25"/>
       <c r="S157" s="25"/>
       <c r="T157" s="25"/>
@@ -8248,7 +8155,6 @@
       <c r="K158" s="31"/>
       <c r="N158" s="21"/>
       <c r="P158" s="25"/>
-      <c r="Q158" s="25"/>
       <c r="R158" s="25"/>
       <c r="S158" s="25"/>
       <c r="T158" s="25"/>
@@ -8275,7 +8181,6 @@
       <c r="K159" s="31"/>
       <c r="N159" s="21"/>
       <c r="P159" s="25"/>
-      <c r="Q159" s="25"/>
       <c r="R159" s="25"/>
       <c r="S159" s="25"/>
       <c r="T159" s="25"/>
@@ -8302,7 +8207,6 @@
       <c r="K160" s="31"/>
       <c r="N160" s="21"/>
       <c r="P160" s="25"/>
-      <c r="Q160" s="25"/>
       <c r="R160" s="25"/>
       <c r="S160" s="25"/>
       <c r="T160" s="25"/>
@@ -8329,7 +8233,6 @@
       <c r="K161" s="31"/>
       <c r="N161" s="21"/>
       <c r="P161" s="25"/>
-      <c r="Q161" s="25"/>
       <c r="R161" s="25"/>
       <c r="S161" s="25"/>
       <c r="T161" s="25"/>
@@ -8356,7 +8259,6 @@
       <c r="K162" s="31"/>
       <c r="N162" s="21"/>
       <c r="P162" s="25"/>
-      <c r="Q162" s="25"/>
       <c r="R162" s="25"/>
       <c r="S162" s="25"/>
       <c r="T162" s="25"/>
@@ -8383,7 +8285,6 @@
       <c r="K163" s="31"/>
       <c r="N163" s="21"/>
       <c r="P163" s="25"/>
-      <c r="Q163" s="25"/>
       <c r="R163" s="25"/>
       <c r="S163" s="25"/>
       <c r="T163" s="25"/>
@@ -8410,7 +8311,6 @@
       <c r="K164" s="31"/>
       <c r="N164" s="21"/>
       <c r="P164" s="25"/>
-      <c r="Q164" s="25"/>
       <c r="R164" s="25"/>
       <c r="S164" s="25"/>
       <c r="T164" s="25"/>
@@ -8437,7 +8337,6 @@
       <c r="K165" s="31"/>
       <c r="N165" s="21"/>
       <c r="P165" s="25"/>
-      <c r="Q165" s="25"/>
       <c r="R165" s="25"/>
       <c r="S165" s="25"/>
       <c r="T165" s="25"/>
@@ -8464,7 +8363,6 @@
       <c r="K166" s="31"/>
       <c r="N166" s="21"/>
       <c r="P166" s="25"/>
-      <c r="Q166" s="25"/>
       <c r="R166" s="25"/>
       <c r="S166" s="25"/>
       <c r="T166" s="25"/>
@@ -8491,7 +8389,6 @@
       <c r="K167" s="31"/>
       <c r="N167" s="21"/>
       <c r="P167" s="25"/>
-      <c r="Q167" s="25"/>
       <c r="R167" s="25"/>
       <c r="S167" s="25"/>
       <c r="T167" s="25"/>
@@ -8518,7 +8415,6 @@
       <c r="K168" s="31"/>
       <c r="N168" s="21"/>
       <c r="P168" s="25"/>
-      <c r="Q168" s="25"/>
       <c r="R168" s="25"/>
       <c r="S168" s="25"/>
       <c r="T168" s="25"/>
@@ -8545,7 +8441,6 @@
       <c r="K169" s="31"/>
       <c r="N169" s="21"/>
       <c r="P169" s="25"/>
-      <c r="Q169" s="25"/>
       <c r="R169" s="25"/>
       <c r="S169" s="25"/>
       <c r="T169" s="25"/>
@@ -8572,7 +8467,6 @@
       <c r="K170" s="31"/>
       <c r="N170" s="21"/>
       <c r="P170" s="25"/>
-      <c r="Q170" s="25"/>
       <c r="R170" s="25"/>
       <c r="S170" s="25"/>
       <c r="T170" s="25"/>
@@ -8599,7 +8493,6 @@
       <c r="K171" s="31"/>
       <c r="N171" s="21"/>
       <c r="P171" s="25"/>
-      <c r="Q171" s="25"/>
       <c r="R171" s="25"/>
       <c r="S171" s="25"/>
       <c r="T171" s="25"/>
@@ -8626,7 +8519,6 @@
       <c r="K172" s="31"/>
       <c r="N172" s="21"/>
       <c r="P172" s="25"/>
-      <c r="Q172" s="25"/>
       <c r="R172" s="25"/>
       <c r="S172" s="25"/>
       <c r="T172" s="25"/>
@@ -8653,7 +8545,6 @@
       <c r="K173" s="31"/>
       <c r="N173" s="21"/>
       <c r="P173" s="25"/>
-      <c r="Q173" s="25"/>
       <c r="R173" s="25"/>
       <c r="S173" s="25"/>
       <c r="T173" s="25"/>
@@ -8680,7 +8571,6 @@
       <c r="K174" s="31"/>
       <c r="N174" s="21"/>
       <c r="P174" s="25"/>
-      <c r="Q174" s="25"/>
       <c r="R174" s="25"/>
       <c r="S174" s="25"/>
       <c r="T174" s="25"/>
@@ -8707,7 +8597,6 @@
       <c r="K175" s="31"/>
       <c r="N175" s="21"/>
       <c r="P175" s="25"/>
-      <c r="Q175" s="25"/>
       <c r="R175" s="25"/>
       <c r="S175" s="25"/>
       <c r="T175" s="25"/>
@@ -8734,7 +8623,6 @@
       <c r="K176" s="31"/>
       <c r="N176" s="21"/>
       <c r="P176" s="25"/>
-      <c r="Q176" s="25"/>
       <c r="R176" s="25"/>
       <c r="S176" s="25"/>
       <c r="T176" s="25"/>
@@ -8761,7 +8649,6 @@
       <c r="K177" s="31"/>
       <c r="N177" s="21"/>
       <c r="P177" s="25"/>
-      <c r="Q177" s="25"/>
       <c r="R177" s="25"/>
       <c r="S177" s="25"/>
       <c r="T177" s="25"/>
@@ -8788,7 +8675,6 @@
       <c r="K178" s="31"/>
       <c r="N178" s="21"/>
       <c r="P178" s="25"/>
-      <c r="Q178" s="25"/>
       <c r="R178" s="25"/>
       <c r="S178" s="25"/>
       <c r="T178" s="25"/>
@@ -8815,7 +8701,6 @@
       <c r="K179" s="31"/>
       <c r="N179" s="21"/>
       <c r="P179" s="25"/>
-      <c r="Q179" s="25"/>
       <c r="R179" s="25"/>
       <c r="S179" s="25"/>
       <c r="T179" s="25"/>
@@ -8842,7 +8727,6 @@
       <c r="K180" s="31"/>
       <c r="N180" s="21"/>
       <c r="P180" s="25"/>
-      <c r="Q180" s="25"/>
       <c r="R180" s="25"/>
       <c r="S180" s="25"/>
       <c r="T180" s="25"/>
@@ -8869,7 +8753,6 @@
       <c r="K181" s="31"/>
       <c r="N181" s="21"/>
       <c r="P181" s="25"/>
-      <c r="Q181" s="25"/>
       <c r="R181" s="25"/>
       <c r="S181" s="25"/>
       <c r="T181" s="25"/>
@@ -8896,7 +8779,6 @@
       <c r="K182" s="31"/>
       <c r="N182" s="21"/>
       <c r="P182" s="25"/>
-      <c r="Q182" s="25"/>
       <c r="R182" s="25"/>
       <c r="S182" s="25"/>
       <c r="T182" s="25"/>
@@ -8923,7 +8805,6 @@
       <c r="K183" s="31"/>
       <c r="N183" s="21"/>
       <c r="P183" s="25"/>
-      <c r="Q183" s="25"/>
       <c r="R183" s="25"/>
       <c r="S183" s="25"/>
       <c r="T183" s="25"/>
@@ -8950,7 +8831,6 @@
       <c r="K184" s="31"/>
       <c r="N184" s="21"/>
       <c r="P184" s="25"/>
-      <c r="Q184" s="25"/>
       <c r="R184" s="25"/>
       <c r="S184" s="25"/>
       <c r="T184" s="25"/>
@@ -8977,7 +8857,6 @@
       <c r="K185" s="31"/>
       <c r="N185" s="21"/>
       <c r="P185" s="25"/>
-      <c r="Q185" s="25"/>
       <c r="R185" s="25"/>
       <c r="S185" s="25"/>
       <c r="T185" s="25"/>
@@ -9004,7 +8883,6 @@
       <c r="K186" s="31"/>
       <c r="N186" s="21"/>
       <c r="P186" s="25"/>
-      <c r="Q186" s="25"/>
       <c r="R186" s="25"/>
       <c r="S186" s="25"/>
       <c r="T186" s="25"/>
@@ -9031,7 +8909,6 @@
       <c r="K187" s="31"/>
       <c r="N187" s="21"/>
       <c r="P187" s="25"/>
-      <c r="Q187" s="25"/>
       <c r="R187" s="25"/>
       <c r="S187" s="25"/>
       <c r="T187" s="25"/>
@@ -9058,7 +8935,6 @@
       <c r="K188" s="31"/>
       <c r="N188" s="21"/>
       <c r="P188" s="25"/>
-      <c r="Q188" s="25"/>
       <c r="R188" s="25"/>
       <c r="S188" s="25"/>
       <c r="T188" s="25"/>
@@ -9085,7 +8961,6 @@
       <c r="K189" s="31"/>
       <c r="N189" s="21"/>
       <c r="P189" s="25"/>
-      <c r="Q189" s="25"/>
       <c r="R189" s="25"/>
       <c r="S189" s="25"/>
       <c r="T189" s="25"/>
@@ -9112,7 +8987,6 @@
       <c r="K190" s="31"/>
       <c r="N190" s="21"/>
       <c r="P190" s="25"/>
-      <c r="Q190" s="25"/>
       <c r="R190" s="25"/>
       <c r="S190" s="25"/>
       <c r="T190" s="25"/>
@@ -9139,7 +9013,6 @@
       <c r="K191" s="31"/>
       <c r="N191" s="21"/>
       <c r="P191" s="25"/>
-      <c r="Q191" s="25"/>
       <c r="R191" s="25"/>
       <c r="S191" s="25"/>
       <c r="T191" s="25"/>
@@ -9166,7 +9039,6 @@
       <c r="K192" s="31"/>
       <c r="N192" s="21"/>
       <c r="P192" s="25"/>
-      <c r="Q192" s="25"/>
       <c r="R192" s="25"/>
       <c r="S192" s="25"/>
       <c r="T192" s="25"/>
@@ -9193,7 +9065,6 @@
       <c r="K193" s="31"/>
       <c r="N193" s="21"/>
       <c r="P193" s="25"/>
-      <c r="Q193" s="25"/>
       <c r="R193" s="25"/>
       <c r="S193" s="25"/>
       <c r="T193" s="25"/>
@@ -9220,7 +9091,6 @@
       <c r="K194" s="31"/>
       <c r="N194" s="21"/>
       <c r="P194" s="25"/>
-      <c r="Q194" s="25"/>
       <c r="R194" s="25"/>
       <c r="S194" s="25"/>
       <c r="T194" s="25"/>
@@ -9247,7 +9117,6 @@
       <c r="K195" s="31"/>
       <c r="N195" s="21"/>
       <c r="P195" s="25"/>
-      <c r="Q195" s="25"/>
       <c r="R195" s="25"/>
       <c r="S195" s="25"/>
       <c r="T195" s="25"/>
@@ -9274,7 +9143,6 @@
       <c r="K196" s="31"/>
       <c r="N196" s="21"/>
       <c r="P196" s="25"/>
-      <c r="Q196" s="25"/>
       <c r="R196" s="25"/>
       <c r="S196" s="25"/>
       <c r="T196" s="25"/>
@@ -9301,7 +9169,6 @@
       <c r="K197" s="31"/>
       <c r="N197" s="21"/>
       <c r="P197" s="25"/>
-      <c r="Q197" s="25"/>
       <c r="R197" s="25"/>
       <c r="S197" s="25"/>
       <c r="T197" s="25"/>
@@ -9328,7 +9195,6 @@
       <c r="K198" s="31"/>
       <c r="N198" s="21"/>
       <c r="P198" s="25"/>
-      <c r="Q198" s="25"/>
       <c r="R198" s="25"/>
       <c r="S198" s="25"/>
       <c r="T198" s="25"/>
@@ -9355,7 +9221,6 @@
       <c r="K199" s="31"/>
       <c r="N199" s="21"/>
       <c r="P199" s="25"/>
-      <c r="Q199" s="25"/>
       <c r="R199" s="25"/>
       <c r="S199" s="25"/>
       <c r="T199" s="25"/>
@@ -9382,7 +9247,6 @@
       <c r="K200" s="31"/>
       <c r="N200" s="21"/>
       <c r="P200" s="25"/>
-      <c r="Q200" s="25"/>
       <c r="R200" s="25"/>
       <c r="S200" s="25"/>
       <c r="T200" s="25"/>
@@ -9409,7 +9273,6 @@
       <c r="K201" s="31"/>
       <c r="N201" s="21"/>
       <c r="P201" s="25"/>
-      <c r="Q201" s="25"/>
       <c r="R201" s="25"/>
       <c r="S201" s="25"/>
       <c r="T201" s="25"/>
@@ -9436,7 +9299,6 @@
       <c r="K202" s="31"/>
       <c r="N202" s="21"/>
       <c r="P202" s="25"/>
-      <c r="Q202" s="25"/>
       <c r="R202" s="25"/>
       <c r="S202" s="25"/>
       <c r="T202" s="25"/>
@@ -9463,7 +9325,6 @@
       <c r="K203" s="31"/>
       <c r="N203" s="21"/>
       <c r="P203" s="25"/>
-      <c r="Q203" s="25"/>
       <c r="R203" s="25"/>
       <c r="S203" s="25"/>
       <c r="T203" s="25"/>
@@ -9490,7 +9351,6 @@
       <c r="K204" s="31"/>
       <c r="N204" s="21"/>
       <c r="P204" s="25"/>
-      <c r="Q204" s="25"/>
       <c r="R204" s="25"/>
       <c r="S204" s="25"/>
       <c r="T204" s="25"/>
@@ -9517,7 +9377,6 @@
       <c r="K205" s="31"/>
       <c r="N205" s="21"/>
       <c r="P205" s="25"/>
-      <c r="Q205" s="25"/>
       <c r="R205" s="25"/>
       <c r="S205" s="25"/>
       <c r="T205" s="25"/>
@@ -9544,7 +9403,6 @@
       <c r="K206" s="31"/>
       <c r="N206" s="21"/>
       <c r="P206" s="25"/>
-      <c r="Q206" s="25"/>
       <c r="R206" s="25"/>
       <c r="S206" s="25"/>
       <c r="T206" s="25"/>
@@ -9571,7 +9429,6 @@
       <c r="K207" s="31"/>
       <c r="N207" s="21"/>
       <c r="P207" s="25"/>
-      <c r="Q207" s="25"/>
       <c r="R207" s="25"/>
       <c r="S207" s="25"/>
       <c r="T207" s="25"/>
@@ -9598,7 +9455,6 @@
       <c r="K208" s="31"/>
       <c r="N208" s="21"/>
       <c r="P208" s="25"/>
-      <c r="Q208" s="25"/>
       <c r="R208" s="25"/>
       <c r="S208" s="25"/>
       <c r="T208" s="25"/>
@@ -9625,7 +9481,6 @@
       <c r="K209" s="31"/>
       <c r="N209" s="21"/>
       <c r="P209" s="25"/>
-      <c r="Q209" s="25"/>
       <c r="R209" s="25"/>
       <c r="S209" s="25"/>
       <c r="T209" s="25"/>
@@ -9652,7 +9507,6 @@
       <c r="K210" s="31"/>
       <c r="N210" s="21"/>
       <c r="P210" s="25"/>
-      <c r="Q210" s="25"/>
       <c r="R210" s="25"/>
       <c r="S210" s="25"/>
       <c r="T210" s="25"/>
@@ -9679,7 +9533,6 @@
       <c r="K211" s="31"/>
       <c r="N211" s="21"/>
       <c r="P211" s="25"/>
-      <c r="Q211" s="25"/>
       <c r="R211" s="25"/>
       <c r="S211" s="25"/>
       <c r="T211" s="25"/>
@@ -9706,7 +9559,6 @@
       <c r="K212" s="31"/>
       <c r="N212" s="21"/>
       <c r="P212" s="25"/>
-      <c r="Q212" s="25"/>
       <c r="R212" s="25"/>
       <c r="S212" s="25"/>
       <c r="T212" s="25"/>
@@ -9733,7 +9585,6 @@
       <c r="K213" s="31"/>
       <c r="N213" s="21"/>
       <c r="P213" s="25"/>
-      <c r="Q213" s="25"/>
       <c r="R213" s="25"/>
       <c r="S213" s="25"/>
       <c r="T213" s="25"/>
@@ -9760,7 +9611,6 @@
       <c r="K214" s="31"/>
       <c r="N214" s="21"/>
       <c r="P214" s="25"/>
-      <c r="Q214" s="25"/>
       <c r="R214" s="25"/>
       <c r="S214" s="25"/>
       <c r="T214" s="25"/>
@@ -9787,7 +9637,6 @@
       <c r="K215" s="31"/>
       <c r="N215" s="21"/>
       <c r="P215" s="25"/>
-      <c r="Q215" s="25"/>
       <c r="R215" s="25"/>
       <c r="S215" s="25"/>
       <c r="T215" s="25"/>
@@ -9814,7 +9663,6 @@
       <c r="K216" s="31"/>
       <c r="N216" s="21"/>
       <c r="P216" s="25"/>
-      <c r="Q216" s="25"/>
       <c r="R216" s="25"/>
       <c r="S216" s="25"/>
       <c r="T216" s="25"/>
@@ -9841,7 +9689,6 @@
       <c r="K217" s="31"/>
       <c r="N217" s="21"/>
       <c r="P217" s="25"/>
-      <c r="Q217" s="25"/>
       <c r="R217" s="25"/>
       <c r="S217" s="25"/>
       <c r="T217" s="25"/>
@@ -9868,7 +9715,6 @@
       <c r="K218" s="31"/>
       <c r="N218" s="21"/>
       <c r="P218" s="25"/>
-      <c r="Q218" s="25"/>
       <c r="R218" s="25"/>
       <c r="S218" s="25"/>
       <c r="T218" s="25"/>
@@ -9895,7 +9741,6 @@
       <c r="K219" s="31"/>
       <c r="N219" s="21"/>
       <c r="P219" s="25"/>
-      <c r="Q219" s="25"/>
       <c r="R219" s="25"/>
       <c r="S219" s="25"/>
       <c r="T219" s="25"/>
@@ -9921,7 +9766,6 @@
       <c r="K220" s="31"/>
       <c r="N220" s="21"/>
       <c r="P220" s="25"/>
-      <c r="Q220" s="25"/>
       <c r="R220" s="25"/>
       <c r="S220" s="25"/>
       <c r="T220" s="25"/>
@@ -9947,7 +9791,6 @@
       <c r="K221" s="31"/>
       <c r="N221" s="21"/>
       <c r="P221" s="25"/>
-      <c r="Q221" s="25"/>
       <c r="R221" s="25"/>
       <c r="S221" s="25"/>
       <c r="T221" s="25"/>
@@ -9973,7 +9816,6 @@
       <c r="K222" s="31"/>
       <c r="N222" s="21"/>
       <c r="P222" s="25"/>
-      <c r="Q222" s="25"/>
       <c r="R222" s="25"/>
       <c r="S222" s="25"/>
       <c r="T222" s="25"/>
@@ -9999,7 +9841,6 @@
       <c r="K223" s="31"/>
       <c r="N223" s="21"/>
       <c r="P223" s="25"/>
-      <c r="Q223" s="25"/>
       <c r="R223" s="25"/>
       <c r="S223" s="25"/>
       <c r="T223" s="25"/>
@@ -10025,7 +9866,6 @@
       <c r="K224" s="31"/>
       <c r="N224" s="21"/>
       <c r="P224" s="25"/>
-      <c r="Q224" s="25"/>
       <c r="R224" s="25"/>
       <c r="S224" s="25"/>
       <c r="T224" s="25"/>
@@ -10051,7 +9891,6 @@
       <c r="K225" s="31"/>
       <c r="N225" s="21"/>
       <c r="P225" s="25"/>
-      <c r="Q225" s="25"/>
       <c r="R225" s="25"/>
       <c r="S225" s="25"/>
       <c r="T225" s="25"/>
@@ -10077,7 +9916,6 @@
       <c r="K226" s="31"/>
       <c r="N226" s="21"/>
       <c r="P226" s="25"/>
-      <c r="Q226" s="25"/>
       <c r="R226" s="25"/>
       <c r="S226" s="25"/>
       <c r="T226" s="25"/>
@@ -10103,7 +9941,6 @@
       <c r="K227" s="31"/>
       <c r="N227" s="21"/>
       <c r="P227" s="25"/>
-      <c r="Q227" s="25"/>
       <c r="R227" s="25"/>
       <c r="S227" s="25"/>
       <c r="T227" s="25"/>
@@ -10129,7 +9966,6 @@
       <c r="K228" s="31"/>
       <c r="N228" s="21"/>
       <c r="P228" s="25"/>
-      <c r="Q228" s="25"/>
       <c r="R228" s="25"/>
       <c r="S228" s="25"/>
       <c r="T228" s="25"/>
@@ -10155,7 +9991,6 @@
       <c r="K229" s="31"/>
       <c r="N229" s="21"/>
       <c r="P229" s="25"/>
-      <c r="Q229" s="25"/>
       <c r="R229" s="25"/>
       <c r="S229" s="25"/>
       <c r="T229" s="25"/>
@@ -10181,7 +10016,6 @@
       <c r="K230" s="31"/>
       <c r="N230" s="21"/>
       <c r="P230" s="25"/>
-      <c r="Q230" s="25"/>
       <c r="R230" s="25"/>
       <c r="S230" s="25"/>
       <c r="T230" s="25"/>
@@ -10207,7 +10041,6 @@
       <c r="K231" s="31"/>
       <c r="N231" s="21"/>
       <c r="P231" s="25"/>
-      <c r="Q231" s="25"/>
       <c r="R231" s="25"/>
       <c r="S231" s="25"/>
       <c r="T231" s="25"/>
@@ -10233,7 +10066,6 @@
       <c r="K232" s="31"/>
       <c r="N232" s="21"/>
       <c r="P232" s="25"/>
-      <c r="Q232" s="25"/>
       <c r="R232" s="25"/>
       <c r="S232" s="25"/>
       <c r="T232" s="25"/>
@@ -10259,7 +10091,6 @@
       <c r="K233" s="31"/>
       <c r="N233" s="21"/>
       <c r="P233" s="25"/>
-      <c r="Q233" s="25"/>
       <c r="R233" s="25"/>
       <c r="S233" s="25"/>
       <c r="T233" s="25"/>
@@ -10285,7 +10116,6 @@
       <c r="K234" s="31"/>
       <c r="N234" s="21"/>
       <c r="P234" s="25"/>
-      <c r="Q234" s="25"/>
       <c r="R234" s="25"/>
       <c r="S234" s="25"/>
       <c r="T234" s="25"/>
@@ -10311,7 +10141,6 @@
       <c r="K235" s="31"/>
       <c r="N235" s="21"/>
       <c r="P235" s="25"/>
-      <c r="Q235" s="25"/>
       <c r="R235" s="25"/>
       <c r="S235" s="25"/>
       <c r="T235" s="25"/>
@@ -10337,7 +10166,6 @@
       <c r="K236" s="31"/>
       <c r="N236" s="21"/>
       <c r="P236" s="25"/>
-      <c r="Q236" s="25"/>
       <c r="R236" s="25"/>
       <c r="S236" s="25"/>
       <c r="T236" s="25"/>
@@ -10363,7 +10191,6 @@
       <c r="K237" s="31"/>
       <c r="N237" s="21"/>
       <c r="P237" s="25"/>
-      <c r="Q237" s="25"/>
       <c r="R237" s="25"/>
       <c r="S237" s="25"/>
       <c r="T237" s="25"/>
@@ -10389,7 +10216,6 @@
       <c r="K238" s="31"/>
       <c r="N238" s="21"/>
       <c r="P238" s="25"/>
-      <c r="Q238" s="25"/>
       <c r="R238" s="25"/>
       <c r="S238" s="25"/>
       <c r="T238" s="25"/>
@@ -10415,7 +10241,6 @@
       <c r="K239" s="31"/>
       <c r="N239" s="21"/>
       <c r="P239" s="25"/>
-      <c r="Q239" s="25"/>
       <c r="R239" s="25"/>
       <c r="S239" s="25"/>
       <c r="T239" s="25"/>
@@ -10441,7 +10266,6 @@
       <c r="K240" s="31"/>
       <c r="N240" s="21"/>
       <c r="P240" s="25"/>
-      <c r="Q240" s="25"/>
       <c r="R240" s="25"/>
       <c r="S240" s="25"/>
       <c r="T240" s="25"/>
@@ -10467,7 +10291,6 @@
       <c r="K241" s="31"/>
       <c r="N241" s="21"/>
       <c r="P241" s="25"/>
-      <c r="Q241" s="25"/>
       <c r="R241" s="25"/>
       <c r="S241" s="25"/>
       <c r="T241" s="25"/>
@@ -10493,7 +10316,6 @@
       <c r="K242" s="31"/>
       <c r="N242" s="21"/>
       <c r="P242" s="25"/>
-      <c r="Q242" s="25"/>
       <c r="R242" s="25"/>
       <c r="S242" s="25"/>
       <c r="T242" s="25"/>
@@ -10519,7 +10341,6 @@
       <c r="K243" s="31"/>
       <c r="N243" s="21"/>
       <c r="P243" s="25"/>
-      <c r="Q243" s="25"/>
       <c r="R243" s="25"/>
       <c r="S243" s="25"/>
       <c r="T243" s="25"/>
@@ -10545,7 +10366,6 @@
       <c r="K244" s="31"/>
       <c r="N244" s="21"/>
       <c r="P244" s="25"/>
-      <c r="Q244" s="25"/>
       <c r="R244" s="25"/>
       <c r="S244" s="25"/>
       <c r="T244" s="25"/>
@@ -10571,7 +10391,6 @@
       <c r="K245" s="31"/>
       <c r="N245" s="21"/>
       <c r="P245" s="25"/>
-      <c r="Q245" s="25"/>
       <c r="R245" s="25"/>
       <c r="S245" s="25"/>
       <c r="T245" s="25"/>
@@ -10597,7 +10416,6 @@
       <c r="K246" s="31"/>
       <c r="N246" s="21"/>
       <c r="P246" s="25"/>
-      <c r="Q246" s="25"/>
       <c r="R246" s="25"/>
       <c r="S246" s="25"/>
       <c r="T246" s="25"/>
@@ -10623,7 +10441,6 @@
       <c r="K247" s="31"/>
       <c r="N247" s="21"/>
       <c r="P247" s="25"/>
-      <c r="Q247" s="25"/>
       <c r="R247" s="25"/>
       <c r="S247" s="25"/>
       <c r="T247" s="25"/>
@@ -10649,7 +10466,6 @@
       <c r="K248" s="31"/>
       <c r="N248" s="21"/>
       <c r="P248" s="25"/>
-      <c r="Q248" s="25"/>
       <c r="R248" s="25"/>
       <c r="S248" s="25"/>
       <c r="T248" s="25"/>
@@ -10675,7 +10491,6 @@
       <c r="K249" s="31"/>
       <c r="N249" s="21"/>
       <c r="P249" s="25"/>
-      <c r="Q249" s="25"/>
       <c r="R249" s="25"/>
       <c r="S249" s="25"/>
       <c r="T249" s="25"/>
@@ -10701,7 +10516,6 @@
       <c r="K250" s="31"/>
       <c r="N250" s="21"/>
       <c r="P250" s="25"/>
-      <c r="Q250" s="25"/>
       <c r="R250" s="25"/>
       <c r="S250" s="25"/>
       <c r="T250" s="25"/>
@@ -10727,7 +10541,6 @@
       <c r="K251" s="31"/>
       <c r="N251" s="21"/>
       <c r="P251" s="25"/>
-      <c r="Q251" s="25"/>
       <c r="R251" s="25"/>
       <c r="S251" s="25"/>
       <c r="T251" s="25"/>
@@ -10753,7 +10566,6 @@
       <c r="K252" s="31"/>
       <c r="N252" s="21"/>
       <c r="P252" s="25"/>
-      <c r="Q252" s="25"/>
       <c r="R252" s="25"/>
       <c r="S252" s="25"/>
       <c r="T252" s="25"/>
@@ -10779,7 +10591,6 @@
       <c r="K253" s="31"/>
       <c r="N253" s="21"/>
       <c r="P253" s="25"/>
-      <c r="Q253" s="25"/>
       <c r="R253" s="25"/>
       <c r="S253" s="25"/>
       <c r="T253" s="25"/>
@@ -10805,7 +10616,6 @@
       <c r="K254" s="31"/>
       <c r="N254" s="21"/>
       <c r="P254" s="25"/>
-      <c r="Q254" s="25"/>
       <c r="R254" s="25"/>
       <c r="S254" s="25"/>
       <c r="T254" s="25"/>
@@ -10831,7 +10641,6 @@
       <c r="K255" s="31"/>
       <c r="N255" s="21"/>
       <c r="P255" s="25"/>
-      <c r="Q255" s="25"/>
       <c r="R255" s="25"/>
       <c r="S255" s="25"/>
       <c r="T255" s="25"/>
@@ -10857,7 +10666,6 @@
       <c r="K256" s="31"/>
       <c r="N256" s="21"/>
       <c r="P256" s="25"/>
-      <c r="Q256" s="25"/>
       <c r="R256" s="25"/>
       <c r="S256" s="25"/>
       <c r="T256" s="25"/>
@@ -10883,7 +10691,6 @@
       <c r="K257" s="31"/>
       <c r="N257" s="21"/>
       <c r="P257" s="25"/>
-      <c r="Q257" s="25"/>
       <c r="R257" s="25"/>
       <c r="S257" s="25"/>
       <c r="T257" s="25"/>
@@ -10909,7 +10716,6 @@
       <c r="K258" s="31"/>
       <c r="N258" s="21"/>
       <c r="P258" s="25"/>
-      <c r="Q258" s="25"/>
       <c r="R258" s="25"/>
       <c r="S258" s="25"/>
       <c r="T258" s="25"/>
@@ -10935,7 +10741,6 @@
       <c r="K259" s="31"/>
       <c r="N259" s="21"/>
       <c r="P259" s="25"/>
-      <c r="Q259" s="25"/>
       <c r="R259" s="25"/>
       <c r="S259" s="25"/>
       <c r="T259" s="25"/>
@@ -10961,7 +10766,6 @@
       <c r="K260" s="31"/>
       <c r="N260" s="21"/>
       <c r="P260" s="25"/>
-      <c r="Q260" s="25"/>
       <c r="R260" s="25"/>
       <c r="S260" s="25"/>
       <c r="T260" s="25"/>
@@ -10987,7 +10791,6 @@
       <c r="K261" s="31"/>
       <c r="N261" s="21"/>
       <c r="P261" s="25"/>
-      <c r="Q261" s="25"/>
       <c r="R261" s="25"/>
       <c r="S261" s="25"/>
       <c r="T261" s="25"/>
@@ -11013,7 +10816,6 @@
       <c r="K262" s="31"/>
       <c r="N262" s="21"/>
       <c r="P262" s="25"/>
-      <c r="Q262" s="25"/>
       <c r="R262" s="25"/>
       <c r="S262" s="25"/>
       <c r="T262" s="25"/>
@@ -11039,7 +10841,6 @@
       <c r="K263" s="31"/>
       <c r="N263" s="21"/>
       <c r="P263" s="25"/>
-      <c r="Q263" s="25"/>
       <c r="R263" s="25"/>
       <c r="S263" s="25"/>
       <c r="T263" s="25"/>
@@ -11065,7 +10866,6 @@
       <c r="K264" s="31"/>
       <c r="N264" s="21"/>
       <c r="P264" s="25"/>
-      <c r="Q264" s="25"/>
       <c r="R264" s="25"/>
       <c r="S264" s="25"/>
       <c r="T264" s="25"/>
@@ -11091,7 +10891,6 @@
       <c r="K265" s="31"/>
       <c r="N265" s="21"/>
       <c r="P265" s="25"/>
-      <c r="Q265" s="25"/>
       <c r="R265" s="25"/>
       <c r="S265" s="25"/>
       <c r="T265" s="25"/>
@@ -11117,7 +10916,6 @@
       <c r="K266" s="31"/>
       <c r="N266" s="21"/>
       <c r="P266" s="25"/>
-      <c r="Q266" s="25"/>
       <c r="R266" s="25"/>
       <c r="S266" s="25"/>
       <c r="T266" s="25"/>
@@ -11143,7 +10941,6 @@
       <c r="K267" s="31"/>
       <c r="N267" s="21"/>
       <c r="P267" s="25"/>
-      <c r="Q267" s="25"/>
       <c r="R267" s="25"/>
       <c r="S267" s="25"/>
       <c r="T267" s="25"/>
@@ -11169,7 +10966,6 @@
       <c r="K268" s="31"/>
       <c r="N268" s="21"/>
       <c r="P268" s="25"/>
-      <c r="Q268" s="25"/>
       <c r="R268" s="25"/>
       <c r="S268" s="25"/>
       <c r="T268" s="25"/>
@@ -11195,7 +10991,6 @@
       <c r="K269" s="31"/>
       <c r="N269" s="21"/>
       <c r="P269" s="25"/>
-      <c r="Q269" s="25"/>
       <c r="R269" s="25"/>
       <c r="S269" s="25"/>
       <c r="T269" s="25"/>
@@ -11221,7 +11016,6 @@
       <c r="K270" s="31"/>
       <c r="N270" s="21"/>
       <c r="P270" s="25"/>
-      <c r="Q270" s="25"/>
       <c r="R270" s="25"/>
       <c r="S270" s="25"/>
       <c r="T270" s="25"/>
@@ -11247,7 +11041,6 @@
       <c r="K271" s="31"/>
       <c r="N271" s="21"/>
       <c r="P271" s="25"/>
-      <c r="Q271" s="25"/>
       <c r="R271" s="25"/>
       <c r="S271" s="25"/>
       <c r="T271" s="25"/>
@@ -11273,7 +11066,6 @@
       <c r="K272" s="31"/>
       <c r="N272" s="21"/>
       <c r="P272" s="25"/>
-      <c r="Q272" s="25"/>
       <c r="R272" s="25"/>
       <c r="S272" s="25"/>
       <c r="T272" s="25"/>
@@ -11299,7 +11091,6 @@
       <c r="K273" s="31"/>
       <c r="N273" s="21"/>
       <c r="P273" s="25"/>
-      <c r="Q273" s="25"/>
       <c r="R273" s="25"/>
       <c r="S273" s="25"/>
       <c r="T273" s="25"/>
@@ -11325,7 +11116,6 @@
       <c r="K274" s="31"/>
       <c r="N274" s="21"/>
       <c r="P274" s="25"/>
-      <c r="Q274" s="25"/>
       <c r="R274" s="25"/>
       <c r="S274" s="25"/>
       <c r="T274" s="25"/>
@@ -11351,7 +11141,6 @@
       <c r="K275" s="31"/>
       <c r="N275" s="21"/>
       <c r="P275" s="25"/>
-      <c r="Q275" s="25"/>
       <c r="R275" s="25"/>
       <c r="S275" s="25"/>
       <c r="T275" s="25"/>
@@ -11377,7 +11166,6 @@
       <c r="K276" s="31"/>
       <c r="N276" s="21"/>
       <c r="P276" s="25"/>
-      <c r="Q276" s="25"/>
       <c r="R276" s="25"/>
       <c r="S276" s="25"/>
       <c r="T276" s="25"/>
@@ -11403,7 +11191,6 @@
       <c r="K277" s="31"/>
       <c r="N277" s="21"/>
       <c r="P277" s="25"/>
-      <c r="Q277" s="25"/>
       <c r="R277" s="25"/>
       <c r="S277" s="25"/>
       <c r="T277" s="25"/>
@@ -11429,7 +11216,6 @@
       <c r="K278" s="31"/>
       <c r="N278" s="21"/>
       <c r="P278" s="25"/>
-      <c r="Q278" s="25"/>
       <c r="R278" s="25"/>
       <c r="S278" s="25"/>
       <c r="T278" s="25"/>
@@ -11455,7 +11241,6 @@
       <c r="K279" s="31"/>
       <c r="N279" s="21"/>
       <c r="P279" s="25"/>
-      <c r="Q279" s="25"/>
       <c r="R279" s="25"/>
       <c r="S279" s="25"/>
       <c r="T279" s="25"/>
@@ -11481,7 +11266,6 @@
       <c r="K280" s="31"/>
       <c r="N280" s="21"/>
       <c r="P280" s="25"/>
-      <c r="Q280" s="25"/>
       <c r="R280" s="25"/>
       <c r="S280" s="25"/>
       <c r="T280" s="25"/>
@@ -11507,7 +11291,6 @@
       <c r="K281" s="31"/>
       <c r="N281" s="21"/>
       <c r="P281" s="25"/>
-      <c r="Q281" s="25"/>
       <c r="R281" s="25"/>
       <c r="S281" s="25"/>
       <c r="T281" s="25"/>
@@ -11533,7 +11316,6 @@
       <c r="K282" s="31"/>
       <c r="N282" s="21"/>
       <c r="P282" s="25"/>
-      <c r="Q282" s="25"/>
       <c r="R282" s="25"/>
       <c r="S282" s="25"/>
       <c r="T282" s="25"/>
@@ -11559,7 +11341,6 @@
       <c r="K283" s="31"/>
       <c r="N283" s="21"/>
       <c r="P283" s="25"/>
-      <c r="Q283" s="25"/>
       <c r="R283" s="25"/>
       <c r="S283" s="25"/>
       <c r="T283" s="25"/>
@@ -11585,7 +11366,6 @@
       <c r="K284" s="31"/>
       <c r="N284" s="21"/>
       <c r="P284" s="25"/>
-      <c r="Q284" s="25"/>
       <c r="R284" s="25"/>
       <c r="S284" s="25"/>
       <c r="T284" s="25"/>
@@ -11611,7 +11391,6 @@
       <c r="K285" s="31"/>
       <c r="N285" s="21"/>
       <c r="P285" s="25"/>
-      <c r="Q285" s="25"/>
       <c r="R285" s="25"/>
       <c r="S285" s="25"/>
       <c r="T285" s="25"/>
@@ -11637,7 +11416,6 @@
       <c r="K286" s="31"/>
       <c r="N286" s="21"/>
       <c r="P286" s="25"/>
-      <c r="Q286" s="25"/>
       <c r="R286" s="25"/>
       <c r="S286" s="25"/>
       <c r="T286" s="25"/>
@@ -11663,7 +11441,6 @@
       <c r="K287" s="31"/>
       <c r="N287" s="21"/>
       <c r="P287" s="25"/>
-      <c r="Q287" s="25"/>
       <c r="R287" s="25"/>
       <c r="S287" s="25"/>
       <c r="T287" s="25"/>
@@ -11689,7 +11466,6 @@
       <c r="K288" s="31"/>
       <c r="N288" s="21"/>
       <c r="P288" s="25"/>
-      <c r="Q288" s="25"/>
       <c r="R288" s="25"/>
       <c r="S288" s="25"/>
       <c r="T288" s="25"/>
@@ -11715,7 +11491,6 @@
       <c r="K289" s="31"/>
       <c r="N289" s="21"/>
       <c r="P289" s="25"/>
-      <c r="Q289" s="25"/>
       <c r="R289" s="25"/>
       <c r="S289" s="25"/>
       <c r="T289" s="25"/>
@@ -11741,7 +11516,6 @@
       <c r="K290" s="31"/>
       <c r="N290" s="21"/>
       <c r="P290" s="25"/>
-      <c r="Q290" s="25"/>
       <c r="R290" s="25"/>
       <c r="S290" s="25"/>
       <c r="T290" s="25"/>
@@ -11767,7 +11541,6 @@
       <c r="K291" s="31"/>
       <c r="N291" s="21"/>
       <c r="P291" s="25"/>
-      <c r="Q291" s="25"/>
       <c r="R291" s="25"/>
       <c r="S291" s="25"/>
       <c r="T291" s="25"/>
@@ -11793,7 +11566,6 @@
       <c r="K292" s="31"/>
       <c r="N292" s="21"/>
       <c r="P292" s="25"/>
-      <c r="Q292" s="25"/>
       <c r="R292" s="25"/>
       <c r="S292" s="25"/>
       <c r="T292" s="25"/>
@@ -11819,7 +11591,6 @@
       <c r="K293" s="31"/>
       <c r="N293" s="21"/>
       <c r="P293" s="25"/>
-      <c r="Q293" s="25"/>
       <c r="R293" s="25"/>
       <c r="S293" s="25"/>
       <c r="T293" s="25"/>
@@ -11845,7 +11616,6 @@
       <c r="K294" s="31"/>
       <c r="N294" s="21"/>
       <c r="P294" s="25"/>
-      <c r="Q294" s="25"/>
       <c r="R294" s="25"/>
       <c r="S294" s="25"/>
       <c r="T294" s="25"/>
@@ -11871,7 +11641,6 @@
       <c r="K295" s="31"/>
       <c r="N295" s="21"/>
       <c r="P295" s="25"/>
-      <c r="Q295" s="25"/>
       <c r="R295" s="25"/>
       <c r="S295" s="25"/>
       <c r="T295" s="25"/>
@@ -11897,7 +11666,6 @@
       <c r="K296" s="31"/>
       <c r="N296" s="21"/>
       <c r="P296" s="25"/>
-      <c r="Q296" s="25"/>
       <c r="R296" s="25"/>
       <c r="S296" s="25"/>
       <c r="T296" s="25"/>
@@ -11923,7 +11691,6 @@
       <c r="K297" s="31"/>
       <c r="N297" s="21"/>
       <c r="P297" s="25"/>
-      <c r="Q297" s="25"/>
       <c r="R297" s="25"/>
       <c r="S297" s="25"/>
       <c r="T297" s="25"/>
@@ -11949,7 +11716,6 @@
       <c r="K298" s="31"/>
       <c r="N298" s="21"/>
       <c r="P298" s="25"/>
-      <c r="Q298" s="25"/>
       <c r="R298" s="25"/>
       <c r="S298" s="25"/>
       <c r="T298" s="25"/>
@@ -11975,7 +11741,6 @@
       <c r="K299" s="31"/>
       <c r="N299" s="21"/>
       <c r="P299" s="25"/>
-      <c r="Q299" s="25"/>
       <c r="R299" s="25"/>
       <c r="S299" s="25"/>
       <c r="T299" s="25"/>
@@ -12001,7 +11766,6 @@
       <c r="K300" s="31"/>
       <c r="N300" s="21"/>
       <c r="P300" s="25"/>
-      <c r="Q300" s="25"/>
       <c r="R300" s="25"/>
       <c r="S300" s="25"/>
       <c r="T300" s="25"/>
@@ -12027,7 +11791,6 @@
       <c r="K301" s="31"/>
       <c r="N301" s="21"/>
       <c r="P301" s="25"/>
-      <c r="Q301" s="25"/>
       <c r="R301" s="25"/>
       <c r="S301" s="25"/>
       <c r="T301" s="25"/>
@@ -12053,7 +11816,6 @@
       <c r="K302" s="31"/>
       <c r="N302" s="21"/>
       <c r="P302" s="25"/>
-      <c r="Q302" s="25"/>
       <c r="R302" s="25"/>
       <c r="S302" s="25"/>
       <c r="T302" s="25"/>
@@ -12079,7 +11841,6 @@
       <c r="K303" s="31"/>
       <c r="N303" s="21"/>
       <c r="P303" s="25"/>
-      <c r="Q303" s="25"/>
       <c r="R303" s="25"/>
       <c r="S303" s="25"/>
       <c r="T303" s="25"/>
@@ -12105,7 +11866,6 @@
       <c r="K304" s="31"/>
       <c r="N304" s="21"/>
       <c r="P304" s="25"/>
-      <c r="Q304" s="25"/>
       <c r="R304" s="25"/>
       <c r="S304" s="25"/>
       <c r="T304" s="25"/>
@@ -12131,7 +11891,6 @@
       <c r="K305" s="31"/>
       <c r="N305" s="21"/>
       <c r="P305" s="25"/>
-      <c r="Q305" s="25"/>
       <c r="R305" s="25"/>
       <c r="S305" s="25"/>
       <c r="T305" s="25"/>
@@ -12157,7 +11916,6 @@
       <c r="K306" s="31"/>
       <c r="N306" s="21"/>
       <c r="P306" s="25"/>
-      <c r="Q306" s="25"/>
       <c r="R306" s="25"/>
       <c r="S306" s="25"/>
       <c r="T306" s="25"/>
@@ -12183,7 +11941,6 @@
       <c r="K307" s="31"/>
       <c r="N307" s="21"/>
       <c r="P307" s="25"/>
-      <c r="Q307" s="25"/>
       <c r="R307" s="25"/>
       <c r="S307" s="25"/>
       <c r="T307" s="25"/>
@@ -12209,7 +11966,6 @@
       <c r="K308" s="31"/>
       <c r="N308" s="21"/>
       <c r="P308" s="25"/>
-      <c r="Q308" s="25"/>
       <c r="R308" s="25"/>
       <c r="S308" s="25"/>
       <c r="T308" s="25"/>
@@ -12235,7 +11991,6 @@
       <c r="K309" s="31"/>
       <c r="N309" s="21"/>
       <c r="P309" s="25"/>
-      <c r="Q309" s="25"/>
       <c r="R309" s="25"/>
       <c r="S309" s="25"/>
       <c r="T309" s="25"/>
@@ -12261,7 +12016,6 @@
       <c r="K310" s="31"/>
       <c r="N310" s="21"/>
       <c r="P310" s="25"/>
-      <c r="Q310" s="25"/>
       <c r="R310" s="25"/>
       <c r="S310" s="25"/>
       <c r="T310" s="25"/>
@@ -12287,7 +12041,6 @@
       <c r="K311" s="31"/>
       <c r="N311" s="21"/>
       <c r="P311" s="25"/>
-      <c r="Q311" s="25"/>
       <c r="R311" s="25"/>
       <c r="S311" s="25"/>
       <c r="T311" s="25"/>
@@ -12313,7 +12066,6 @@
       <c r="K312" s="31"/>
       <c r="N312" s="21"/>
       <c r="P312" s="25"/>
-      <c r="Q312" s="25"/>
       <c r="R312" s="25"/>
       <c r="S312" s="25"/>
       <c r="T312" s="25"/>
@@ -12339,7 +12091,6 @@
       <c r="K313" s="31"/>
       <c r="N313" s="21"/>
       <c r="P313" s="25"/>
-      <c r="Q313" s="25"/>
       <c r="R313" s="25"/>
       <c r="S313" s="25"/>
       <c r="T313" s="25"/>
@@ -12365,7 +12116,6 @@
       <c r="K314" s="31"/>
       <c r="N314" s="21"/>
       <c r="P314" s="25"/>
-      <c r="Q314" s="25"/>
       <c r="R314" s="25"/>
       <c r="S314" s="25"/>
       <c r="T314" s="25"/>
@@ -12391,7 +12141,6 @@
       <c r="K315" s="31"/>
       <c r="N315" s="21"/>
       <c r="P315" s="25"/>
-      <c r="Q315" s="25"/>
       <c r="R315" s="25"/>
       <c r="S315" s="25"/>
       <c r="T315" s="25"/>
@@ -12417,7 +12166,6 @@
       <c r="K316" s="31"/>
       <c r="N316" s="21"/>
       <c r="P316" s="25"/>
-      <c r="Q316" s="25"/>
       <c r="R316" s="25"/>
       <c r="S316" s="25"/>
       <c r="T316" s="25"/>
@@ -12443,7 +12191,6 @@
       <c r="K317" s="31"/>
       <c r="N317" s="21"/>
       <c r="P317" s="25"/>
-      <c r="Q317" s="25"/>
       <c r="R317" s="25"/>
       <c r="S317" s="25"/>
       <c r="T317" s="25"/>
@@ -12469,7 +12216,6 @@
       <c r="K318" s="31"/>
       <c r="N318" s="21"/>
       <c r="P318" s="25"/>
-      <c r="Q318" s="25"/>
       <c r="R318" s="25"/>
       <c r="S318" s="25"/>
       <c r="T318" s="25"/>
@@ -12495,7 +12241,6 @@
       <c r="K319" s="31"/>
       <c r="N319" s="21"/>
       <c r="P319" s="25"/>
-      <c r="Q319" s="25"/>
       <c r="R319" s="25"/>
       <c r="S319" s="25"/>
       <c r="T319" s="25"/>
@@ -12521,7 +12266,6 @@
       <c r="K320" s="31"/>
       <c r="N320" s="21"/>
       <c r="P320" s="25"/>
-      <c r="Q320" s="25"/>
       <c r="R320" s="25"/>
       <c r="S320" s="25"/>
       <c r="T320" s="25"/>
@@ -12547,7 +12291,6 @@
       <c r="K321" s="31"/>
       <c r="N321" s="21"/>
       <c r="P321" s="25"/>
-      <c r="Q321" s="25"/>
       <c r="R321" s="25"/>
       <c r="S321" s="25"/>
       <c r="T321" s="25"/>
@@ -12573,7 +12316,6 @@
       <c r="K322" s="31"/>
       <c r="N322" s="21"/>
       <c r="P322" s="25"/>
-      <c r="Q322" s="25"/>
       <c r="R322" s="25"/>
       <c r="S322" s="25"/>
       <c r="T322" s="25"/>
@@ -12599,7 +12341,6 @@
       <c r="K323" s="31"/>
       <c r="N323" s="21"/>
       <c r="P323" s="25"/>
-      <c r="Q323" s="25"/>
       <c r="R323" s="25"/>
       <c r="S323" s="25"/>
       <c r="T323" s="25"/>
@@ -12625,7 +12366,6 @@
       <c r="K324" s="31"/>
       <c r="N324" s="21"/>
       <c r="P324" s="25"/>
-      <c r="Q324" s="25"/>
       <c r="R324" s="25"/>
       <c r="S324" s="25"/>
       <c r="T324" s="25"/>
@@ -12651,7 +12391,6 @@
       <c r="K325" s="31"/>
       <c r="N325" s="21"/>
       <c r="P325" s="25"/>
-      <c r="Q325" s="25"/>
       <c r="R325" s="25"/>
       <c r="S325" s="25"/>
       <c r="T325" s="25"/>
@@ -12677,7 +12416,6 @@
       <c r="K326" s="31"/>
       <c r="N326" s="21"/>
       <c r="P326" s="25"/>
-      <c r="Q326" s="25"/>
       <c r="R326" s="25"/>
       <c r="S326" s="25"/>
       <c r="T326" s="25"/>
@@ -12703,7 +12441,6 @@
       <c r="K327" s="31"/>
       <c r="N327" s="21"/>
       <c r="P327" s="25"/>
-      <c r="Q327" s="25"/>
       <c r="R327" s="25"/>
       <c r="S327" s="25"/>
       <c r="T327" s="25"/>
@@ -12729,7 +12466,6 @@
       <c r="K328" s="31"/>
       <c r="N328" s="21"/>
       <c r="P328" s="25"/>
-      <c r="Q328" s="25"/>
       <c r="R328" s="25"/>
       <c r="S328" s="25"/>
       <c r="T328" s="25"/>
@@ -12755,7 +12491,6 @@
       <c r="K329" s="31"/>
       <c r="N329" s="21"/>
       <c r="P329" s="25"/>
-      <c r="Q329" s="25"/>
       <c r="R329" s="25"/>
       <c r="S329" s="25"/>
       <c r="T329" s="25"/>
@@ -12781,7 +12516,6 @@
       <c r="K330" s="31"/>
       <c r="N330" s="21"/>
       <c r="P330" s="25"/>
-      <c r="Q330" s="25"/>
       <c r="R330" s="25"/>
       <c r="S330" s="25"/>
       <c r="T330" s="25"/>
@@ -12807,7 +12541,6 @@
       <c r="K331" s="31"/>
       <c r="N331" s="21"/>
       <c r="P331" s="25"/>
-      <c r="Q331" s="25"/>
       <c r="R331" s="25"/>
       <c r="S331" s="25"/>
       <c r="T331" s="25"/>
@@ -12833,7 +12566,6 @@
       <c r="K332" s="31"/>
       <c r="N332" s="21"/>
       <c r="P332" s="25"/>
-      <c r="Q332" s="25"/>
       <c r="R332" s="25"/>
       <c r="S332" s="25"/>
       <c r="T332" s="25"/>
@@ -12859,7 +12591,6 @@
       <c r="K333" s="31"/>
       <c r="N333" s="21"/>
       <c r="P333" s="25"/>
-      <c r="Q333" s="25"/>
       <c r="R333" s="25"/>
       <c r="S333" s="25"/>
       <c r="T333" s="25"/>
@@ -12885,7 +12616,6 @@
       <c r="K334" s="31"/>
       <c r="N334" s="21"/>
       <c r="P334" s="25"/>
-      <c r="Q334" s="25"/>
       <c r="R334" s="25"/>
       <c r="S334" s="25"/>
       <c r="T334" s="25"/>
@@ -12911,7 +12641,6 @@
       <c r="K335" s="31"/>
       <c r="N335" s="21"/>
       <c r="P335" s="25"/>
-      <c r="Q335" s="25"/>
       <c r="R335" s="25"/>
       <c r="S335" s="25"/>
       <c r="T335" s="25"/>
@@ -12937,7 +12666,6 @@
       <c r="K336" s="31"/>
       <c r="N336" s="21"/>
       <c r="P336" s="25"/>
-      <c r="Q336" s="25"/>
       <c r="R336" s="25"/>
       <c r="S336" s="25"/>
       <c r="T336" s="25"/>
@@ -12963,7 +12691,6 @@
       <c r="K337" s="31"/>
       <c r="N337" s="21"/>
       <c r="P337" s="25"/>
-      <c r="Q337" s="25"/>
       <c r="R337" s="25"/>
       <c r="S337" s="25"/>
       <c r="T337" s="25"/>
@@ -12989,7 +12716,6 @@
       <c r="K338" s="31"/>
       <c r="N338" s="21"/>
       <c r="P338" s="25"/>
-      <c r="Q338" s="25"/>
       <c r="R338" s="25"/>
       <c r="S338" s="25"/>
       <c r="T338" s="25"/>
@@ -13015,7 +12741,6 @@
       <c r="K339" s="31"/>
       <c r="N339" s="21"/>
       <c r="P339" s="25"/>
-      <c r="Q339" s="25"/>
       <c r="R339" s="25"/>
       <c r="S339" s="25"/>
       <c r="T339" s="25"/>
@@ -13041,7 +12766,6 @@
       <c r="K340" s="31"/>
       <c r="N340" s="21"/>
       <c r="P340" s="25"/>
-      <c r="Q340" s="25"/>
       <c r="R340" s="25"/>
       <c r="S340" s="25"/>
       <c r="T340" s="25"/>
@@ -13067,7 +12791,6 @@
       <c r="K341" s="31"/>
       <c r="N341" s="21"/>
       <c r="P341" s="25"/>
-      <c r="Q341" s="25"/>
       <c r="R341" s="25"/>
       <c r="S341" s="25"/>
       <c r="T341" s="25"/>
@@ -13093,7 +12816,6 @@
       <c r="K342" s="31"/>
       <c r="N342" s="21"/>
       <c r="P342" s="25"/>
-      <c r="Q342" s="25"/>
       <c r="R342" s="25"/>
       <c r="S342" s="25"/>
       <c r="T342" s="25"/>
@@ -13119,7 +12841,6 @@
       <c r="K343" s="31"/>
       <c r="N343" s="21"/>
       <c r="P343" s="25"/>
-      <c r="Q343" s="25"/>
       <c r="R343" s="25"/>
       <c r="S343" s="25"/>
       <c r="T343" s="25"/>
@@ -13145,7 +12866,6 @@
       <c r="K344" s="31"/>
       <c r="N344" s="21"/>
       <c r="P344" s="25"/>
-      <c r="Q344" s="25"/>
       <c r="R344" s="25"/>
       <c r="S344" s="25"/>
       <c r="T344" s="25"/>
@@ -13171,7 +12891,6 @@
       <c r="K345" s="31"/>
       <c r="N345" s="21"/>
       <c r="P345" s="25"/>
-      <c r="Q345" s="25"/>
       <c r="R345" s="25"/>
       <c r="S345" s="25"/>
       <c r="T345" s="25"/>
@@ -13197,7 +12916,6 @@
       <c r="K346" s="31"/>
       <c r="N346" s="21"/>
       <c r="P346" s="25"/>
-      <c r="Q346" s="25"/>
       <c r="R346" s="25"/>
       <c r="S346" s="25"/>
       <c r="T346" s="25"/>
@@ -13223,7 +12941,6 @@
       <c r="K347" s="31"/>
       <c r="N347" s="21"/>
       <c r="P347" s="25"/>
-      <c r="Q347" s="25"/>
       <c r="R347" s="25"/>
       <c r="S347" s="25"/>
       <c r="T347" s="25"/>
@@ -13249,7 +12966,6 @@
       <c r="K348" s="31"/>
       <c r="N348" s="21"/>
       <c r="P348" s="25"/>
-      <c r="Q348" s="25"/>
       <c r="R348" s="25"/>
       <c r="S348" s="25"/>
       <c r="T348" s="25"/>
@@ -13275,7 +12991,6 @@
       <c r="K349" s="31"/>
       <c r="N349" s="21"/>
       <c r="P349" s="25"/>
-      <c r="Q349" s="25"/>
       <c r="R349" s="25"/>
       <c r="S349" s="25"/>
       <c r="T349" s="25"/>
@@ -13301,7 +13016,6 @@
       <c r="K350" s="31"/>
       <c r="N350" s="21"/>
       <c r="P350" s="25"/>
-      <c r="Q350" s="25"/>
       <c r="R350" s="25"/>
       <c r="S350" s="25"/>
       <c r="T350" s="25"/>
@@ -13327,7 +13041,6 @@
       <c r="K351" s="31"/>
       <c r="N351" s="21"/>
       <c r="P351" s="25"/>
-      <c r="Q351" s="25"/>
       <c r="R351" s="25"/>
       <c r="S351" s="25"/>
       <c r="T351" s="25"/>
@@ -13353,7 +13066,6 @@
       <c r="K352" s="31"/>
       <c r="N352" s="21"/>
       <c r="P352" s="25"/>
-      <c r="Q352" s="25"/>
       <c r="R352" s="25"/>
       <c r="S352" s="25"/>
       <c r="T352" s="25"/>
@@ -13379,7 +13091,6 @@
       <c r="K353" s="31"/>
       <c r="N353" s="21"/>
       <c r="P353" s="25"/>
-      <c r="Q353" s="25"/>
       <c r="R353" s="25"/>
       <c r="S353" s="25"/>
       <c r="T353" s="25"/>
@@ -13405,7 +13116,6 @@
       <c r="K354" s="31"/>
       <c r="N354" s="21"/>
       <c r="P354" s="25"/>
-      <c r="Q354" s="25"/>
       <c r="R354" s="25"/>
       <c r="S354" s="25"/>
       <c r="T354" s="25"/>
@@ -13431,7 +13141,6 @@
       <c r="K355" s="31"/>
       <c r="N355" s="21"/>
       <c r="P355" s="25"/>
-      <c r="Q355" s="25"/>
       <c r="R355" s="25"/>
       <c r="S355" s="25"/>
       <c r="T355" s="25"/>
@@ -13457,7 +13166,6 @@
       <c r="K356" s="31"/>
       <c r="N356" s="21"/>
       <c r="P356" s="25"/>
-      <c r="Q356" s="25"/>
       <c r="R356" s="25"/>
       <c r="S356" s="25"/>
       <c r="T356" s="25"/>
@@ -13483,7 +13191,6 @@
       <c r="K357" s="31"/>
       <c r="N357" s="21"/>
       <c r="P357" s="25"/>
-      <c r="Q357" s="25"/>
       <c r="R357" s="25"/>
       <c r="S357" s="25"/>
       <c r="T357" s="25"/>
@@ -13509,7 +13216,6 @@
       <c r="K358" s="31"/>
       <c r="N358" s="21"/>
       <c r="P358" s="25"/>
-      <c r="Q358" s="25"/>
       <c r="R358" s="25"/>
       <c r="S358" s="25"/>
       <c r="T358" s="25"/>
@@ -13535,7 +13241,6 @@
       <c r="K359" s="31"/>
       <c r="N359" s="21"/>
       <c r="P359" s="25"/>
-      <c r="Q359" s="25"/>
       <c r="R359" s="25"/>
       <c r="S359" s="25"/>
       <c r="T359" s="25"/>
@@ -13561,7 +13266,6 @@
       <c r="K360" s="31"/>
       <c r="N360" s="21"/>
       <c r="P360" s="25"/>
-      <c r="Q360" s="25"/>
       <c r="R360" s="25"/>
       <c r="S360" s="25"/>
       <c r="T360" s="25"/>
@@ -13587,7 +13291,6 @@
       <c r="K361" s="31"/>
       <c r="N361" s="21"/>
       <c r="P361" s="25"/>
-      <c r="Q361" s="25"/>
       <c r="R361" s="25"/>
       <c r="S361" s="25"/>
       <c r="T361" s="25"/>
@@ -13613,7 +13316,6 @@
       <c r="K362" s="31"/>
       <c r="N362" s="21"/>
       <c r="P362" s="25"/>
-      <c r="Q362" s="25"/>
       <c r="R362" s="25"/>
       <c r="S362" s="25"/>
       <c r="T362" s="25"/>
@@ -13639,7 +13341,6 @@
       <c r="K363" s="31"/>
       <c r="N363" s="21"/>
       <c r="P363" s="25"/>
-      <c r="Q363" s="25"/>
       <c r="R363" s="25"/>
       <c r="S363" s="25"/>
       <c r="T363" s="25"/>
@@ -13665,7 +13366,6 @@
       <c r="K364" s="31"/>
       <c r="N364" s="21"/>
       <c r="P364" s="25"/>
-      <c r="Q364" s="25"/>
       <c r="R364" s="25"/>
       <c r="S364" s="25"/>
       <c r="T364" s="25"/>
@@ -13691,7 +13391,6 @@
       <c r="K365" s="31"/>
       <c r="N365" s="21"/>
       <c r="P365" s="25"/>
-      <c r="Q365" s="25"/>
       <c r="R365" s="25"/>
       <c r="S365" s="25"/>
       <c r="T365" s="25"/>
@@ -13717,7 +13416,6 @@
       <c r="K366" s="31"/>
       <c r="N366" s="21"/>
       <c r="P366" s="25"/>
-      <c r="Q366" s="25"/>
       <c r="R366" s="25"/>
       <c r="S366" s="25"/>
       <c r="T366" s="25"/>
@@ -13743,7 +13441,6 @@
       <c r="K367" s="31"/>
       <c r="N367" s="21"/>
       <c r="P367" s="25"/>
-      <c r="Q367" s="25"/>
       <c r="R367" s="25"/>
       <c r="S367" s="25"/>
       <c r="T367" s="25"/>
@@ -13769,7 +13466,6 @@
       <c r="K368" s="31"/>
       <c r="N368" s="21"/>
       <c r="P368" s="25"/>
-      <c r="Q368" s="25"/>
       <c r="R368" s="25"/>
       <c r="S368" s="25"/>
       <c r="T368" s="25"/>
@@ -13795,7 +13491,6 @@
       <c r="K369" s="31"/>
       <c r="N369" s="21"/>
       <c r="P369" s="25"/>
-      <c r="Q369" s="25"/>
       <c r="R369" s="25"/>
       <c r="S369" s="25"/>
       <c r="T369" s="25"/>
@@ -13821,7 +13516,6 @@
       <c r="K370" s="31"/>
       <c r="N370" s="21"/>
       <c r="P370" s="25"/>
-      <c r="Q370" s="25"/>
       <c r="R370" s="25"/>
       <c r="S370" s="25"/>
       <c r="T370" s="25"/>
@@ -13847,7 +13541,6 @@
       <c r="K371" s="31"/>
       <c r="N371" s="21"/>
       <c r="P371" s="25"/>
-      <c r="Q371" s="25"/>
       <c r="R371" s="25"/>
       <c r="S371" s="25"/>
       <c r="T371" s="25"/>
@@ -13873,7 +13566,6 @@
       <c r="K372" s="31"/>
       <c r="N372" s="21"/>
       <c r="P372" s="25"/>
-      <c r="Q372" s="25"/>
       <c r="R372" s="25"/>
       <c r="S372" s="25"/>
       <c r="T372" s="25"/>
@@ -13899,7 +13591,6 @@
       <c r="K373" s="31"/>
       <c r="N373" s="21"/>
       <c r="P373" s="25"/>
-      <c r="Q373" s="25"/>
       <c r="R373" s="25"/>
       <c r="S373" s="25"/>
       <c r="T373" s="25"/>
@@ -13925,7 +13616,6 @@
       <c r="K374" s="31"/>
       <c r="N374" s="21"/>
       <c r="P374" s="25"/>
-      <c r="Q374" s="25"/>
       <c r="R374" s="25"/>
       <c r="S374" s="25"/>
       <c r="T374" s="25"/>
@@ -13951,7 +13641,6 @@
       <c r="K375" s="31"/>
       <c r="N375" s="21"/>
       <c r="P375" s="25"/>
-      <c r="Q375" s="25"/>
       <c r="R375" s="25"/>
       <c r="S375" s="25"/>
       <c r="T375" s="25"/>
@@ -13977,7 +13666,6 @@
       <c r="K376" s="31"/>
       <c r="N376" s="21"/>
       <c r="P376" s="25"/>
-      <c r="Q376" s="25"/>
       <c r="R376" s="25"/>
       <c r="S376" s="25"/>
       <c r="T376" s="25"/>
@@ -14003,7 +13691,6 @@
       <c r="K377" s="31"/>
       <c r="N377" s="21"/>
       <c r="P377" s="25"/>
-      <c r="Q377" s="25"/>
       <c r="R377" s="25"/>
       <c r="S377" s="25"/>
       <c r="T377" s="25"/>
@@ -14029,7 +13716,6 @@
       <c r="K378" s="31"/>
       <c r="N378" s="21"/>
       <c r="P378" s="25"/>
-      <c r="Q378" s="25"/>
       <c r="R378" s="25"/>
       <c r="S378" s="25"/>
       <c r="T378" s="25"/>
@@ -14055,7 +13741,6 @@
       <c r="K379" s="31"/>
       <c r="N379" s="21"/>
       <c r="P379" s="25"/>
-      <c r="Q379" s="25"/>
       <c r="R379" s="25"/>
       <c r="S379" s="25"/>
       <c r="T379" s="25"/>
@@ -14081,7 +13766,6 @@
       <c r="K380" s="31"/>
       <c r="N380" s="21"/>
       <c r="P380" s="25"/>
-      <c r="Q380" s="25"/>
       <c r="R380" s="25"/>
       <c r="S380" s="25"/>
       <c r="T380" s="25"/>
@@ -14107,7 +13791,6 @@
       <c r="K381" s="31"/>
       <c r="N381" s="21"/>
       <c r="P381" s="25"/>
-      <c r="Q381" s="25"/>
       <c r="R381" s="25"/>
       <c r="S381" s="25"/>
       <c r="T381" s="25"/>
@@ -14133,7 +13816,6 @@
       <c r="K382" s="31"/>
       <c r="N382" s="21"/>
       <c r="P382" s="25"/>
-      <c r="Q382" s="25"/>
       <c r="R382" s="25"/>
       <c r="S382" s="25"/>
       <c r="T382" s="25"/>
@@ -14159,7 +13841,6 @@
       <c r="K383" s="31"/>
       <c r="N383" s="21"/>
       <c r="P383" s="25"/>
-      <c r="Q383" s="25"/>
       <c r="R383" s="25"/>
       <c r="S383" s="25"/>
       <c r="T383" s="25"/>
@@ -14185,7 +13866,6 @@
       <c r="K384" s="31"/>
       <c r="N384" s="21"/>
       <c r="P384" s="25"/>
-      <c r="Q384" s="25"/>
       <c r="R384" s="25"/>
       <c r="S384" s="25"/>
       <c r="T384" s="25"/>
@@ -14211,7 +13891,6 @@
       <c r="K385" s="31"/>
       <c r="N385" s="21"/>
       <c r="P385" s="25"/>
-      <c r="Q385" s="25"/>
       <c r="R385" s="25"/>
       <c r="S385" s="25"/>
       <c r="T385" s="25"/>
@@ -14237,7 +13916,6 @@
       <c r="K386" s="31"/>
       <c r="N386" s="21"/>
       <c r="P386" s="25"/>
-      <c r="Q386" s="25"/>
       <c r="R386" s="25"/>
       <c r="S386" s="25"/>
       <c r="T386" s="25"/>
@@ -14263,7 +13941,6 @@
       <c r="K387" s="31"/>
       <c r="N387" s="21"/>
       <c r="P387" s="25"/>
-      <c r="Q387" s="25"/>
       <c r="R387" s="25"/>
       <c r="S387" s="25"/>
       <c r="T387" s="25"/>
@@ -14289,7 +13966,6 @@
       <c r="K388" s="31"/>
       <c r="N388" s="21"/>
       <c r="P388" s="25"/>
-      <c r="Q388" s="25"/>
       <c r="R388" s="25"/>
       <c r="S388" s="25"/>
       <c r="T388" s="25"/>
@@ -14315,7 +13991,6 @@
       <c r="K389" s="31"/>
       <c r="N389" s="21"/>
       <c r="P389" s="25"/>
-      <c r="Q389" s="25"/>
       <c r="R389" s="25"/>
       <c r="S389" s="25"/>
       <c r="T389" s="25"/>
@@ -14341,7 +14016,6 @@
       <c r="K390" s="31"/>
       <c r="N390" s="21"/>
       <c r="P390" s="25"/>
-      <c r="Q390" s="25"/>
       <c r="R390" s="25"/>
       <c r="S390" s="25"/>
       <c r="T390" s="25"/>
@@ -14367,7 +14041,6 @@
       <c r="K391" s="31"/>
       <c r="N391" s="21"/>
       <c r="P391" s="25"/>
-      <c r="Q391" s="25"/>
       <c r="R391" s="25"/>
       <c r="S391" s="25"/>
       <c r="T391" s="25"/>
@@ -14393,7 +14066,6 @@
       <c r="K392" s="31"/>
       <c r="N392" s="21"/>
       <c r="P392" s="25"/>
-      <c r="Q392" s="25"/>
       <c r="R392" s="25"/>
       <c r="S392" s="25"/>
       <c r="T392" s="25"/>
@@ -14419,7 +14091,6 @@
       <c r="K393" s="31"/>
       <c r="N393" s="21"/>
       <c r="P393" s="25"/>
-      <c r="Q393" s="25"/>
       <c r="R393" s="25"/>
       <c r="S393" s="25"/>
       <c r="T393" s="25"/>
@@ -14445,7 +14116,6 @@
       <c r="K394" s="31"/>
       <c r="N394" s="21"/>
       <c r="P394" s="25"/>
-      <c r="Q394" s="25"/>
       <c r="R394" s="25"/>
       <c r="S394" s="25"/>
       <c r="T394" s="25"/>
@@ -14471,7 +14141,6 @@
       <c r="K395" s="31"/>
       <c r="N395" s="21"/>
       <c r="P395" s="25"/>
-      <c r="Q395" s="25"/>
       <c r="R395" s="25"/>
       <c r="S395" s="25"/>
       <c r="T395" s="25"/>
@@ -14497,7 +14166,6 @@
       <c r="K396" s="31"/>
       <c r="N396" s="21"/>
       <c r="P396" s="25"/>
-      <c r="Q396" s="25"/>
       <c r="R396" s="25"/>
       <c r="S396" s="25"/>
       <c r="T396" s="25"/>
@@ -14523,7 +14191,6 @@
       <c r="K397" s="31"/>
       <c r="N397" s="21"/>
       <c r="P397" s="25"/>
-      <c r="Q397" s="25"/>
       <c r="R397" s="25"/>
       <c r="S397" s="25"/>
       <c r="T397" s="25"/>
@@ -14549,7 +14216,6 @@
       <c r="K398" s="31"/>
       <c r="N398" s="21"/>
       <c r="P398" s="25"/>
-      <c r="Q398" s="25"/>
       <c r="R398" s="25"/>
       <c r="S398" s="25"/>
       <c r="T398" s="25"/>
@@ -14575,7 +14241,6 @@
       <c r="K399" s="31"/>
       <c r="N399" s="21"/>
       <c r="P399" s="25"/>
-      <c r="Q399" s="25"/>
       <c r="R399" s="25"/>
       <c r="S399" s="25"/>
       <c r="T399" s="25"/>
@@ -14601,7 +14266,6 @@
       <c r="K400" s="31"/>
       <c r="N400" s="21"/>
       <c r="P400" s="25"/>
-      <c r="Q400" s="25"/>
       <c r="R400" s="25"/>
       <c r="S400" s="25"/>
       <c r="T400" s="25"/>
@@ -14627,7 +14291,6 @@
       <c r="K401" s="31"/>
       <c r="N401" s="21"/>
       <c r="P401" s="25"/>
-      <c r="Q401" s="25"/>
       <c r="R401" s="25"/>
       <c r="S401" s="25"/>
       <c r="T401" s="25"/>
@@ -14653,7 +14316,6 @@
       <c r="K402" s="31"/>
       <c r="N402" s="21"/>
       <c r="P402" s="25"/>
-      <c r="Q402" s="25"/>
       <c r="R402" s="25"/>
       <c r="S402" s="25"/>
       <c r="T402" s="25"/>
@@ -14679,7 +14341,6 @@
       <c r="K403" s="31"/>
       <c r="N403" s="21"/>
       <c r="P403" s="25"/>
-      <c r="Q403" s="25"/>
       <c r="R403" s="25"/>
       <c r="S403" s="25"/>
       <c r="T403" s="25"/>
@@ -14705,7 +14366,6 @@
       <c r="K404" s="31"/>
       <c r="N404" s="21"/>
       <c r="P404" s="25"/>
-      <c r="Q404" s="25"/>
       <c r="R404" s="25"/>
       <c r="S404" s="25"/>
       <c r="T404" s="25"/>
@@ -14731,7 +14391,6 @@
       <c r="K405" s="31"/>
       <c r="N405" s="21"/>
       <c r="P405" s="25"/>
-      <c r="Q405" s="25"/>
       <c r="R405" s="25"/>
       <c r="S405" s="25"/>
       <c r="T405" s="25"/>
@@ -14757,7 +14416,6 @@
       <c r="K406" s="31"/>
       <c r="N406" s="21"/>
       <c r="P406" s="25"/>
-      <c r="Q406" s="25"/>
       <c r="R406" s="25"/>
       <c r="S406" s="25"/>
       <c r="T406" s="25"/>
@@ -14783,7 +14441,6 @@
       <c r="K407" s="31"/>
       <c r="N407" s="21"/>
       <c r="P407" s="25"/>
-      <c r="Q407" s="25"/>
       <c r="R407" s="25"/>
       <c r="S407" s="25"/>
       <c r="T407" s="25"/>
@@ -14809,7 +14466,6 @@
       <c r="K408" s="31"/>
       <c r="N408" s="21"/>
       <c r="P408" s="25"/>
-      <c r="Q408" s="25"/>
       <c r="R408" s="25"/>
       <c r="S408" s="25"/>
       <c r="T408" s="25"/>
@@ -14835,7 +14491,6 @@
       <c r="K409" s="31"/>
       <c r="N409" s="21"/>
       <c r="P409" s="25"/>
-      <c r="Q409" s="25"/>
       <c r="R409" s="25"/>
       <c r="S409" s="25"/>
       <c r="T409" s="25"/>
@@ -14861,7 +14516,6 @@
       <c r="K410" s="31"/>
       <c r="N410" s="21"/>
       <c r="P410" s="25"/>
-      <c r="Q410" s="25"/>
       <c r="R410" s="25"/>
       <c r="S410" s="25"/>
       <c r="T410" s="25"/>
@@ -14887,7 +14541,6 @@
       <c r="K411" s="31"/>
       <c r="N411" s="21"/>
       <c r="P411" s="25"/>
-      <c r="Q411" s="25"/>
       <c r="R411" s="25"/>
       <c r="S411" s="25"/>
       <c r="T411" s="25"/>
@@ -14913,7 +14566,6 @@
       <c r="K412" s="31"/>
       <c r="N412" s="21"/>
       <c r="P412" s="25"/>
-      <c r="Q412" s="25"/>
       <c r="R412" s="25"/>
       <c r="S412" s="25"/>
       <c r="T412" s="25"/>
@@ -14939,7 +14591,6 @@
       <c r="K413" s="31"/>
       <c r="N413" s="21"/>
       <c r="P413" s="25"/>
-      <c r="Q413" s="25"/>
       <c r="R413" s="25"/>
       <c r="S413" s="25"/>
       <c r="T413" s="25"/>
@@ -14965,7 +14616,6 @@
       <c r="K414" s="31"/>
       <c r="N414" s="21"/>
       <c r="P414" s="25"/>
-      <c r="Q414" s="25"/>
       <c r="R414" s="25"/>
       <c r="S414" s="25"/>
       <c r="T414" s="25"/>
@@ -14991,7 +14641,6 @@
       <c r="K415" s="31"/>
       <c r="N415" s="21"/>
       <c r="P415" s="25"/>
-      <c r="Q415" s="25"/>
       <c r="R415" s="25"/>
       <c r="S415" s="25"/>
       <c r="T415" s="25"/>
@@ -15017,7 +14666,6 @@
       <c r="K416" s="31"/>
       <c r="N416" s="21"/>
       <c r="P416" s="25"/>
-      <c r="Q416" s="25"/>
       <c r="R416" s="25"/>
       <c r="S416" s="25"/>
       <c r="T416" s="25"/>
@@ -15043,7 +14691,6 @@
       <c r="K417" s="31"/>
       <c r="N417" s="21"/>
       <c r="P417" s="25"/>
-      <c r="Q417" s="25"/>
       <c r="R417" s="25"/>
       <c r="S417" s="25"/>
       <c r="T417" s="25"/>
@@ -15069,7 +14716,6 @@
       <c r="K418" s="31"/>
       <c r="N418" s="21"/>
       <c r="P418" s="25"/>
-      <c r="Q418" s="25"/>
       <c r="R418" s="25"/>
       <c r="S418" s="25"/>
       <c r="T418" s="25"/>
@@ -15095,7 +14741,6 @@
       <c r="K419" s="31"/>
       <c r="N419" s="21"/>
       <c r="P419" s="25"/>
-      <c r="Q419" s="25"/>
       <c r="R419" s="25"/>
       <c r="S419" s="25"/>
       <c r="T419" s="25"/>
@@ -15121,7 +14766,6 @@
       <c r="K420" s="31"/>
       <c r="N420" s="21"/>
       <c r="P420" s="25"/>
-      <c r="Q420" s="25"/>
       <c r="R420" s="25"/>
       <c r="S420" s="25"/>
       <c r="T420" s="25"/>
@@ -15147,7 +14791,6 @@
       <c r="K421" s="31"/>
       <c r="N421" s="21"/>
       <c r="P421" s="25"/>
-      <c r="Q421" s="25"/>
       <c r="R421" s="25"/>
       <c r="S421" s="25"/>
       <c r="T421" s="25"/>
@@ -15173,7 +14816,6 @@
       <c r="K422" s="31"/>
       <c r="N422" s="21"/>
       <c r="P422" s="25"/>
-      <c r="Q422" s="25"/>
       <c r="R422" s="25"/>
       <c r="S422" s="25"/>
       <c r="T422" s="25"/>
@@ -15199,7 +14841,6 @@
       <c r="K423" s="31"/>
       <c r="N423" s="21"/>
       <c r="P423" s="25"/>
-      <c r="Q423" s="25"/>
       <c r="R423" s="25"/>
       <c r="S423" s="25"/>
       <c r="T423" s="25"/>
@@ -15225,7 +14866,6 @@
       <c r="K424" s="31"/>
       <c r="N424" s="21"/>
       <c r="P424" s="25"/>
-      <c r="Q424" s="25"/>
       <c r="R424" s="25"/>
       <c r="S424" s="25"/>
       <c r="T424" s="25"/>
@@ -15251,7 +14891,6 @@
       <c r="K425" s="31"/>
       <c r="N425" s="21"/>
       <c r="P425" s="25"/>
-      <c r="Q425" s="25"/>
       <c r="R425" s="25"/>
       <c r="S425" s="25"/>
       <c r="T425" s="25"/>
@@ -15277,7 +14916,6 @@
       <c r="K426" s="31"/>
       <c r="N426" s="21"/>
       <c r="P426" s="25"/>
-      <c r="Q426" s="25"/>
       <c r="R426" s="25"/>
       <c r="S426" s="25"/>
       <c r="T426" s="25"/>
@@ -15303,7 +14941,6 @@
       <c r="K427" s="31"/>
       <c r="N427" s="21"/>
       <c r="P427" s="25"/>
-      <c r="Q427" s="25"/>
       <c r="R427" s="25"/>
       <c r="S427" s="25"/>
       <c r="T427" s="25"/>
@@ -15329,7 +14966,6 @@
       <c r="K428" s="31"/>
       <c r="N428" s="21"/>
       <c r="P428" s="25"/>
-      <c r="Q428" s="25"/>
       <c r="R428" s="25"/>
       <c r="S428" s="25"/>
       <c r="T428" s="25"/>
@@ -15355,7 +14991,6 @@
       <c r="K429" s="31"/>
       <c r="N429" s="21"/>
       <c r="P429" s="25"/>
-      <c r="Q429" s="25"/>
       <c r="R429" s="25"/>
       <c r="S429" s="25"/>
       <c r="T429" s="25"/>
@@ -15381,7 +15016,6 @@
       <c r="K430" s="31"/>
       <c r="N430" s="21"/>
       <c r="P430" s="25"/>
-      <c r="Q430" s="25"/>
       <c r="R430" s="25"/>
       <c r="S430" s="25"/>
       <c r="T430" s="25"/>
@@ -15407,7 +15041,6 @@
       <c r="K431" s="31"/>
       <c r="N431" s="21"/>
       <c r="P431" s="25"/>
-      <c r="Q431" s="25"/>
       <c r="R431" s="25"/>
       <c r="S431" s="25"/>
       <c r="T431" s="25"/>
@@ -15433,7 +15066,6 @@
       <c r="K432" s="31"/>
       <c r="N432" s="21"/>
       <c r="P432" s="25"/>
-      <c r="Q432" s="25"/>
       <c r="R432" s="25"/>
       <c r="S432" s="25"/>
       <c r="T432" s="25"/>
@@ -15459,7 +15091,6 @@
       <c r="K433" s="31"/>
       <c r="N433" s="21"/>
       <c r="P433" s="25"/>
-      <c r="Q433" s="25"/>
       <c r="R433" s="25"/>
       <c r="S433" s="25"/>
       <c r="T433" s="25"/>
@@ -15485,7 +15116,6 @@
       <c r="K434" s="31"/>
       <c r="N434" s="21"/>
       <c r="P434" s="25"/>
-      <c r="Q434" s="25"/>
       <c r="R434" s="25"/>
       <c r="S434" s="25"/>
       <c r="T434" s="25"/>
@@ -15511,7 +15141,6 @@
       <c r="K435" s="31"/>
       <c r="N435" s="21"/>
       <c r="P435" s="25"/>
-      <c r="Q435" s="25"/>
       <c r="R435" s="25"/>
       <c r="S435" s="25"/>
       <c r="T435" s="25"/>
@@ -15537,7 +15166,6 @@
       <c r="K436" s="31"/>
       <c r="N436" s="21"/>
       <c r="P436" s="25"/>
-      <c r="Q436" s="25"/>
       <c r="R436" s="25"/>
       <c r="S436" s="25"/>
       <c r="T436" s="25"/>
@@ -15563,7 +15191,6 @@
       <c r="K437" s="31"/>
       <c r="N437" s="21"/>
       <c r="P437" s="25"/>
-      <c r="Q437" s="25"/>
       <c r="R437" s="25"/>
       <c r="S437" s="25"/>
       <c r="T437" s="25"/>
@@ -15589,7 +15216,6 @@
       <c r="K438" s="31"/>
       <c r="N438" s="21"/>
       <c r="P438" s="25"/>
-      <c r="Q438" s="25"/>
       <c r="R438" s="25"/>
       <c r="S438" s="25"/>
       <c r="T438" s="25"/>
@@ -15615,7 +15241,6 @@
       <c r="K439" s="31"/>
       <c r="N439" s="21"/>
       <c r="P439" s="25"/>
-      <c r="Q439" s="25"/>
       <c r="R439" s="25"/>
       <c r="S439" s="25"/>
       <c r="T439" s="25"/>
@@ -15641,7 +15266,6 @@
       <c r="K440" s="31"/>
       <c r="N440" s="21"/>
       <c r="P440" s="25"/>
-      <c r="Q440" s="25"/>
       <c r="R440" s="25"/>
       <c r="S440" s="25"/>
       <c r="T440" s="25"/>
@@ -15667,7 +15291,6 @@
       <c r="K441" s="31"/>
       <c r="N441" s="21"/>
       <c r="P441" s="25"/>
-      <c r="Q441" s="25"/>
       <c r="R441" s="25"/>
       <c r="S441" s="25"/>
       <c r="T441" s="25"/>
@@ -15693,7 +15316,6 @@
       <c r="K442" s="31"/>
       <c r="N442" s="21"/>
       <c r="P442" s="25"/>
-      <c r="Q442" s="25"/>
       <c r="R442" s="25"/>
       <c r="S442" s="25"/>
       <c r="T442" s="25"/>
@@ -15719,7 +15341,6 @@
       <c r="K443" s="31"/>
       <c r="N443" s="21"/>
       <c r="P443" s="25"/>
-      <c r="Q443" s="25"/>
       <c r="R443" s="25"/>
       <c r="S443" s="25"/>
       <c r="T443" s="25"/>
@@ -15745,7 +15366,6 @@
       <c r="K444" s="31"/>
       <c r="N444" s="21"/>
       <c r="P444" s="25"/>
-      <c r="Q444" s="25"/>
       <c r="R444" s="25"/>
       <c r="S444" s="25"/>
       <c r="T444" s="25"/>
@@ -15771,7 +15391,6 @@
       <c r="K445" s="31"/>
       <c r="N445" s="21"/>
       <c r="P445" s="25"/>
-      <c r="Q445" s="25"/>
       <c r="R445" s="25"/>
       <c r="S445" s="25"/>
       <c r="T445" s="25"/>
@@ -15797,7 +15416,6 @@
       <c r="K446" s="31"/>
       <c r="N446" s="21"/>
       <c r="P446" s="25"/>
-      <c r="Q446" s="25"/>
       <c r="R446" s="25"/>
       <c r="S446" s="25"/>
       <c r="T446" s="25"/>
@@ -15823,7 +15441,6 @@
       <c r="K447" s="31"/>
       <c r="N447" s="21"/>
       <c r="P447" s="25"/>
-      <c r="Q447" s="25"/>
       <c r="R447" s="25"/>
       <c r="S447" s="25"/>
       <c r="T447" s="25"/>
@@ -15849,7 +15466,6 @@
       <c r="K448" s="31"/>
       <c r="N448" s="21"/>
       <c r="P448" s="25"/>
-      <c r="Q448" s="25"/>
       <c r="R448" s="25"/>
       <c r="S448" s="25"/>
       <c r="T448" s="25"/>
@@ -15875,7 +15491,6 @@
       <c r="K449" s="31"/>
       <c r="N449" s="21"/>
       <c r="P449" s="25"/>
-      <c r="Q449" s="25"/>
       <c r="R449" s="25"/>
       <c r="S449" s="25"/>
       <c r="T449" s="25"/>
@@ -15901,7 +15516,6 @@
       <c r="K450" s="31"/>
       <c r="N450" s="21"/>
       <c r="P450" s="25"/>
-      <c r="Q450" s="25"/>
       <c r="R450" s="25"/>
       <c r="S450" s="25"/>
       <c r="T450" s="25"/>
@@ -15927,7 +15541,6 @@
       <c r="K451" s="31"/>
       <c r="N451" s="21"/>
       <c r="P451" s="25"/>
-      <c r="Q451" s="25"/>
       <c r="R451" s="25"/>
       <c r="S451" s="25"/>
       <c r="T451" s="25"/>
@@ -15953,7 +15566,6 @@
       <c r="K452" s="31"/>
       <c r="N452" s="21"/>
       <c r="P452" s="25"/>
-      <c r="Q452" s="25"/>
       <c r="R452" s="25"/>
       <c r="S452" s="25"/>
       <c r="T452" s="25"/>
@@ -15979,7 +15591,6 @@
       <c r="K453" s="31"/>
       <c r="N453" s="21"/>
       <c r="P453" s="25"/>
-      <c r="Q453" s="25"/>
       <c r="R453" s="25"/>
       <c r="S453" s="25"/>
       <c r="T453" s="25"/>
@@ -16005,7 +15616,6 @@
       <c r="K454" s="31"/>
       <c r="N454" s="21"/>
       <c r="P454" s="25"/>
-      <c r="Q454" s="25"/>
       <c r="R454" s="25"/>
       <c r="S454" s="25"/>
       <c r="T454" s="25"/>
@@ -16031,7 +15641,6 @@
       <c r="K455" s="31"/>
       <c r="N455" s="21"/>
       <c r="P455" s="25"/>
-      <c r="Q455" s="25"/>
       <c r="R455" s="25"/>
       <c r="S455" s="25"/>
       <c r="T455" s="25"/>
@@ -16057,7 +15666,6 @@
       <c r="K456" s="31"/>
       <c r="N456" s="21"/>
       <c r="P456" s="25"/>
-      <c r="Q456" s="25"/>
       <c r="R456" s="25"/>
       <c r="S456" s="25"/>
       <c r="T456" s="25"/>
@@ -16083,7 +15691,6 @@
       <c r="K457" s="31"/>
       <c r="N457" s="21"/>
       <c r="P457" s="25"/>
-      <c r="Q457" s="25"/>
       <c r="R457" s="25"/>
       <c r="S457" s="25"/>
       <c r="T457" s="25"/>
@@ -16109,7 +15716,6 @@
       <c r="K458" s="31"/>
       <c r="N458" s="21"/>
       <c r="P458" s="25"/>
-      <c r="Q458" s="25"/>
       <c r="R458" s="25"/>
       <c r="S458" s="25"/>
       <c r="T458" s="25"/>
@@ -16135,7 +15741,6 @@
       <c r="K459" s="31"/>
       <c r="N459" s="21"/>
       <c r="P459" s="25"/>
-      <c r="Q459" s="25"/>
       <c r="R459" s="25"/>
       <c r="S459" s="25"/>
       <c r="T459" s="25"/>
@@ -16161,7 +15766,6 @@
       <c r="K460" s="31"/>
       <c r="N460" s="21"/>
       <c r="P460" s="25"/>
-      <c r="Q460" s="25"/>
       <c r="R460" s="25"/>
       <c r="S460" s="25"/>
       <c r="T460" s="25"/>
@@ -16187,7 +15791,6 @@
       <c r="K461" s="31"/>
       <c r="N461" s="21"/>
       <c r="P461" s="25"/>
-      <c r="Q461" s="25"/>
       <c r="R461" s="25"/>
       <c r="S461" s="25"/>
       <c r="T461" s="25"/>
@@ -16213,7 +15816,6 @@
       <c r="K462" s="31"/>
       <c r="N462" s="21"/>
       <c r="P462" s="25"/>
-      <c r="Q462" s="25"/>
       <c r="R462" s="25"/>
       <c r="S462" s="25"/>
       <c r="T462" s="25"/>
@@ -16239,7 +15841,6 @@
       <c r="K463" s="31"/>
       <c r="N463" s="21"/>
       <c r="P463" s="25"/>
-      <c r="Q463" s="25"/>
       <c r="R463" s="25"/>
       <c r="S463" s="25"/>
       <c r="T463" s="25"/>
@@ -16265,7 +15866,6 @@
       <c r="K464" s="31"/>
       <c r="N464" s="21"/>
       <c r="P464" s="25"/>
-      <c r="Q464" s="25"/>
       <c r="R464" s="25"/>
       <c r="S464" s="25"/>
       <c r="T464" s="25"/>
@@ -16291,7 +15891,6 @@
       <c r="K465" s="31"/>
       <c r="N465" s="21"/>
       <c r="P465" s="25"/>
-      <c r="Q465" s="25"/>
       <c r="R465" s="25"/>
       <c r="S465" s="25"/>
       <c r="T465" s="25"/>
@@ -16317,7 +15916,6 @@
       <c r="K466" s="31"/>
       <c r="N466" s="21"/>
       <c r="P466" s="25"/>
-      <c r="Q466" s="25"/>
       <c r="R466" s="25"/>
       <c r="S466" s="25"/>
       <c r="T466" s="25"/>
@@ -16343,7 +15941,6 @@
       <c r="K467" s="31"/>
       <c r="N467" s="21"/>
       <c r="P467" s="25"/>
-      <c r="Q467" s="25"/>
       <c r="R467" s="25"/>
       <c r="S467" s="25"/>
       <c r="T467" s="25"/>
@@ -16369,7 +15966,6 @@
       <c r="K468" s="31"/>
       <c r="N468" s="21"/>
       <c r="P468" s="25"/>
-      <c r="Q468" s="25"/>
       <c r="R468" s="25"/>
       <c r="S468" s="25"/>
       <c r="T468" s="25"/>
@@ -16395,7 +15991,6 @@
       <c r="K469" s="31"/>
       <c r="N469" s="21"/>
       <c r="P469" s="25"/>
-      <c r="Q469" s="25"/>
       <c r="R469" s="25"/>
       <c r="S469" s="25"/>
       <c r="T469" s="25"/>
@@ -16421,7 +16016,6 @@
       <c r="K470" s="31"/>
       <c r="N470" s="21"/>
       <c r="P470" s="25"/>
-      <c r="Q470" s="25"/>
       <c r="R470" s="25"/>
       <c r="S470" s="25"/>
       <c r="T470" s="25"/>
@@ -16447,7 +16041,6 @@
       <c r="K471" s="31"/>
       <c r="N471" s="21"/>
       <c r="P471" s="25"/>
-      <c r="Q471" s="25"/>
       <c r="R471" s="25"/>
       <c r="S471" s="25"/>
       <c r="T471" s="25"/>
@@ -16473,7 +16066,6 @@
       <c r="K472" s="31"/>
       <c r="N472" s="21"/>
       <c r="P472" s="25"/>
-      <c r="Q472" s="25"/>
       <c r="R472" s="25"/>
       <c r="S472" s="25"/>
       <c r="T472" s="25"/>
@@ -16499,7 +16091,6 @@
       <c r="K473" s="31"/>
       <c r="N473" s="21"/>
       <c r="P473" s="25"/>
-      <c r="Q473" s="25"/>
       <c r="R473" s="25"/>
       <c r="S473" s="25"/>
       <c r="T473" s="25"/>
@@ -16525,7 +16116,6 @@
       <c r="K474" s="31"/>
       <c r="N474" s="21"/>
       <c r="P474" s="25"/>
-      <c r="Q474" s="25"/>
       <c r="R474" s="25"/>
       <c r="S474" s="25"/>
       <c r="T474" s="25"/>
@@ -16551,7 +16141,6 @@
       <c r="K475" s="31"/>
       <c r="N475" s="21"/>
       <c r="P475" s="25"/>
-      <c r="Q475" s="25"/>
       <c r="R475" s="25"/>
       <c r="S475" s="25"/>
       <c r="T475" s="25"/>
@@ -16577,7 +16166,6 @@
       <c r="K476" s="31"/>
       <c r="N476" s="21"/>
       <c r="P476" s="25"/>
-      <c r="Q476" s="25"/>
       <c r="R476" s="25"/>
       <c r="S476" s="25"/>
       <c r="T476" s="25"/>
@@ -16603,7 +16191,6 @@
       <c r="K477" s="31"/>
       <c r="N477" s="21"/>
       <c r="P477" s="25"/>
-      <c r="Q477" s="25"/>
       <c r="R477" s="25"/>
       <c r="S477" s="25"/>
       <c r="T477" s="25"/>
@@ -16629,7 +16216,6 @@
       <c r="K478" s="31"/>
       <c r="N478" s="21"/>
       <c r="P478" s="25"/>
-      <c r="Q478" s="25"/>
       <c r="R478" s="25"/>
       <c r="S478" s="25"/>
       <c r="T478" s="25"/>
@@ -16655,7 +16241,6 @@
       <c r="K479" s="31"/>
       <c r="N479" s="21"/>
       <c r="P479" s="25"/>
-      <c r="Q479" s="25"/>
       <c r="R479" s="25"/>
       <c r="S479" s="25"/>
       <c r="T479" s="25"/>
@@ -16681,7 +16266,6 @@
       <c r="K480" s="31"/>
       <c r="N480" s="21"/>
       <c r="P480" s="25"/>
-      <c r="Q480" s="25"/>
       <c r="R480" s="25"/>
       <c r="S480" s="25"/>
       <c r="T480" s="25"/>
@@ -16707,7 +16291,6 @@
       <c r="K481" s="31"/>
       <c r="N481" s="21"/>
       <c r="P481" s="25"/>
-      <c r="Q481" s="25"/>
       <c r="R481" s="25"/>
       <c r="S481" s="25"/>
       <c r="T481" s="25"/>
@@ -16733,7 +16316,6 @@
       <c r="K482" s="31"/>
       <c r="N482" s="21"/>
       <c r="P482" s="25"/>
-      <c r="Q482" s="25"/>
       <c r="R482" s="25"/>
       <c r="S482" s="25"/>
       <c r="T482" s="25"/>
@@ -16759,7 +16341,6 @@
       <c r="K483" s="31"/>
       <c r="N483" s="21"/>
       <c r="P483" s="25"/>
-      <c r="Q483" s="25"/>
       <c r="R483" s="25"/>
       <c r="S483" s="25"/>
       <c r="T483" s="25"/>
@@ -16785,7 +16366,6 @@
       <c r="K484" s="31"/>
       <c r="N484" s="21"/>
       <c r="P484" s="25"/>
-      <c r="Q484" s="25"/>
       <c r="R484" s="25"/>
       <c r="S484" s="25"/>
       <c r="T484" s="25"/>
@@ -16811,7 +16391,6 @@
       <c r="K485" s="31"/>
       <c r="N485" s="21"/>
       <c r="P485" s="25"/>
-      <c r="Q485" s="25"/>
       <c r="R485" s="25"/>
       <c r="S485" s="25"/>
       <c r="T485" s="25"/>
@@ -16837,7 +16416,6 @@
       <c r="K486" s="31"/>
       <c r="N486" s="21"/>
       <c r="P486" s="25"/>
-      <c r="Q486" s="25"/>
       <c r="R486" s="25"/>
       <c r="S486" s="25"/>
       <c r="T486" s="25"/>
@@ -16863,7 +16441,6 @@
       <c r="K487" s="31"/>
       <c r="N487" s="21"/>
       <c r="P487" s="25"/>
-      <c r="Q487" s="25"/>
       <c r="R487" s="25"/>
       <c r="S487" s="25"/>
       <c r="T487" s="25"/>
@@ -16889,7 +16466,6 @@
       <c r="K488" s="31"/>
       <c r="N488" s="21"/>
       <c r="P488" s="25"/>
-      <c r="Q488" s="25"/>
       <c r="R488" s="25"/>
       <c r="S488" s="25"/>
       <c r="T488" s="25"/>
@@ -16915,7 +16491,6 @@
       <c r="K489" s="31"/>
       <c r="N489" s="21"/>
       <c r="P489" s="25"/>
-      <c r="Q489" s="25"/>
       <c r="R489" s="25"/>
       <c r="S489" s="25"/>
       <c r="T489" s="25"/>
@@ -16941,7 +16516,6 @@
       <c r="K490" s="31"/>
       <c r="N490" s="21"/>
       <c r="P490" s="25"/>
-      <c r="Q490" s="25"/>
       <c r="R490" s="25"/>
       <c r="S490" s="25"/>
       <c r="T490" s="25"/>
@@ -16967,7 +16541,6 @@
       <c r="K491" s="31"/>
       <c r="N491" s="21"/>
       <c r="P491" s="25"/>
-      <c r="Q491" s="25"/>
       <c r="R491" s="25"/>
       <c r="S491" s="25"/>
       <c r="T491" s="25"/>
@@ -16993,7 +16566,6 @@
       <c r="K492" s="31"/>
       <c r="N492" s="21"/>
       <c r="P492" s="25"/>
-      <c r="Q492" s="25"/>
       <c r="R492" s="25"/>
       <c r="S492" s="25"/>
       <c r="T492" s="25"/>
@@ -17019,7 +16591,6 @@
       <c r="K493" s="31"/>
       <c r="N493" s="21"/>
       <c r="P493" s="25"/>
-      <c r="Q493" s="25"/>
       <c r="R493" s="25"/>
       <c r="S493" s="25"/>
       <c r="T493" s="25"/>
@@ -17045,7 +16616,6 @@
       <c r="K494" s="31"/>
       <c r="N494" s="21"/>
       <c r="P494" s="25"/>
-      <c r="Q494" s="25"/>
       <c r="R494" s="25"/>
       <c r="S494" s="25"/>
       <c r="T494" s="25"/>
@@ -17071,7 +16641,6 @@
       <c r="K495" s="31"/>
       <c r="N495" s="21"/>
       <c r="P495" s="25"/>
-      <c r="Q495" s="25"/>
       <c r="R495" s="25"/>
       <c r="S495" s="25"/>
       <c r="T495" s="25"/>
@@ -17097,7 +16666,6 @@
       <c r="K496" s="31"/>
       <c r="N496" s="21"/>
       <c r="P496" s="25"/>
-      <c r="Q496" s="25"/>
       <c r="R496" s="25"/>
       <c r="S496" s="25"/>
       <c r="T496" s="25"/>
@@ -17123,7 +16691,6 @@
       <c r="K497" s="31"/>
       <c r="N497" s="21"/>
       <c r="P497" s="25"/>
-      <c r="Q497" s="25"/>
       <c r="R497" s="25"/>
       <c r="S497" s="25"/>
       <c r="T497" s="25"/>
@@ -17149,7 +16716,6 @@
       <c r="K498" s="31"/>
       <c r="N498" s="21"/>
       <c r="P498" s="25"/>
-      <c r="Q498" s="25"/>
       <c r="R498" s="25"/>
       <c r="S498" s="25"/>
       <c r="T498" s="25"/>
@@ -17175,7 +16741,6 @@
       <c r="K499" s="31"/>
       <c r="N499" s="21"/>
       <c r="P499" s="25"/>
-      <c r="Q499" s="25"/>
       <c r="R499" s="25"/>
       <c r="S499" s="25"/>
       <c r="T499" s="25"/>
@@ -17201,7 +16766,6 @@
       <c r="K500" s="31"/>
       <c r="N500" s="21"/>
       <c r="P500" s="25"/>
-      <c r="Q500" s="25"/>
       <c r="R500" s="25"/>
       <c r="S500" s="25"/>
       <c r="T500" s="25"/>
@@ -17227,7 +16791,6 @@
       <c r="K501" s="31"/>
       <c r="N501" s="21"/>
       <c r="P501" s="25"/>
-      <c r="Q501" s="25"/>
       <c r="R501" s="25"/>
       <c r="S501" s="25"/>
       <c r="T501" s="25"/>
@@ -17253,7 +16816,6 @@
       <c r="K502" s="31"/>
       <c r="N502" s="21"/>
       <c r="P502" s="25"/>
-      <c r="Q502" s="25"/>
       <c r="R502" s="25"/>
       <c r="S502" s="25"/>
       <c r="T502" s="25"/>
@@ -17279,7 +16841,6 @@
       <c r="K503" s="31"/>
       <c r="N503" s="21"/>
       <c r="P503" s="25"/>
-      <c r="Q503" s="25"/>
       <c r="R503" s="25"/>
       <c r="S503" s="25"/>
       <c r="T503" s="25"/>
@@ -17305,7 +16866,6 @@
       <c r="K504" s="31"/>
       <c r="N504" s="21"/>
       <c r="P504" s="25"/>
-      <c r="Q504" s="25"/>
       <c r="R504" s="25"/>
       <c r="S504" s="25"/>
       <c r="T504" s="25"/>
@@ -17331,7 +16891,6 @@
       <c r="K505" s="31"/>
       <c r="N505" s="21"/>
       <c r="P505" s="25"/>
-      <c r="Q505" s="25"/>
       <c r="R505" s="25"/>
       <c r="S505" s="25"/>
       <c r="T505" s="25"/>
@@ -17357,7 +16916,6 @@
       <c r="K506" s="31"/>
       <c r="N506" s="21"/>
       <c r="P506" s="25"/>
-      <c r="Q506" s="25"/>
       <c r="R506" s="25"/>
       <c r="S506" s="25"/>
       <c r="T506" s="25"/>
@@ -17383,7 +16941,6 @@
       <c r="K507" s="31"/>
       <c r="N507" s="21"/>
       <c r="P507" s="25"/>
-      <c r="Q507" s="25"/>
       <c r="R507" s="25"/>
       <c r="S507" s="25"/>
       <c r="T507" s="25"/>
@@ -17409,7 +16966,6 @@
       <c r="K508" s="31"/>
       <c r="N508" s="21"/>
       <c r="P508" s="25"/>
-      <c r="Q508" s="25"/>
       <c r="R508" s="25"/>
       <c r="S508" s="25"/>
       <c r="T508" s="25"/>
@@ -17435,7 +16991,6 @@
       <c r="K509" s="31"/>
       <c r="N509" s="21"/>
       <c r="P509" s="25"/>
-      <c r="Q509" s="25"/>
       <c r="R509" s="25"/>
       <c r="S509" s="25"/>
       <c r="T509" s="25"/>
@@ -17461,7 +17016,6 @@
       <c r="K510" s="31"/>
       <c r="N510" s="21"/>
       <c r="P510" s="25"/>
-      <c r="Q510" s="25"/>
       <c r="R510" s="25"/>
       <c r="S510" s="25"/>
       <c r="T510" s="25"/>
@@ -17487,7 +17041,6 @@
       <c r="K511" s="31"/>
       <c r="N511" s="21"/>
       <c r="P511" s="25"/>
-      <c r="Q511" s="25"/>
       <c r="R511" s="25"/>
       <c r="S511" s="25"/>
       <c r="T511" s="25"/>
@@ -17513,7 +17066,6 @@
       <c r="K512" s="31"/>
       <c r="N512" s="21"/>
       <c r="P512" s="25"/>
-      <c r="Q512" s="25"/>
       <c r="R512" s="25"/>
       <c r="S512" s="25"/>
       <c r="T512" s="25"/>
@@ -17539,7 +17091,6 @@
       <c r="K513" s="31"/>
       <c r="N513" s="21"/>
       <c r="P513" s="25"/>
-      <c r="Q513" s="25"/>
       <c r="R513" s="25"/>
       <c r="S513" s="25"/>
       <c r="T513" s="25"/>
@@ -17565,7 +17116,6 @@
       <c r="K514" s="31"/>
       <c r="N514" s="21"/>
       <c r="P514" s="25"/>
-      <c r="Q514" s="25"/>
       <c r="R514" s="25"/>
       <c r="S514" s="25"/>
       <c r="T514" s="25"/>
@@ -17591,7 +17141,6 @@
       <c r="K515" s="31"/>
       <c r="N515" s="21"/>
       <c r="P515" s="25"/>
-      <c r="Q515" s="25"/>
       <c r="R515" s="25"/>
       <c r="S515" s="25"/>
       <c r="T515" s="25"/>
@@ -17617,7 +17166,6 @@
       <c r="K516" s="31"/>
       <c r="N516" s="21"/>
       <c r="P516" s="25"/>
-      <c r="Q516" s="25"/>
       <c r="R516" s="25"/>
       <c r="S516" s="25"/>
       <c r="T516" s="25"/>
@@ -17643,7 +17191,6 @@
       <c r="K517" s="31"/>
       <c r="N517" s="21"/>
       <c r="P517" s="25"/>
-      <c r="Q517" s="25"/>
       <c r="R517" s="25"/>
       <c r="S517" s="25"/>
       <c r="T517" s="25"/>
@@ -17669,7 +17216,6 @@
       <c r="K518" s="31"/>
       <c r="N518" s="21"/>
       <c r="P518" s="25"/>
-      <c r="Q518" s="25"/>
       <c r="R518" s="25"/>
       <c r="S518" s="25"/>
       <c r="T518" s="25"/>
@@ -17695,7 +17241,6 @@
       <c r="K519" s="31"/>
       <c r="N519" s="21"/>
       <c r="P519" s="25"/>
-      <c r="Q519" s="25"/>
       <c r="R519" s="25"/>
       <c r="S519" s="25"/>
       <c r="T519" s="25"/>
@@ -17721,7 +17266,6 @@
       <c r="K520" s="31"/>
       <c r="N520" s="21"/>
       <c r="P520" s="25"/>
-      <c r="Q520" s="25"/>
       <c r="R520" s="25"/>
       <c r="S520" s="25"/>
       <c r="T520" s="25"/>
@@ -17747,7 +17291,6 @@
       <c r="K521" s="31"/>
       <c r="N521" s="21"/>
       <c r="P521" s="25"/>
-      <c r="Q521" s="25"/>
       <c r="R521" s="25"/>
       <c r="S521" s="25"/>
       <c r="T521" s="25"/>
@@ -17773,7 +17316,6 @@
       <c r="K522" s="31"/>
       <c r="N522" s="21"/>
       <c r="P522" s="25"/>
-      <c r="Q522" s="25"/>
       <c r="R522" s="25"/>
       <c r="S522" s="25"/>
       <c r="T522" s="25"/>
@@ -17799,7 +17341,6 @@
       <c r="K523" s="31"/>
       <c r="N523" s="21"/>
       <c r="P523" s="25"/>
-      <c r="Q523" s="25"/>
       <c r="R523" s="25"/>
       <c r="S523" s="25"/>
       <c r="T523" s="25"/>
@@ -17825,7 +17366,6 @@
       <c r="K524" s="31"/>
       <c r="N524" s="21"/>
       <c r="P524" s="25"/>
-      <c r="Q524" s="25"/>
       <c r="R524" s="25"/>
       <c r="S524" s="25"/>
       <c r="T524" s="25"/>
@@ -17851,7 +17391,6 @@
       <c r="K525" s="31"/>
       <c r="N525" s="21"/>
       <c r="P525" s="25"/>
-      <c r="Q525" s="25"/>
       <c r="R525" s="25"/>
       <c r="S525" s="25"/>
       <c r="T525" s="25"/>
@@ -17877,7 +17416,6 @@
       <c r="K526" s="31"/>
       <c r="N526" s="21"/>
       <c r="P526" s="25"/>
-      <c r="Q526" s="25"/>
       <c r="R526" s="25"/>
       <c r="S526" s="25"/>
       <c r="T526" s="25"/>
@@ -17903,7 +17441,6 @@
       <c r="K527" s="31"/>
       <c r="N527" s="21"/>
       <c r="P527" s="25"/>
-      <c r="Q527" s="25"/>
       <c r="R527" s="25"/>
       <c r="S527" s="25"/>
       <c r="T527" s="25"/>
@@ -17929,7 +17466,6 @@
       <c r="K528" s="31"/>
       <c r="N528" s="21"/>
       <c r="P528" s="25"/>
-      <c r="Q528" s="25"/>
       <c r="R528" s="25"/>
       <c r="S528" s="25"/>
       <c r="T528" s="25"/>
@@ -17955,7 +17491,6 @@
       <c r="K529" s="31"/>
       <c r="N529" s="21"/>
       <c r="P529" s="25"/>
-      <c r="Q529" s="25"/>
       <c r="R529" s="25"/>
       <c r="S529" s="25"/>
       <c r="T529" s="25"/>
@@ -17981,7 +17516,6 @@
       <c r="K530" s="31"/>
       <c r="N530" s="21"/>
       <c r="P530" s="25"/>
-      <c r="Q530" s="25"/>
       <c r="R530" s="25"/>
       <c r="S530" s="25"/>
       <c r="T530" s="25"/>
@@ -18007,7 +17541,6 @@
       <c r="K531" s="31"/>
       <c r="N531" s="21"/>
       <c r="P531" s="25"/>
-      <c r="Q531" s="25"/>
       <c r="R531" s="25"/>
       <c r="S531" s="25"/>
       <c r="T531" s="25"/>
@@ -18033,7 +17566,6 @@
       <c r="K532" s="31"/>
       <c r="N532" s="21"/>
       <c r="P532" s="25"/>
-      <c r="Q532" s="25"/>
       <c r="R532" s="25"/>
       <c r="S532" s="25"/>
       <c r="T532" s="25"/>
@@ -18059,7 +17591,6 @@
       <c r="K533" s="31"/>
       <c r="N533" s="21"/>
       <c r="P533" s="25"/>
-      <c r="Q533" s="25"/>
       <c r="R533" s="25"/>
       <c r="S533" s="25"/>
       <c r="T533" s="25"/>
@@ -18085,7 +17616,6 @@
       <c r="K534" s="31"/>
       <c r="N534" s="21"/>
       <c r="P534" s="25"/>
-      <c r="Q534" s="25"/>
       <c r="R534" s="25"/>
       <c r="S534" s="25"/>
       <c r="T534" s="25"/>
@@ -18111,7 +17641,6 @@
       <c r="K535" s="31"/>
       <c r="N535" s="21"/>
       <c r="P535" s="25"/>
-      <c r="Q535" s="25"/>
       <c r="R535" s="25"/>
       <c r="S535" s="25"/>
       <c r="T535" s="25"/>
@@ -18137,7 +17666,6 @@
       <c r="K536" s="31"/>
       <c r="N536" s="21"/>
       <c r="P536" s="25"/>
-      <c r="Q536" s="25"/>
       <c r="R536" s="25"/>
       <c r="S536" s="25"/>
       <c r="T536" s="25"/>
@@ -18163,7 +17691,6 @@
       <c r="K537" s="31"/>
       <c r="N537" s="21"/>
       <c r="P537" s="25"/>
-      <c r="Q537" s="25"/>
       <c r="R537" s="25"/>
       <c r="S537" s="25"/>
       <c r="T537" s="25"/>
@@ -18189,7 +17716,6 @@
       <c r="K538" s="31"/>
       <c r="N538" s="21"/>
       <c r="P538" s="25"/>
-      <c r="Q538" s="25"/>
       <c r="R538" s="25"/>
       <c r="S538" s="25"/>
       <c r="T538" s="25"/>
@@ -18215,7 +17741,6 @@
       <c r="K539" s="31"/>
       <c r="N539" s="21"/>
       <c r="P539" s="25"/>
-      <c r="Q539" s="25"/>
       <c r="R539" s="25"/>
       <c r="S539" s="25"/>
       <c r="T539" s="25"/>
@@ -18241,7 +17766,6 @@
       <c r="K540" s="31"/>
       <c r="N540" s="21"/>
       <c r="P540" s="25"/>
-      <c r="Q540" s="25"/>
       <c r="R540" s="25"/>
       <c r="S540" s="25"/>
       <c r="T540" s="25"/>
@@ -18267,7 +17791,6 @@
       <c r="K541" s="31"/>
       <c r="N541" s="21"/>
       <c r="P541" s="25"/>
-      <c r="Q541" s="25"/>
       <c r="R541" s="25"/>
       <c r="S541" s="25"/>
       <c r="T541" s="25"/>
@@ -18293,7 +17816,6 @@
       <c r="K542" s="31"/>
       <c r="N542" s="21"/>
       <c r="P542" s="25"/>
-      <c r="Q542" s="25"/>
       <c r="R542" s="25"/>
       <c r="S542" s="25"/>
       <c r="T542" s="25"/>
@@ -18319,7 +17841,6 @@
       <c r="K543" s="31"/>
       <c r="N543" s="21"/>
       <c r="P543" s="25"/>
-      <c r="Q543" s="25"/>
       <c r="R543" s="25"/>
       <c r="S543" s="25"/>
       <c r="T543" s="25"/>
@@ -18345,7 +17866,6 @@
       <c r="K544" s="31"/>
       <c r="N544" s="21"/>
       <c r="P544" s="25"/>
-      <c r="Q544" s="25"/>
       <c r="R544" s="25"/>
       <c r="S544" s="25"/>
       <c r="T544" s="25"/>
@@ -18371,7 +17891,6 @@
       <c r="K545" s="31"/>
       <c r="N545" s="21"/>
       <c r="P545" s="25"/>
-      <c r="Q545" s="25"/>
       <c r="R545" s="25"/>
       <c r="S545" s="25"/>
       <c r="T545" s="25"/>
@@ -18397,7 +17916,6 @@
       <c r="K546" s="31"/>
       <c r="N546" s="21"/>
       <c r="P546" s="25"/>
-      <c r="Q546" s="25"/>
       <c r="R546" s="25"/>
       <c r="S546" s="25"/>
       <c r="T546" s="25"/>
@@ -18423,7 +17941,6 @@
       <c r="K547" s="31"/>
       <c r="N547" s="21"/>
       <c r="P547" s="25"/>
-      <c r="Q547" s="25"/>
       <c r="R547" s="25"/>
       <c r="S547" s="25"/>
       <c r="T547" s="25"/>
@@ -18449,7 +17966,6 @@
       <c r="K548" s="31"/>
       <c r="N548" s="21"/>
       <c r="P548" s="25"/>
-      <c r="Q548" s="25"/>
       <c r="R548" s="25"/>
       <c r="S548" s="25"/>
       <c r="T548" s="25"/>
@@ -18475,7 +17991,6 @@
       <c r="K549" s="31"/>
       <c r="N549" s="21"/>
       <c r="P549" s="25"/>
-      <c r="Q549" s="25"/>
       <c r="R549" s="25"/>
       <c r="S549" s="25"/>
       <c r="T549" s="25"/>
@@ -18501,7 +18016,6 @@
       <c r="K550" s="31"/>
       <c r="N550" s="21"/>
       <c r="P550" s="25"/>
-      <c r="Q550" s="25"/>
       <c r="R550" s="25"/>
       <c r="S550" s="25"/>
       <c r="T550" s="25"/>
@@ -18527,7 +18041,6 @@
       <c r="K551" s="31"/>
       <c r="N551" s="21"/>
       <c r="P551" s="25"/>
-      <c r="Q551" s="25"/>
       <c r="R551" s="25"/>
       <c r="S551" s="25"/>
       <c r="T551" s="25"/>
@@ -18553,7 +18066,6 @@
       <c r="K552" s="31"/>
       <c r="N552" s="21"/>
       <c r="P552" s="25"/>
-      <c r="Q552" s="25"/>
       <c r="R552" s="25"/>
       <c r="S552" s="25"/>
       <c r="T552" s="25"/>
@@ -18579,7 +18091,6 @@
       <c r="K553" s="31"/>
       <c r="N553" s="21"/>
       <c r="P553" s="25"/>
-      <c r="Q553" s="25"/>
       <c r="R553" s="25"/>
       <c r="S553" s="25"/>
       <c r="T553" s="25"/>
@@ -18605,7 +18116,6 @@
       <c r="K554" s="31"/>
       <c r="N554" s="21"/>
       <c r="P554" s="25"/>
-      <c r="Q554" s="25"/>
       <c r="R554" s="25"/>
       <c r="S554" s="25"/>
       <c r="T554" s="25"/>
@@ -18631,7 +18141,6 @@
       <c r="K555" s="31"/>
       <c r="N555" s="21"/>
       <c r="P555" s="25"/>
-      <c r="Q555" s="25"/>
       <c r="R555" s="25"/>
       <c r="S555" s="25"/>
       <c r="T555" s="25"/>
@@ -18657,7 +18166,6 @@
       <c r="K556" s="31"/>
       <c r="N556" s="21"/>
       <c r="P556" s="25"/>
-      <c r="Q556" s="25"/>
       <c r="R556" s="25"/>
       <c r="S556" s="25"/>
       <c r="T556" s="25"/>
@@ -18683,7 +18191,6 @@
       <c r="K557" s="31"/>
       <c r="N557" s="21"/>
       <c r="P557" s="25"/>
-      <c r="Q557" s="25"/>
       <c r="R557" s="25"/>
       <c r="S557" s="25"/>
       <c r="T557" s="25"/>
@@ -18709,7 +18216,6 @@
       <c r="K558" s="31"/>
       <c r="N558" s="21"/>
       <c r="P558" s="25"/>
-      <c r="Q558" s="25"/>
       <c r="R558" s="25"/>
       <c r="S558" s="25"/>
       <c r="T558" s="25"/>
@@ -18735,7 +18241,6 @@
       <c r="K559" s="31"/>
       <c r="N559" s="21"/>
       <c r="P559" s="25"/>
-      <c r="Q559" s="25"/>
       <c r="R559" s="25"/>
       <c r="S559" s="25"/>
       <c r="T559" s="25"/>
@@ -18761,7 +18266,6 @@
       <c r="K560" s="31"/>
       <c r="N560" s="21"/>
       <c r="P560" s="25"/>
-      <c r="Q560" s="25"/>
       <c r="R560" s="25"/>
       <c r="S560" s="25"/>
       <c r="T560" s="25"/>
@@ -18787,7 +18291,6 @@
       <c r="K561" s="31"/>
       <c r="N561" s="21"/>
       <c r="P561" s="25"/>
-      <c r="Q561" s="25"/>
       <c r="R561" s="25"/>
       <c r="S561" s="25"/>
       <c r="T561" s="25"/>
@@ -18813,7 +18316,6 @@
       <c r="K562" s="31"/>
       <c r="N562" s="21"/>
       <c r="P562" s="25"/>
-      <c r="Q562" s="25"/>
       <c r="R562" s="25"/>
       <c r="S562" s="25"/>
       <c r="T562" s="25"/>
@@ -18839,7 +18341,6 @@
       <c r="K563" s="31"/>
       <c r="N563" s="21"/>
       <c r="P563" s="25"/>
-      <c r="Q563" s="25"/>
       <c r="R563" s="25"/>
       <c r="S563" s="25"/>
       <c r="T563" s="25"/>
@@ -18865,7 +18366,6 @@
       <c r="K564" s="31"/>
       <c r="N564" s="21"/>
       <c r="P564" s="25"/>
-      <c r="Q564" s="25"/>
       <c r="R564" s="25"/>
       <c r="S564" s="25"/>
       <c r="T564" s="25"/>
@@ -18891,7 +18391,6 @@
       <c r="K565" s="31"/>
       <c r="N565" s="21"/>
       <c r="P565" s="25"/>
-      <c r="Q565" s="25"/>
       <c r="R565" s="25"/>
       <c r="S565" s="25"/>
       <c r="T565" s="25"/>
@@ -18917,7 +18416,6 @@
       <c r="K566" s="31"/>
       <c r="N566" s="21"/>
       <c r="P566" s="25"/>
-      <c r="Q566" s="25"/>
       <c r="R566" s="25"/>
       <c r="S566" s="25"/>
       <c r="T566" s="25"/>
@@ -18943,7 +18441,6 @@
       <c r="K567" s="31"/>
       <c r="N567" s="21"/>
       <c r="P567" s="25"/>
-      <c r="Q567" s="25"/>
       <c r="R567" s="25"/>
       <c r="S567" s="25"/>
       <c r="T567" s="25"/>
@@ -18969,7 +18466,6 @@
       <c r="K568" s="31"/>
       <c r="N568" s="21"/>
       <c r="P568" s="25"/>
-      <c r="Q568" s="25"/>
       <c r="R568" s="25"/>
       <c r="S568" s="25"/>
       <c r="T568" s="25"/>
@@ -18995,7 +18491,6 @@
       <c r="K569" s="31"/>
       <c r="N569" s="21"/>
       <c r="P569" s="25"/>
-      <c r="Q569" s="25"/>
       <c r="R569" s="25"/>
       <c r="S569" s="25"/>
       <c r="T569" s="25"/>
@@ -19021,7 +18516,6 @@
       <c r="K570" s="31"/>
       <c r="N570" s="21"/>
       <c r="P570" s="25"/>
-      <c r="Q570" s="25"/>
       <c r="R570" s="25"/>
       <c r="S570" s="25"/>
       <c r="T570" s="25"/>
@@ -19047,7 +18541,6 @@
       <c r="K571" s="31"/>
       <c r="N571" s="21"/>
       <c r="P571" s="25"/>
-      <c r="Q571" s="25"/>
       <c r="R571" s="25"/>
       <c r="S571" s="25"/>
       <c r="T571" s="25"/>
@@ -19073,7 +18566,6 @@
       <c r="K572" s="31"/>
       <c r="N572" s="21"/>
       <c r="P572" s="25"/>
-      <c r="Q572" s="25"/>
       <c r="R572" s="25"/>
       <c r="S572" s="25"/>
       <c r="T572" s="25"/>
@@ -19099,7 +18591,6 @@
       <c r="K573" s="31"/>
       <c r="N573" s="21"/>
       <c r="P573" s="25"/>
-      <c r="Q573" s="25"/>
       <c r="R573" s="25"/>
       <c r="S573" s="25"/>
       <c r="T573" s="25"/>
@@ -19125,7 +18616,6 @@
       <c r="K574" s="31"/>
       <c r="N574" s="21"/>
       <c r="P574" s="25"/>
-      <c r="Q574" s="25"/>
       <c r="R574" s="25"/>
       <c r="S574" s="25"/>
       <c r="T574" s="25"/>
@@ -19151,7 +18641,6 @@
       <c r="K575" s="31"/>
       <c r="N575" s="21"/>
       <c r="P575" s="25"/>
-      <c r="Q575" s="25"/>
       <c r="R575" s="25"/>
       <c r="S575" s="25"/>
       <c r="T575" s="25"/>
@@ -19177,7 +18666,6 @@
       <c r="K576" s="31"/>
       <c r="N576" s="21"/>
       <c r="P576" s="25"/>
-      <c r="Q576" s="25"/>
       <c r="R576" s="25"/>
       <c r="S576" s="25"/>
       <c r="T576" s="25"/>
@@ -19203,7 +18691,6 @@
       <c r="K577" s="31"/>
       <c r="N577" s="21"/>
       <c r="P577" s="25"/>
-      <c r="Q577" s="25"/>
       <c r="R577" s="25"/>
       <c r="S577" s="25"/>
       <c r="T577" s="25"/>
@@ -19229,7 +18716,6 @@
       <c r="K578" s="31"/>
       <c r="N578" s="21"/>
       <c r="P578" s="25"/>
-      <c r="Q578" s="25"/>
       <c r="R578" s="25"/>
       <c r="S578" s="25"/>
       <c r="T578" s="25"/>
@@ -19255,7 +18741,6 @@
       <c r="K579" s="31"/>
       <c r="N579" s="21"/>
       <c r="P579" s="25"/>
-      <c r="Q579" s="25"/>
       <c r="R579" s="25"/>
       <c r="S579" s="25"/>
       <c r="T579" s="25"/>
@@ -19281,7 +18766,6 @@
       <c r="K580" s="31"/>
       <c r="N580" s="21"/>
       <c r="P580" s="25"/>
-      <c r="Q580" s="25"/>
       <c r="R580" s="25"/>
       <c r="S580" s="25"/>
       <c r="T580" s="25"/>
@@ -19307,7 +18791,6 @@
       <c r="K581" s="31"/>
       <c r="N581" s="21"/>
       <c r="P581" s="25"/>
-      <c r="Q581" s="25"/>
       <c r="R581" s="25"/>
       <c r="S581" s="25"/>
       <c r="T581" s="25"/>
@@ -19333,7 +18816,6 @@
       <c r="K582" s="31"/>
       <c r="N582" s="21"/>
       <c r="P582" s="25"/>
-      <c r="Q582" s="25"/>
       <c r="R582" s="25"/>
       <c r="S582" s="25"/>
       <c r="T582" s="25"/>
@@ -19359,7 +18841,6 @@
       <c r="K583" s="31"/>
       <c r="N583" s="21"/>
       <c r="P583" s="25"/>
-      <c r="Q583" s="25"/>
       <c r="R583" s="25"/>
       <c r="S583" s="25"/>
       <c r="T583" s="25"/>
@@ -19385,7 +18866,6 @@
       <c r="K584" s="31"/>
       <c r="N584" s="21"/>
       <c r="P584" s="25"/>
-      <c r="Q584" s="25"/>
       <c r="R584" s="25"/>
       <c r="S584" s="25"/>
       <c r="T584" s="25"/>
@@ -19411,7 +18891,6 @@
       <c r="K585" s="31"/>
       <c r="N585" s="21"/>
       <c r="P585" s="25"/>
-      <c r="Q585" s="25"/>
       <c r="R585" s="25"/>
       <c r="S585" s="25"/>
       <c r="T585" s="25"/>
@@ -19437,7 +18916,6 @@
       <c r="K586" s="31"/>
       <c r="N586" s="21"/>
       <c r="P586" s="25"/>
-      <c r="Q586" s="25"/>
       <c r="R586" s="25"/>
       <c r="S586" s="25"/>
       <c r="T586" s="25"/>
@@ -19463,7 +18941,6 @@
       <c r="K587" s="31"/>
       <c r="N587" s="21"/>
       <c r="P587" s="25"/>
-      <c r="Q587" s="25"/>
       <c r="R587" s="25"/>
       <c r="S587" s="25"/>
       <c r="T587" s="25"/>
@@ -19489,7 +18966,6 @@
       <c r="K588" s="31"/>
       <c r="N588" s="21"/>
       <c r="P588" s="25"/>
-      <c r="Q588" s="25"/>
       <c r="R588" s="25"/>
       <c r="S588" s="25"/>
       <c r="T588" s="25"/>
@@ -19515,7 +18991,6 @@
       <c r="K589" s="31"/>
       <c r="N589" s="21"/>
       <c r="P589" s="25"/>
-      <c r="Q589" s="25"/>
       <c r="R589" s="25"/>
       <c r="S589" s="25"/>
       <c r="T589" s="25"/>
@@ -19541,7 +19016,6 @@
       <c r="K590" s="31"/>
       <c r="N590" s="21"/>
       <c r="P590" s="25"/>
-      <c r="Q590" s="25"/>
       <c r="R590" s="25"/>
       <c r="S590" s="25"/>
       <c r="T590" s="25"/>
@@ -19567,7 +19041,6 @@
       <c r="K591" s="31"/>
       <c r="N591" s="21"/>
       <c r="P591" s="25"/>
-      <c r="Q591" s="25"/>
       <c r="R591" s="25"/>
       <c r="S591" s="25"/>
       <c r="T591" s="25"/>
@@ -19593,7 +19066,6 @@
       <c r="K592" s="31"/>
       <c r="N592" s="21"/>
       <c r="P592" s="25"/>
-      <c r="Q592" s="25"/>
       <c r="R592" s="25"/>
       <c r="S592" s="25"/>
       <c r="T592" s="25"/>
@@ -19619,7 +19091,6 @@
       <c r="K593" s="31"/>
       <c r="N593" s="21"/>
       <c r="P593" s="25"/>
-      <c r="Q593" s="25"/>
       <c r="R593" s="25"/>
       <c r="S593" s="25"/>
       <c r="T593" s="25"/>
@@ -19645,7 +19116,6 @@
       <c r="K594" s="31"/>
       <c r="N594" s="21"/>
       <c r="P594" s="25"/>
-      <c r="Q594" s="25"/>
       <c r="R594" s="25"/>
       <c r="S594" s="25"/>
       <c r="T594" s="25"/>
@@ -19671,7 +19141,6 @@
       <c r="K595" s="31"/>
       <c r="N595" s="21"/>
       <c r="P595" s="25"/>
-      <c r="Q595" s="25"/>
       <c r="R595" s="25"/>
       <c r="S595" s="25"/>
       <c r="T595" s="25"/>
@@ -19697,7 +19166,6 @@
       <c r="K596" s="31"/>
       <c r="N596" s="21"/>
       <c r="P596" s="25"/>
-      <c r="Q596" s="25"/>
       <c r="R596" s="25"/>
       <c r="S596" s="25"/>
       <c r="T596" s="25"/>
@@ -19723,7 +19191,6 @@
       <c r="K597" s="31"/>
       <c r="N597" s="21"/>
       <c r="P597" s="25"/>
-      <c r="Q597" s="25"/>
       <c r="R597" s="25"/>
       <c r="S597" s="25"/>
       <c r="T597" s="25"/>
@@ -19749,7 +19216,6 @@
       <c r="K598" s="31"/>
       <c r="N598" s="21"/>
       <c r="P598" s="25"/>
-      <c r="Q598" s="25"/>
       <c r="R598" s="25"/>
       <c r="S598" s="25"/>
       <c r="T598" s="25"/>
@@ -19775,7 +19241,6 @@
       <c r="K599" s="31"/>
       <c r="N599" s="21"/>
       <c r="P599" s="25"/>
-      <c r="Q599" s="25"/>
       <c r="R599" s="25"/>
       <c r="S599" s="25"/>
       <c r="T599" s="25"/>
@@ -19801,7 +19266,6 @@
       <c r="K600" s="31"/>
       <c r="N600" s="21"/>
       <c r="P600" s="25"/>
-      <c r="Q600" s="25"/>
       <c r="R600" s="25"/>
       <c r="S600" s="25"/>
       <c r="T600" s="25"/>
@@ -19827,7 +19291,6 @@
       <c r="K601" s="31"/>
       <c r="N601" s="21"/>
       <c r="P601" s="25"/>
-      <c r="Q601" s="25"/>
       <c r="R601" s="25"/>
       <c r="S601" s="25"/>
       <c r="T601" s="25"/>
@@ -19853,7 +19316,6 @@
       <c r="K602" s="31"/>
       <c r="N602" s="21"/>
       <c r="P602" s="25"/>
-      <c r="Q602" s="25"/>
       <c r="R602" s="25"/>
       <c r="S602" s="25"/>
       <c r="T602" s="25"/>
@@ -19879,7 +19341,6 @@
       <c r="K603" s="31"/>
       <c r="N603" s="21"/>
       <c r="P603" s="25"/>
-      <c r="Q603" s="25"/>
       <c r="R603" s="25"/>
       <c r="S603" s="25"/>
       <c r="T603" s="25"/>
@@ -19905,7 +19366,6 @@
       <c r="K604" s="31"/>
       <c r="N604" s="21"/>
       <c r="P604" s="25"/>
-      <c r="Q604" s="25"/>
       <c r="R604" s="25"/>
       <c r="S604" s="25"/>
       <c r="T604" s="25"/>
@@ -19931,7 +19391,6 @@
       <c r="K605" s="31"/>
       <c r="N605" s="21"/>
       <c r="P605" s="25"/>
-      <c r="Q605" s="25"/>
       <c r="R605" s="25"/>
       <c r="S605" s="25"/>
       <c r="T605" s="25"/>
@@ -19957,7 +19416,6 @@
       <c r="K606" s="31"/>
       <c r="N606" s="21"/>
       <c r="P606" s="25"/>
-      <c r="Q606" s="25"/>
       <c r="R606" s="25"/>
       <c r="S606" s="25"/>
       <c r="T606" s="25"/>
@@ -19983,7 +19441,6 @@
       <c r="K607" s="31"/>
       <c r="N607" s="21"/>
       <c r="P607" s="25"/>
-      <c r="Q607" s="25"/>
       <c r="R607" s="25"/>
       <c r="S607" s="25"/>
       <c r="T607" s="25"/>
@@ -20009,7 +19466,6 @@
       <c r="K608" s="31"/>
       <c r="N608" s="21"/>
       <c r="P608" s="25"/>
-      <c r="Q608" s="25"/>
       <c r="R608" s="25"/>
       <c r="S608" s="25"/>
       <c r="T608" s="25"/>
@@ -20035,7 +19491,6 @@
       <c r="K609" s="31"/>
       <c r="N609" s="21"/>
       <c r="P609" s="25"/>
-      <c r="Q609" s="25"/>
       <c r="R609" s="25"/>
       <c r="S609" s="25"/>
       <c r="T609" s="25"/>
@@ -20061,7 +19516,6 @@
       <c r="K610" s="31"/>
       <c r="N610" s="21"/>
       <c r="P610" s="25"/>
-      <c r="Q610" s="25"/>
       <c r="R610" s="25"/>
       <c r="S610" s="25"/>
       <c r="T610" s="25"/>
@@ -20087,7 +19541,6 @@
       <c r="K611" s="31"/>
       <c r="N611" s="21"/>
       <c r="P611" s="25"/>
-      <c r="Q611" s="25"/>
       <c r="R611" s="25"/>
       <c r="S611" s="25"/>
       <c r="T611" s="25"/>
@@ -20113,7 +19566,6 @@
       <c r="K612" s="31"/>
       <c r="N612" s="21"/>
       <c r="P612" s="25"/>
-      <c r="Q612" s="25"/>
       <c r="R612" s="25"/>
       <c r="S612" s="25"/>
       <c r="T612" s="25"/>
@@ -20139,7 +19591,6 @@
       <c r="K613" s="31"/>
       <c r="N613" s="21"/>
       <c r="P613" s="25"/>
-      <c r="Q613" s="25"/>
       <c r="R613" s="25"/>
       <c r="S613" s="25"/>
       <c r="T613" s="25"/>
@@ -20165,7 +19616,6 @@
       <c r="K614" s="31"/>
       <c r="N614" s="21"/>
       <c r="P614" s="25"/>
-      <c r="Q614" s="25"/>
       <c r="R614" s="25"/>
       <c r="S614" s="25"/>
       <c r="T614" s="25"/>
@@ -20191,7 +19641,6 @@
       <c r="K615" s="31"/>
       <c r="N615" s="21"/>
       <c r="P615" s="25"/>
-      <c r="Q615" s="25"/>
       <c r="R615" s="25"/>
       <c r="S615" s="25"/>
       <c r="T615" s="25"/>
@@ -20217,7 +19666,6 @@
       <c r="K616" s="31"/>
       <c r="N616" s="21"/>
       <c r="P616" s="25"/>
-      <c r="Q616" s="25"/>
       <c r="R616" s="25"/>
       <c r="S616" s="25"/>
       <c r="T616" s="25"/>
@@ -20243,7 +19691,6 @@
       <c r="K617" s="31"/>
       <c r="N617" s="21"/>
       <c r="P617" s="25"/>
-      <c r="Q617" s="25"/>
       <c r="R617" s="25"/>
       <c r="S617" s="25"/>
       <c r="T617" s="25"/>
@@ -20269,7 +19716,6 @@
       <c r="K618" s="31"/>
       <c r="N618" s="21"/>
       <c r="P618" s="25"/>
-      <c r="Q618" s="25"/>
       <c r="R618" s="25"/>
       <c r="S618" s="25"/>
       <c r="T618" s="25"/>
@@ -20295,7 +19741,6 @@
       <c r="K619" s="31"/>
       <c r="N619" s="21"/>
       <c r="P619" s="25"/>
-      <c r="Q619" s="25"/>
       <c r="R619" s="25"/>
       <c r="S619" s="25"/>
       <c r="T619" s="25"/>
@@ -20321,7 +19766,6 @@
       <c r="K620" s="31"/>
       <c r="N620" s="21"/>
       <c r="P620" s="25"/>
-      <c r="Q620" s="25"/>
       <c r="R620" s="25"/>
       <c r="S620" s="25"/>
       <c r="T620" s="25"/>
@@ -20347,7 +19791,6 @@
       <c r="K621" s="31"/>
       <c r="N621" s="21"/>
       <c r="P621" s="25"/>
-      <c r="Q621" s="25"/>
       <c r="R621" s="25"/>
       <c r="S621" s="25"/>
       <c r="T621" s="25"/>
@@ -20373,7 +19816,6 @@
       <c r="K622" s="31"/>
       <c r="N622" s="21"/>
       <c r="P622" s="25"/>
-      <c r="Q622" s="25"/>
       <c r="R622" s="25"/>
       <c r="S622" s="25"/>
       <c r="T622" s="25"/>
@@ -20399,7 +19841,6 @@
       <c r="K623" s="31"/>
       <c r="N623" s="21"/>
       <c r="P623" s="25"/>
-      <c r="Q623" s="25"/>
       <c r="R623" s="25"/>
       <c r="S623" s="25"/>
       <c r="T623" s="25"/>
@@ -20425,7 +19866,6 @@
       <c r="K624" s="31"/>
       <c r="N624" s="21"/>
       <c r="P624" s="25"/>
-      <c r="Q624" s="25"/>
       <c r="R624" s="25"/>
       <c r="S624" s="25"/>
       <c r="T624" s="25"/>
@@ -20451,7 +19891,6 @@
       <c r="K625" s="31"/>
       <c r="N625" s="21"/>
       <c r="P625" s="25"/>
-      <c r="Q625" s="25"/>
       <c r="R625" s="25"/>
       <c r="S625" s="25"/>
       <c r="T625" s="25"/>
@@ -20477,7 +19916,6 @@
       <c r="K626" s="31"/>
       <c r="N626" s="21"/>
       <c r="P626" s="25"/>
-      <c r="Q626" s="25"/>
       <c r="R626" s="25"/>
       <c r="S626" s="25"/>
       <c r="T626" s="25"/>
@@ -20503,7 +19941,6 @@
       <c r="K627" s="31"/>
       <c r="N627" s="21"/>
       <c r="P627" s="25"/>
-      <c r="Q627" s="25"/>
       <c r="R627" s="25"/>
       <c r="S627" s="25"/>
       <c r="T627" s="25"/>
@@ -20529,7 +19966,6 @@
       <c r="K628" s="31"/>
       <c r="N628" s="21"/>
       <c r="P628" s="25"/>
-      <c r="Q628" s="25"/>
       <c r="R628" s="25"/>
       <c r="S628" s="25"/>
       <c r="T628" s="25"/>
@@ -20555,7 +19991,6 @@
       <c r="K629" s="31"/>
       <c r="N629" s="21"/>
       <c r="P629" s="25"/>
-      <c r="Q629" s="25"/>
       <c r="R629" s="25"/>
       <c r="S629" s="25"/>
       <c r="T629" s="25"/>
@@ -20581,7 +20016,6 @@
       <c r="K630" s="31"/>
       <c r="N630" s="21"/>
       <c r="P630" s="25"/>
-      <c r="Q630" s="25"/>
       <c r="R630" s="25"/>
       <c r="S630" s="25"/>
       <c r="T630" s="25"/>
@@ -20607,7 +20041,6 @@
       <c r="K631" s="31"/>
       <c r="N631" s="21"/>
       <c r="P631" s="25"/>
-      <c r="Q631" s="25"/>
       <c r="R631" s="25"/>
       <c r="S631" s="25"/>
       <c r="T631" s="25"/>
@@ -20633,7 +20066,6 @@
       <c r="K632" s="31"/>
       <c r="N632" s="21"/>
       <c r="P632" s="25"/>
-      <c r="Q632" s="25"/>
       <c r="R632" s="25"/>
       <c r="S632" s="25"/>
       <c r="T632" s="25"/>
@@ -20659,7 +20091,6 @@
       <c r="K633" s="31"/>
       <c r="N633" s="21"/>
       <c r="P633" s="25"/>
-      <c r="Q633" s="25"/>
       <c r="R633" s="25"/>
       <c r="S633" s="25"/>
       <c r="T633" s="25"/>
@@ -20685,7 +20116,6 @@
       <c r="K634" s="31"/>
       <c r="N634" s="21"/>
       <c r="P634" s="25"/>
-      <c r="Q634" s="25"/>
       <c r="R634" s="25"/>
       <c r="S634" s="25"/>
       <c r="T634" s="25"/>
@@ -20711,7 +20141,6 @@
       <c r="K635" s="31"/>
       <c r="N635" s="21"/>
       <c r="P635" s="25"/>
-      <c r="Q635" s="25"/>
       <c r="R635" s="25"/>
       <c r="S635" s="25"/>
       <c r="T635" s="25"/>
@@ -20737,7 +20166,6 @@
       <c r="K636" s="31"/>
       <c r="N636" s="21"/>
       <c r="P636" s="25"/>
-      <c r="Q636" s="25"/>
       <c r="R636" s="25"/>
       <c r="S636" s="25"/>
       <c r="T636" s="25"/>
@@ -20763,7 +20191,6 @@
       <c r="K637" s="31"/>
       <c r="N637" s="21"/>
       <c r="P637" s="25"/>
-      <c r="Q637" s="25"/>
       <c r="R637" s="25"/>
       <c r="S637" s="25"/>
       <c r="T637" s="25"/>
@@ -20789,7 +20216,6 @@
       <c r="K638" s="31"/>
       <c r="N638" s="21"/>
       <c r="P638" s="25"/>
-      <c r="Q638" s="25"/>
       <c r="R638" s="25"/>
       <c r="S638" s="25"/>
       <c r="T638" s="25"/>
@@ -20815,7 +20241,6 @@
       <c r="K639" s="31"/>
       <c r="N639" s="21"/>
       <c r="P639" s="25"/>
-      <c r="Q639" s="25"/>
       <c r="R639" s="25"/>
       <c r="S639" s="25"/>
       <c r="T639" s="25"/>
@@ -20841,7 +20266,6 @@
       <c r="K640" s="31"/>
       <c r="N640" s="21"/>
       <c r="P640" s="25"/>
-      <c r="Q640" s="25"/>
       <c r="R640" s="25"/>
       <c r="S640" s="25"/>
       <c r="T640" s="25"/>
@@ -20867,7 +20291,6 @@
       <c r="K641" s="31"/>
       <c r="N641" s="21"/>
       <c r="P641" s="25"/>
-      <c r="Q641" s="25"/>
       <c r="R641" s="25"/>
       <c r="S641" s="25"/>
       <c r="T641" s="25"/>
@@ -20893,7 +20316,6 @@
       <c r="K642" s="31"/>
       <c r="N642" s="21"/>
       <c r="P642" s="25"/>
-      <c r="Q642" s="25"/>
       <c r="R642" s="25"/>
       <c r="S642" s="25"/>
       <c r="T642" s="25"/>
@@ -20919,7 +20341,6 @@
       <c r="K643" s="31"/>
       <c r="N643" s="21"/>
       <c r="P643" s="25"/>
-      <c r="Q643" s="25"/>
       <c r="R643" s="25"/>
       <c r="S643" s="25"/>
       <c r="T643" s="25"/>
@@ -20945,7 +20366,6 @@
       <c r="K644" s="31"/>
       <c r="N644" s="21"/>
       <c r="P644" s="25"/>
-      <c r="Q644" s="25"/>
       <c r="R644" s="25"/>
       <c r="S644" s="25"/>
       <c r="T644" s="25"/>
@@ -20971,7 +20391,6 @@
       <c r="K645" s="31"/>
       <c r="N645" s="21"/>
       <c r="P645" s="25"/>
-      <c r="Q645" s="25"/>
       <c r="R645" s="25"/>
       <c r="S645" s="25"/>
       <c r="T645" s="25"/>
@@ -20997,7 +20416,6 @@
       <c r="K646" s="31"/>
       <c r="N646" s="21"/>
       <c r="P646" s="25"/>
-      <c r="Q646" s="25"/>
       <c r="R646" s="25"/>
       <c r="S646" s="25"/>
       <c r="T646" s="25"/>
@@ -21023,7 +20441,6 @@
       <c r="K647" s="31"/>
       <c r="N647" s="21"/>
       <c r="P647" s="25"/>
-      <c r="Q647" s="25"/>
       <c r="R647" s="25"/>
       <c r="S647" s="25"/>
       <c r="T647" s="25"/>
@@ -21049,7 +20466,6 @@
       <c r="K648" s="31"/>
       <c r="N648" s="21"/>
       <c r="P648" s="25"/>
-      <c r="Q648" s="25"/>
       <c r="R648" s="25"/>
       <c r="S648" s="25"/>
       <c r="T648" s="25"/>
@@ -21075,7 +20491,6 @@
       <c r="K649" s="31"/>
       <c r="N649" s="21"/>
       <c r="P649" s="25"/>
-      <c r="Q649" s="25"/>
       <c r="R649" s="25"/>
       <c r="S649" s="25"/>
       <c r="T649" s="25"/>
@@ -21101,7 +20516,6 @@
       <c r="K650" s="31"/>
       <c r="N650" s="21"/>
       <c r="P650" s="25"/>
-      <c r="Q650" s="25"/>
       <c r="R650" s="25"/>
       <c r="S650" s="25"/>
       <c r="T650" s="25"/>
@@ -21127,7 +20541,6 @@
       <c r="K651" s="31"/>
       <c r="N651" s="21"/>
       <c r="P651" s="25"/>
-      <c r="Q651" s="25"/>
       <c r="R651" s="25"/>
       <c r="S651" s="25"/>
       <c r="T651" s="25"/>
@@ -21153,7 +20566,6 @@
       <c r="K652" s="31"/>
       <c r="N652" s="21"/>
       <c r="P652" s="25"/>
-      <c r="Q652" s="25"/>
       <c r="R652" s="25"/>
       <c r="S652" s="25"/>
       <c r="T652" s="25"/>
@@ -21179,7 +20591,6 @@
       <c r="K653" s="31"/>
       <c r="N653" s="21"/>
       <c r="P653" s="25"/>
-      <c r="Q653" s="25"/>
       <c r="R653" s="25"/>
       <c r="S653" s="25"/>
       <c r="T653" s="25"/>
@@ -21205,7 +20616,6 @@
       <c r="K654" s="31"/>
       <c r="N654" s="21"/>
       <c r="P654" s="25"/>
-      <c r="Q654" s="25"/>
       <c r="R654" s="25"/>
       <c r="S654" s="25"/>
       <c r="T654" s="25"/>
@@ -21231,7 +20641,6 @@
       <c r="K655" s="31"/>
       <c r="N655" s="21"/>
       <c r="P655" s="25"/>
-      <c r="Q655" s="25"/>
       <c r="R655" s="25"/>
       <c r="S655" s="25"/>
       <c r="T655" s="25"/>
@@ -21257,7 +20666,6 @@
       <c r="K656" s="31"/>
       <c r="N656" s="21"/>
       <c r="P656" s="25"/>
-      <c r="Q656" s="25"/>
       <c r="R656" s="25"/>
       <c r="S656" s="25"/>
       <c r="T656" s="25"/>
@@ -21283,7 +20691,6 @@
       <c r="K657" s="31"/>
       <c r="N657" s="21"/>
       <c r="P657" s="25"/>
-      <c r="Q657" s="25"/>
       <c r="R657" s="25"/>
       <c r="S657" s="25"/>
       <c r="T657" s="25"/>
@@ -21309,7 +20716,6 @@
       <c r="K658" s="31"/>
       <c r="N658" s="21"/>
       <c r="P658" s="25"/>
-      <c r="Q658" s="25"/>
       <c r="R658" s="25"/>
       <c r="S658" s="25"/>
       <c r="T658" s="25"/>
@@ -21335,7 +20741,6 @@
       <c r="K659" s="31"/>
       <c r="N659" s="21"/>
       <c r="P659" s="25"/>
-      <c r="Q659" s="25"/>
       <c r="R659" s="25"/>
       <c r="S659" s="25"/>
       <c r="T659" s="25"/>
@@ -21361,7 +20766,6 @@
       <c r="K660" s="31"/>
       <c r="N660" s="21"/>
       <c r="P660" s="25"/>
-      <c r="Q660" s="25"/>
       <c r="R660" s="25"/>
       <c r="S660" s="25"/>
       <c r="T660" s="25"/>
@@ -21387,7 +20791,6 @@
       <c r="K661" s="31"/>
       <c r="N661" s="21"/>
       <c r="P661" s="25"/>
-      <c r="Q661" s="25"/>
       <c r="R661" s="25"/>
       <c r="S661" s="25"/>
       <c r="T661" s="25"/>
@@ -21413,7 +20816,6 @@
       <c r="K662" s="31"/>
       <c r="N662" s="21"/>
       <c r="P662" s="25"/>
-      <c r="Q662" s="25"/>
       <c r="R662" s="25"/>
       <c r="S662" s="25"/>
       <c r="T662" s="25"/>
@@ -21439,7 +20841,6 @@
       <c r="K663" s="31"/>
       <c r="N663" s="21"/>
       <c r="P663" s="25"/>
-      <c r="Q663" s="25"/>
       <c r="R663" s="25"/>
       <c r="S663" s="25"/>
       <c r="T663" s="25"/>
@@ -21465,7 +20866,6 @@
       <c r="K664" s="31"/>
       <c r="N664" s="21"/>
       <c r="P664" s="25"/>
-      <c r="Q664" s="25"/>
       <c r="R664" s="25"/>
       <c r="S664" s="25"/>
       <c r="T664" s="25"/>
@@ -21491,7 +20891,6 @@
       <c r="K665" s="31"/>
       <c r="N665" s="21"/>
       <c r="P665" s="25"/>
-      <c r="Q665" s="25"/>
       <c r="R665" s="25"/>
       <c r="S665" s="25"/>
       <c r="T665" s="25"/>
@@ -21517,7 +20916,6 @@
       <c r="K666" s="31"/>
       <c r="N666" s="21"/>
       <c r="P666" s="25"/>
-      <c r="Q666" s="25"/>
       <c r="R666" s="25"/>
       <c r="S666" s="25"/>
       <c r="T666" s="25"/>
@@ -21543,7 +20941,6 @@
       <c r="K667" s="31"/>
       <c r="N667" s="21"/>
       <c r="P667" s="25"/>
-      <c r="Q667" s="25"/>
       <c r="R667" s="25"/>
       <c r="S667" s="25"/>
       <c r="T667" s="25"/>
@@ -21569,7 +20966,6 @@
       <c r="K668" s="31"/>
       <c r="N668" s="21"/>
       <c r="P668" s="25"/>
-      <c r="Q668" s="25"/>
       <c r="R668" s="25"/>
       <c r="S668" s="25"/>
       <c r="T668" s="25"/>
@@ -21595,7 +20991,6 @@
       <c r="K669" s="31"/>
       <c r="N669" s="21"/>
       <c r="P669" s="25"/>
-      <c r="Q669" s="25"/>
       <c r="R669" s="25"/>
       <c r="S669" s="25"/>
       <c r="T669" s="25"/>
@@ -21621,7 +21016,6 @@
       <c r="K670" s="31"/>
       <c r="N670" s="21"/>
       <c r="P670" s="25"/>
-      <c r="Q670" s="25"/>
       <c r="R670" s="25"/>
       <c r="S670" s="25"/>
       <c r="T670" s="25"/>
@@ -21647,7 +21041,6 @@
       <c r="K671" s="31"/>
       <c r="N671" s="21"/>
       <c r="P671" s="25"/>
-      <c r="Q671" s="25"/>
       <c r="R671" s="25"/>
       <c r="S671" s="25"/>
       <c r="T671" s="25"/>
@@ -21673,7 +21066,6 @@
       <c r="K672" s="31"/>
       <c r="N672" s="21"/>
       <c r="P672" s="25"/>
-      <c r="Q672" s="25"/>
       <c r="R672" s="25"/>
       <c r="S672" s="25"/>
       <c r="T672" s="25"/>
@@ -21699,7 +21091,6 @@
       <c r="K673" s="31"/>
       <c r="N673" s="21"/>
       <c r="P673" s="25"/>
-      <c r="Q673" s="25"/>
       <c r="R673" s="25"/>
       <c r="S673" s="25"/>
       <c r="T673" s="25"/>
@@ -21725,7 +21116,6 @@
       <c r="K674" s="31"/>
       <c r="N674" s="21"/>
       <c r="P674" s="25"/>
-      <c r="Q674" s="25"/>
       <c r="R674" s="25"/>
       <c r="S674" s="25"/>
       <c r="T674" s="25"/>
@@ -21751,7 +21141,6 @@
       <c r="K675" s="31"/>
       <c r="N675" s="21"/>
       <c r="P675" s="25"/>
-      <c r="Q675" s="25"/>
       <c r="R675" s="25"/>
       <c r="S675" s="25"/>
       <c r="T675" s="25"/>
@@ -21777,7 +21166,6 @@
       <c r="K676" s="31"/>
       <c r="N676" s="21"/>
       <c r="P676" s="25"/>
-      <c r="Q676" s="25"/>
       <c r="R676" s="25"/>
       <c r="S676" s="25"/>
       <c r="T676" s="25"/>
@@ -21803,7 +21191,6 @@
       <c r="K677" s="31"/>
       <c r="N677" s="21"/>
       <c r="P677" s="25"/>
-      <c r="Q677" s="25"/>
       <c r="R677" s="25"/>
       <c r="S677" s="25"/>
       <c r="T677" s="25"/>
@@ -21829,7 +21216,6 @@
       <c r="K678" s="31"/>
       <c r="N678" s="21"/>
       <c r="P678" s="25"/>
-      <c r="Q678" s="25"/>
       <c r="R678" s="25"/>
       <c r="S678" s="25"/>
       <c r="T678" s="25"/>
@@ -21855,7 +21241,6 @@
       <c r="K679" s="31"/>
       <c r="N679" s="21"/>
       <c r="P679" s="25"/>
-      <c r="Q679" s="25"/>
       <c r="R679" s="25"/>
       <c r="S679" s="25"/>
       <c r="T679" s="25"/>
@@ -21881,7 +21266,6 @@
       <c r="K680" s="31"/>
       <c r="N680" s="21"/>
       <c r="P680" s="25"/>
-      <c r="Q680" s="25"/>
       <c r="R680" s="25"/>
       <c r="S680" s="25"/>
       <c r="T680" s="25"/>
@@ -21907,7 +21291,6 @@
       <c r="K681" s="31"/>
       <c r="N681" s="21"/>
       <c r="P681" s="25"/>
-      <c r="Q681" s="25"/>
       <c r="R681" s="25"/>
       <c r="S681" s="25"/>
       <c r="T681" s="25"/>
@@ -21933,7 +21316,6 @@
       <c r="K682" s="31"/>
       <c r="N682" s="21"/>
       <c r="P682" s="25"/>
-      <c r="Q682" s="25"/>
       <c r="R682" s="25"/>
       <c r="S682" s="25"/>
       <c r="T682" s="25"/>
@@ -21959,7 +21341,6 @@
       <c r="K683" s="31"/>
       <c r="N683" s="21"/>
       <c r="P683" s="25"/>
-      <c r="Q683" s="25"/>
       <c r="R683" s="25"/>
       <c r="S683" s="25"/>
       <c r="T683" s="25"/>
@@ -21985,7 +21366,6 @@
       <c r="K684" s="31"/>
       <c r="N684" s="21"/>
       <c r="P684" s="25"/>
-      <c r="Q684" s="25"/>
       <c r="R684" s="25"/>
       <c r="S684" s="25"/>
       <c r="T684" s="25"/>
@@ -22011,7 +21391,6 @@
       <c r="K685" s="31"/>
       <c r="N685" s="21"/>
       <c r="P685" s="25"/>
-      <c r="Q685" s="25"/>
       <c r="R685" s="25"/>
       <c r="S685" s="25"/>
       <c r="T685" s="25"/>
@@ -22037,7 +21416,6 @@
       <c r="K686" s="31"/>
       <c r="N686" s="21"/>
       <c r="P686" s="25"/>
-      <c r="Q686" s="25"/>
       <c r="R686" s="25"/>
       <c r="S686" s="25"/>
       <c r="T686" s="25"/>
@@ -22063,7 +21441,6 @@
       <c r="K687" s="31"/>
       <c r="N687" s="21"/>
       <c r="P687" s="25"/>
-      <c r="Q687" s="25"/>
       <c r="R687" s="25"/>
       <c r="S687" s="25"/>
       <c r="T687" s="25"/>
@@ -22089,7 +21466,6 @@
       <c r="K688" s="31"/>
       <c r="N688" s="21"/>
       <c r="P688" s="25"/>
-      <c r="Q688" s="25"/>
       <c r="R688" s="25"/>
       <c r="S688" s="25"/>
       <c r="T688" s="25"/>
@@ -22115,7 +21491,6 @@
       <c r="K689" s="31"/>
       <c r="N689" s="21"/>
       <c r="P689" s="25"/>
-      <c r="Q689" s="25"/>
       <c r="R689" s="25"/>
       <c r="S689" s="25"/>
       <c r="T689" s="25"/>
@@ -22141,7 +21516,6 @@
       <c r="K690" s="31"/>
       <c r="N690" s="21"/>
       <c r="P690" s="25"/>
-      <c r="Q690" s="25"/>
       <c r="R690" s="25"/>
       <c r="S690" s="25"/>
       <c r="T690" s="25"/>
@@ -22167,7 +21541,6 @@
       <c r="K691" s="31"/>
       <c r="N691" s="21"/>
       <c r="P691" s="25"/>
-      <c r="Q691" s="25"/>
       <c r="R691" s="25"/>
       <c r="S691" s="25"/>
       <c r="T691" s="25"/>
@@ -22193,7 +21566,6 @@
       <c r="K692" s="31"/>
       <c r="N692" s="21"/>
       <c r="P692" s="25"/>
-      <c r="Q692" s="25"/>
       <c r="R692" s="25"/>
       <c r="S692" s="25"/>
       <c r="T692" s="25"/>
@@ -22219,7 +21591,6 @@
       <c r="K693" s="31"/>
       <c r="N693" s="21"/>
       <c r="P693" s="25"/>
-      <c r="Q693" s="25"/>
       <c r="R693" s="25"/>
       <c r="S693" s="25"/>
       <c r="T693" s="25"/>
@@ -22245,7 +21616,6 @@
       <c r="K694" s="31"/>
       <c r="N694" s="21"/>
       <c r="P694" s="25"/>
-      <c r="Q694" s="25"/>
       <c r="R694" s="25"/>
       <c r="S694" s="25"/>
       <c r="T694" s="25"/>
@@ -22271,7 +21641,6 @@
       <c r="K695" s="31"/>
       <c r="N695" s="21"/>
       <c r="P695" s="25"/>
-      <c r="Q695" s="25"/>
       <c r="R695" s="25"/>
       <c r="S695" s="25"/>
       <c r="T695" s="25"/>
@@ -22297,7 +21666,6 @@
       <c r="K696" s="31"/>
       <c r="N696" s="21"/>
       <c r="P696" s="25"/>
-      <c r="Q696" s="25"/>
       <c r="R696" s="25"/>
       <c r="S696" s="25"/>
       <c r="T696" s="25"/>
@@ -22323,7 +21691,6 @@
       <c r="K697" s="31"/>
       <c r="N697" s="21"/>
       <c r="P697" s="25"/>
-      <c r="Q697" s="25"/>
       <c r="R697" s="25"/>
       <c r="S697" s="25"/>
       <c r="T697" s="25"/>
@@ -22349,7 +21716,6 @@
       <c r="K698" s="31"/>
       <c r="N698" s="21"/>
       <c r="P698" s="25"/>
-      <c r="Q698" s="25"/>
       <c r="R698" s="25"/>
       <c r="S698" s="25"/>
       <c r="T698" s="25"/>
@@ -22375,7 +21741,6 @@
       <c r="K699" s="31"/>
       <c r="N699" s="21"/>
       <c r="P699" s="25"/>
-      <c r="Q699" s="25"/>
       <c r="R699" s="25"/>
       <c r="S699" s="25"/>
       <c r="T699" s="25"/>
@@ -22401,7 +21766,6 @@
       <c r="K700" s="31"/>
       <c r="N700" s="21"/>
       <c r="P700" s="25"/>
-      <c r="Q700" s="25"/>
       <c r="R700" s="25"/>
       <c r="S700" s="25"/>
       <c r="T700" s="25"/>
@@ -22427,7 +21791,6 @@
       <c r="K701" s="31"/>
       <c r="N701" s="21"/>
       <c r="P701" s="25"/>
-      <c r="Q701" s="25"/>
       <c r="R701" s="25"/>
       <c r="S701" s="25"/>
       <c r="T701" s="25"/>
@@ -22453,7 +21816,6 @@
       <c r="K702" s="31"/>
       <c r="N702" s="21"/>
       <c r="P702" s="25"/>
-      <c r="Q702" s="25"/>
       <c r="R702" s="25"/>
       <c r="S702" s="25"/>
       <c r="T702" s="25"/>
@@ -22479,7 +21841,6 @@
       <c r="K703" s="31"/>
       <c r="N703" s="21"/>
       <c r="P703" s="25"/>
-      <c r="Q703" s="25"/>
       <c r="R703" s="25"/>
       <c r="S703" s="25"/>
       <c r="T703" s="25"/>
@@ -22505,7 +21866,6 @@
       <c r="K704" s="31"/>
       <c r="N704" s="21"/>
       <c r="P704" s="25"/>
-      <c r="Q704" s="25"/>
       <c r="R704" s="25"/>
       <c r="S704" s="25"/>
       <c r="T704" s="25"/>
@@ -22531,7 +21891,6 @@
       <c r="K705" s="31"/>
       <c r="N705" s="21"/>
       <c r="P705" s="25"/>
-      <c r="Q705" s="25"/>
       <c r="R705" s="25"/>
       <c r="S705" s="25"/>
       <c r="T705" s="25"/>
@@ -22557,7 +21916,6 @@
       <c r="K706" s="31"/>
       <c r="N706" s="21"/>
       <c r="P706" s="25"/>
-      <c r="Q706" s="25"/>
       <c r="R706" s="25"/>
       <c r="S706" s="25"/>
       <c r="T706" s="25"/>
@@ -22583,7 +21941,6 @@
       <c r="K707" s="31"/>
       <c r="N707" s="21"/>
       <c r="P707" s="25"/>
-      <c r="Q707" s="25"/>
       <c r="R707" s="25"/>
       <c r="S707" s="25"/>
       <c r="T707" s="25"/>
@@ -22609,7 +21966,6 @@
       <c r="K708" s="31"/>
       <c r="N708" s="21"/>
       <c r="P708" s="25"/>
-      <c r="Q708" s="25"/>
       <c r="R708" s="25"/>
       <c r="S708" s="25"/>
       <c r="T708" s="25"/>
@@ -22635,7 +21991,6 @@
       <c r="K709" s="31"/>
       <c r="N709" s="21"/>
       <c r="P709" s="25"/>
-      <c r="Q709" s="25"/>
       <c r="R709" s="25"/>
       <c r="S709" s="25"/>
       <c r="T709" s="25"/>
@@ -22661,7 +22016,6 @@
       <c r="K710" s="31"/>
       <c r="N710" s="21"/>
       <c r="P710" s="25"/>
-      <c r="Q710" s="25"/>
       <c r="R710" s="25"/>
       <c r="S710" s="25"/>
       <c r="T710" s="25"/>
@@ -22687,7 +22041,6 @@
       <c r="K711" s="31"/>
       <c r="N711" s="21"/>
       <c r="P711" s="25"/>
-      <c r="Q711" s="25"/>
       <c r="R711" s="25"/>
       <c r="S711" s="25"/>
       <c r="T711" s="25"/>
@@ -22713,7 +22066,6 @@
       <c r="K712" s="31"/>
       <c r="N712" s="21"/>
       <c r="P712" s="25"/>
-      <c r="Q712" s="25"/>
       <c r="R712" s="25"/>
       <c r="S712" s="25"/>
       <c r="T712" s="25"/>
@@ -22739,7 +22091,6 @@
       <c r="K713" s="31"/>
       <c r="N713" s="21"/>
       <c r="P713" s="25"/>
-      <c r="Q713" s="25"/>
       <c r="R713" s="25"/>
       <c r="S713" s="25"/>
       <c r="T713" s="25"/>
@@ -22765,7 +22116,6 @@
       <c r="K714" s="31"/>
       <c r="N714" s="21"/>
       <c r="P714" s="25"/>
-      <c r="Q714" s="25"/>
       <c r="R714" s="25"/>
       <c r="S714" s="25"/>
       <c r="T714" s="25"/>
@@ -22791,7 +22141,6 @@
       <c r="K715" s="31"/>
       <c r="N715" s="21"/>
       <c r="P715" s="25"/>
-      <c r="Q715" s="25"/>
       <c r="R715" s="25"/>
       <c r="S715" s="25"/>
       <c r="T715" s="25"/>
@@ -22817,7 +22166,6 @@
       <c r="K716" s="31"/>
       <c r="N716" s="21"/>
       <c r="P716" s="25"/>
-      <c r="Q716" s="25"/>
       <c r="R716" s="25"/>
       <c r="S716" s="25"/>
       <c r="T716" s="25"/>
@@ -22843,7 +22191,6 @@
       <c r="K717" s="31"/>
       <c r="N717" s="21"/>
       <c r="P717" s="25"/>
-      <c r="Q717" s="25"/>
       <c r="R717" s="25"/>
       <c r="S717" s="25"/>
       <c r="T717" s="25"/>
@@ -22869,7 +22216,6 @@
       <c r="K718" s="31"/>
       <c r="N718" s="21"/>
       <c r="P718" s="25"/>
-      <c r="Q718" s="25"/>
       <c r="R718" s="25"/>
       <c r="S718" s="25"/>
       <c r="T718" s="25"/>
@@ -22895,7 +22241,6 @@
       <c r="K719" s="31"/>
       <c r="N719" s="21"/>
       <c r="P719" s="25"/>
-      <c r="Q719" s="25"/>
       <c r="R719" s="25"/>
       <c r="S719" s="25"/>
       <c r="T719" s="25"/>
@@ -22921,7 +22266,6 @@
       <c r="K720" s="31"/>
       <c r="N720" s="21"/>
       <c r="P720" s="25"/>
-      <c r="Q720" s="25"/>
       <c r="R720" s="25"/>
       <c r="S720" s="25"/>
       <c r="T720" s="25"/>
@@ -22947,7 +22291,6 @@
       <c r="K721" s="31"/>
       <c r="N721" s="21"/>
       <c r="P721" s="25"/>
-      <c r="Q721" s="25"/>
       <c r="R721" s="25"/>
       <c r="S721" s="25"/>
       <c r="T721" s="25"/>
@@ -22973,7 +22316,6 @@
       <c r="K722" s="31"/>
       <c r="N722" s="21"/>
       <c r="P722" s="25"/>
-      <c r="Q722" s="25"/>
       <c r="R722" s="25"/>
       <c r="S722" s="25"/>
       <c r="T722" s="25"/>
@@ -22999,7 +22341,6 @@
       <c r="K723" s="31"/>
       <c r="N723" s="21"/>
       <c r="P723" s="25"/>
-      <c r="Q723" s="25"/>
       <c r="R723" s="25"/>
       <c r="S723" s="25"/>
       <c r="T723" s="25"/>
@@ -23025,7 +22366,6 @@
       <c r="K724" s="31"/>
       <c r="N724" s="21"/>
       <c r="P724" s="25"/>
-      <c r="Q724" s="25"/>
       <c r="R724" s="25"/>
       <c r="S724" s="25"/>
       <c r="T724" s="25"/>
@@ -23051,7 +22391,6 @@
       <c r="K725" s="31"/>
       <c r="N725" s="21"/>
       <c r="P725" s="25"/>
-      <c r="Q725" s="25"/>
       <c r="R725" s="25"/>
       <c r="S725" s="25"/>
       <c r="T725" s="25"/>
@@ -23077,7 +22416,6 @@
       <c r="K726" s="31"/>
       <c r="N726" s="21"/>
       <c r="P726" s="25"/>
-      <c r="Q726" s="25"/>
       <c r="R726" s="25"/>
       <c r="S726" s="25"/>
       <c r="T726" s="25"/>
@@ -23103,7 +22441,6 @@
       <c r="K727" s="31"/>
       <c r="N727" s="21"/>
       <c r="P727" s="25"/>
-      <c r="Q727" s="25"/>
       <c r="R727" s="25"/>
       <c r="S727" s="25"/>
       <c r="T727" s="25"/>
@@ -23129,7 +22466,6 @@
       <c r="K728" s="31"/>
       <c r="N728" s="21"/>
       <c r="P728" s="25"/>
-      <c r="Q728" s="25"/>
       <c r="R728" s="25"/>
       <c r="S728" s="25"/>
       <c r="T728" s="25"/>
@@ -23155,7 +22491,6 @@
       <c r="K729" s="31"/>
       <c r="N729" s="21"/>
       <c r="P729" s="25"/>
-      <c r="Q729" s="25"/>
       <c r="R729" s="25"/>
       <c r="S729" s="25"/>
       <c r="T729" s="25"/>
@@ -23181,7 +22516,6 @@
       <c r="K730" s="31"/>
       <c r="N730" s="21"/>
       <c r="P730" s="25"/>
-      <c r="Q730" s="25"/>
       <c r="R730" s="25"/>
       <c r="S730" s="25"/>
       <c r="T730" s="25"/>
@@ -23207,7 +22541,6 @@
       <c r="K731" s="31"/>
       <c r="N731" s="21"/>
       <c r="P731" s="25"/>
-      <c r="Q731" s="25"/>
       <c r="R731" s="25"/>
       <c r="S731" s="25"/>
       <c r="T731" s="25"/>
@@ -23233,7 +22566,6 @@
       <c r="K732" s="31"/>
       <c r="N732" s="21"/>
       <c r="P732" s="25"/>
-      <c r="Q732" s="25"/>
       <c r="R732" s="25"/>
       <c r="S732" s="25"/>
       <c r="T732" s="25"/>
@@ -23259,7 +22591,6 @@
       <c r="K733" s="31"/>
       <c r="N733" s="21"/>
       <c r="P733" s="25"/>
-      <c r="Q733" s="25"/>
       <c r="R733" s="25"/>
       <c r="S733" s="25"/>
       <c r="T733" s="25"/>
@@ -23285,7 +22616,6 @@
       <c r="K734" s="31"/>
       <c r="N734" s="21"/>
       <c r="P734" s="25"/>
-      <c r="Q734" s="25"/>
       <c r="R734" s="25"/>
       <c r="S734" s="25"/>
       <c r="T734" s="25"/>
@@ -23311,7 +22641,6 @@
       <c r="K735" s="31"/>
       <c r="N735" s="21"/>
       <c r="P735" s="25"/>
-      <c r="Q735" s="25"/>
       <c r="R735" s="25"/>
       <c r="S735" s="25"/>
       <c r="T735" s="25"/>
@@ -23337,7 +22666,6 @@
       <c r="K736" s="31"/>
       <c r="N736" s="21"/>
       <c r="P736" s="25"/>
-      <c r="Q736" s="25"/>
       <c r="R736" s="25"/>
       <c r="S736" s="25"/>
       <c r="T736" s="25"/>
@@ -23363,7 +22691,6 @@
       <c r="K737" s="31"/>
       <c r="N737" s="21"/>
       <c r="P737" s="25"/>
-      <c r="Q737" s="25"/>
       <c r="R737" s="25"/>
       <c r="S737" s="25"/>
       <c r="T737" s="25"/>
@@ -23389,7 +22716,6 @@
       <c r="K738" s="31"/>
       <c r="N738" s="21"/>
       <c r="P738" s="25"/>
-      <c r="Q738" s="25"/>
       <c r="R738" s="25"/>
       <c r="S738" s="25"/>
       <c r="T738" s="25"/>
@@ -23415,7 +22741,6 @@
       <c r="K739" s="31"/>
       <c r="N739" s="21"/>
       <c r="P739" s="25"/>
-      <c r="Q739" s="25"/>
       <c r="R739" s="25"/>
       <c r="S739" s="25"/>
       <c r="T739" s="25"/>
@@ -23441,7 +22766,6 @@
       <c r="K740" s="31"/>
       <c r="N740" s="21"/>
       <c r="P740" s="25"/>
-      <c r="Q740" s="25"/>
       <c r="R740" s="25"/>
       <c r="S740" s="25"/>
       <c r="T740" s="25"/>
@@ -23467,7 +22791,6 @@
       <c r="K741" s="31"/>
       <c r="N741" s="21"/>
       <c r="P741" s="25"/>
-      <c r="Q741" s="25"/>
       <c r="R741" s="25"/>
       <c r="S741" s="25"/>
       <c r="T741" s="25"/>
@@ -23493,7 +22816,6 @@
       <c r="K742" s="31"/>
       <c r="N742" s="21"/>
       <c r="P742" s="25"/>
-      <c r="Q742" s="25"/>
       <c r="R742" s="25"/>
       <c r="S742" s="25"/>
       <c r="T742" s="25"/>
@@ -23519,7 +22841,6 @@
       <c r="K743" s="31"/>
       <c r="N743" s="21"/>
       <c r="P743" s="25"/>
-      <c r="Q743" s="25"/>
       <c r="R743" s="25"/>
       <c r="S743" s="25"/>
       <c r="T743" s="25"/>
@@ -23545,7 +22866,6 @@
       <c r="K744" s="31"/>
       <c r="N744" s="21"/>
       <c r="P744" s="25"/>
-      <c r="Q744" s="25"/>
       <c r="R744" s="25"/>
       <c r="S744" s="25"/>
       <c r="T744" s="25"/>
@@ -23571,7 +22891,6 @@
       <c r="K745" s="31"/>
       <c r="N745" s="21"/>
       <c r="P745" s="25"/>
-      <c r="Q745" s="25"/>
       <c r="R745" s="25"/>
       <c r="S745" s="25"/>
       <c r="T745" s="25"/>
@@ -23597,7 +22916,6 @@
       <c r="K746" s="31"/>
       <c r="N746" s="21"/>
       <c r="P746" s="25"/>
-      <c r="Q746" s="25"/>
       <c r="R746" s="25"/>
       <c r="S746" s="25"/>
       <c r="T746" s="25"/>
@@ -23623,7 +22941,6 @@
       <c r="K747" s="31"/>
       <c r="N747" s="21"/>
       <c r="P747" s="25"/>
-      <c r="Q747" s="25"/>
       <c r="R747" s="25"/>
       <c r="S747" s="25"/>
       <c r="T747" s="25"/>
@@ -23649,7 +22966,6 @@
       <c r="K748" s="31"/>
       <c r="N748" s="21"/>
       <c r="P748" s="25"/>
-      <c r="Q748" s="25"/>
       <c r="R748" s="25"/>
       <c r="S748" s="25"/>
       <c r="T748" s="25"/>
@@ -23675,7 +22991,6 @@
       <c r="K749" s="31"/>
       <c r="N749" s="21"/>
       <c r="P749" s="25"/>
-      <c r="Q749" s="25"/>
       <c r="R749" s="25"/>
       <c r="S749" s="25"/>
       <c r="T749" s="25"/>
@@ -23701,7 +23016,6 @@
       <c r="K750" s="31"/>
       <c r="N750" s="21"/>
       <c r="P750" s="25"/>
-      <c r="Q750" s="25"/>
       <c r="R750" s="25"/>
       <c r="S750" s="25"/>
       <c r="T750" s="25"/>
@@ -23727,7 +23041,6 @@
       <c r="K751" s="31"/>
       <c r="N751" s="21"/>
       <c r="P751" s="25"/>
-      <c r="Q751" s="25"/>
       <c r="R751" s="25"/>
       <c r="S751" s="25"/>
       <c r="T751" s="25"/>
@@ -23753,7 +23066,6 @@
       <c r="K752" s="31"/>
       <c r="N752" s="21"/>
       <c r="P752" s="25"/>
-      <c r="Q752" s="25"/>
       <c r="R752" s="25"/>
       <c r="S752" s="25"/>
       <c r="T752" s="25"/>
@@ -23779,7 +23091,6 @@
       <c r="K753" s="31"/>
       <c r="N753" s="21"/>
       <c r="P753" s="25"/>
-      <c r="Q753" s="25"/>
       <c r="R753" s="25"/>
       <c r="S753" s="25"/>
       <c r="T753" s="25"/>
@@ -23805,7 +23116,6 @@
       <c r="K754" s="31"/>
       <c r="N754" s="21"/>
       <c r="P754" s="25"/>
-      <c r="Q754" s="25"/>
       <c r="R754" s="25"/>
       <c r="S754" s="25"/>
       <c r="T754" s="25"/>
@@ -23831,7 +23141,6 @@
       <c r="K755" s="31"/>
       <c r="N755" s="21"/>
       <c r="P755" s="25"/>
-      <c r="Q755" s="25"/>
       <c r="R755" s="25"/>
       <c r="S755" s="25"/>
       <c r="T755" s="25"/>
@@ -23857,7 +23166,6 @@
       <c r="K756" s="31"/>
       <c r="N756" s="21"/>
       <c r="P756" s="25"/>
-      <c r="Q756" s="25"/>
       <c r="R756" s="25"/>
       <c r="S756" s="25"/>
       <c r="T756" s="25"/>
@@ -23883,7 +23191,6 @@
       <c r="K757" s="31"/>
       <c r="N757" s="21"/>
       <c r="P757" s="25"/>
-      <c r="Q757" s="25"/>
       <c r="R757" s="25"/>
       <c r="S757" s="25"/>
       <c r="T757" s="25"/>
@@ -23909,7 +23216,6 @@
       <c r="K758" s="31"/>
       <c r="N758" s="21"/>
       <c r="P758" s="25"/>
-      <c r="Q758" s="25"/>
       <c r="R758" s="25"/>
       <c r="S758" s="25"/>
       <c r="T758" s="25"/>
@@ -23935,7 +23241,6 @@
       <c r="K759" s="31"/>
       <c r="N759" s="21"/>
       <c r="P759" s="25"/>
-      <c r="Q759" s="25"/>
       <c r="R759" s="25"/>
       <c r="S759" s="25"/>
       <c r="T759" s="25"/>
@@ -23961,7 +23266,6 @@
       <c r="K760" s="31"/>
       <c r="N760" s="21"/>
       <c r="P760" s="25"/>
-      <c r="Q760" s="25"/>
       <c r="R760" s="25"/>
       <c r="S760" s="25"/>
       <c r="T760" s="25"/>
@@ -23987,7 +23291,6 @@
       <c r="K761" s="31"/>
       <c r="N761" s="21"/>
       <c r="P761" s="25"/>
-      <c r="Q761" s="25"/>
       <c r="R761" s="25"/>
       <c r="S761" s="25"/>
       <c r="T761" s="25"/>
@@ -24013,7 +23316,6 @@
       <c r="K762" s="31"/>
       <c r="N762" s="21"/>
       <c r="P762" s="25"/>
-      <c r="Q762" s="25"/>
       <c r="R762" s="25"/>
       <c r="S762" s="25"/>
       <c r="T762" s="25"/>
@@ -24039,7 +23341,6 @@
       <c r="K763" s="31"/>
       <c r="N763" s="21"/>
       <c r="P763" s="25"/>
-      <c r="Q763" s="25"/>
       <c r="R763" s="25"/>
       <c r="S763" s="25"/>
       <c r="T763" s="25"/>
@@ -24065,7 +23366,6 @@
       <c r="K764" s="31"/>
       <c r="N764" s="21"/>
       <c r="P764" s="25"/>
-      <c r="Q764" s="25"/>
       <c r="R764" s="25"/>
       <c r="S764" s="25"/>
       <c r="T764" s="25"/>
@@ -24091,7 +23391,6 @@
       <c r="K765" s="31"/>
       <c r="N765" s="21"/>
       <c r="P765" s="25"/>
-      <c r="Q765" s="25"/>
       <c r="R765" s="25"/>
       <c r="S765" s="25"/>
       <c r="T765" s="25"/>
@@ -24117,7 +23416,6 @@
       <c r="K766" s="31"/>
       <c r="N766" s="21"/>
       <c r="P766" s="25"/>
-      <c r="Q766" s="25"/>
       <c r="R766" s="25"/>
       <c r="S766" s="25"/>
       <c r="T766" s="25"/>
@@ -24143,7 +23441,6 @@
       <c r="K767" s="31"/>
       <c r="N767" s="21"/>
       <c r="P767" s="25"/>
-      <c r="Q767" s="25"/>
       <c r="R767" s="25"/>
       <c r="S767" s="25"/>
       <c r="T767" s="25"/>
@@ -24169,7 +23466,6 @@
       <c r="K768" s="31"/>
       <c r="N768" s="21"/>
       <c r="P768" s="25"/>
-      <c r="Q768" s="25"/>
       <c r="R768" s="25"/>
       <c r="S768" s="25"/>
       <c r="T768" s="25"/>
@@ -24195,7 +23491,6 @@
       <c r="K769" s="31"/>
       <c r="N769" s="21"/>
       <c r="P769" s="25"/>
-      <c r="Q769" s="25"/>
       <c r="R769" s="25"/>
       <c r="S769" s="25"/>
       <c r="T769" s="25"/>
@@ -24221,7 +23516,6 @@
       <c r="K770" s="31"/>
       <c r="N770" s="21"/>
       <c r="P770" s="25"/>
-      <c r="Q770" s="25"/>
       <c r="R770" s="25"/>
       <c r="S770" s="25"/>
       <c r="T770" s="25"/>
@@ -24247,7 +23541,6 @@
       <c r="K771" s="31"/>
       <c r="N771" s="21"/>
       <c r="P771" s="25"/>
-      <c r="Q771" s="25"/>
       <c r="R771" s="25"/>
       <c r="S771" s="25"/>
       <c r="T771" s="25"/>
@@ -24273,7 +23566,6 @@
       <c r="K772" s="31"/>
       <c r="N772" s="21"/>
       <c r="P772" s="25"/>
-      <c r="Q772" s="25"/>
       <c r="R772" s="25"/>
       <c r="S772" s="25"/>
       <c r="T772" s="25"/>
@@ -24299,7 +23591,6 @@
       <c r="K773" s="31"/>
       <c r="N773" s="21"/>
       <c r="P773" s="25"/>
-      <c r="Q773" s="25"/>
       <c r="R773" s="25"/>
       <c r="S773" s="25"/>
       <c r="T773" s="25"/>
@@ -24325,7 +23616,6 @@
       <c r="K774" s="31"/>
       <c r="N774" s="21"/>
       <c r="P774" s="25"/>
-      <c r="Q774" s="25"/>
       <c r="R774" s="25"/>
       <c r="S774" s="25"/>
       <c r="T774" s="25"/>
@@ -24351,7 +23641,6 @@
       <c r="K775" s="31"/>
       <c r="N775" s="21"/>
       <c r="P775" s="25"/>
-      <c r="Q775" s="25"/>
       <c r="R775" s="25"/>
       <c r="S775" s="25"/>
       <c r="T775" s="25"/>
@@ -24377,7 +23666,6 @@
       <c r="K776" s="31"/>
       <c r="N776" s="21"/>
       <c r="P776" s="25"/>
-      <c r="Q776" s="25"/>
       <c r="R776" s="25"/>
       <c r="S776" s="25"/>
       <c r="T776" s="25"/>
@@ -24403,7 +23691,6 @@
       <c r="K777" s="31"/>
       <c r="N777" s="21"/>
       <c r="P777" s="25"/>
-      <c r="Q777" s="25"/>
       <c r="R777" s="25"/>
       <c r="S777" s="25"/>
       <c r="T777" s="25"/>
@@ -24429,7 +23716,6 @@
       <c r="K778" s="31"/>
       <c r="N778" s="21"/>
       <c r="P778" s="25"/>
-      <c r="Q778" s="25"/>
       <c r="R778" s="25"/>
       <c r="S778" s="25"/>
       <c r="T778" s="25"/>
@@ -24455,7 +23741,6 @@
       <c r="K779" s="31"/>
       <c r="N779" s="21"/>
       <c r="P779" s="25"/>
-      <c r="Q779" s="25"/>
       <c r="R779" s="25"/>
       <c r="S779" s="25"/>
       <c r="T779" s="25"/>
@@ -24481,7 +23766,6 @@
       <c r="K780" s="31"/>
       <c r="N780" s="21"/>
       <c r="P780" s="25"/>
-      <c r="Q780" s="25"/>
       <c r="R780" s="25"/>
       <c r="S780" s="25"/>
       <c r="T780" s="25"/>
@@ -24507,7 +23791,6 @@
       <c r="K781" s="31"/>
       <c r="N781" s="21"/>
       <c r="P781" s="25"/>
-      <c r="Q781" s="25"/>
       <c r="R781" s="25"/>
       <c r="S781" s="25"/>
       <c r="T781" s="25"/>
@@ -24533,7 +23816,6 @@
       <c r="K782" s="31"/>
       <c r="N782" s="21"/>
       <c r="P782" s="25"/>
-      <c r="Q782" s="25"/>
       <c r="R782" s="25"/>
       <c r="S782" s="25"/>
       <c r="T782" s="25"/>
@@ -24559,7 +23841,6 @@
       <c r="K783" s="31"/>
       <c r="N783" s="21"/>
       <c r="P783" s="25"/>
-      <c r="Q783" s="25"/>
       <c r="R783" s="25"/>
       <c r="S783" s="25"/>
       <c r="T783" s="25"/>
@@ -24585,7 +23866,6 @@
       <c r="K784" s="31"/>
       <c r="N784" s="21"/>
       <c r="P784" s="25"/>
-      <c r="Q784" s="25"/>
       <c r="R784" s="25"/>
       <c r="S784" s="25"/>
       <c r="T784" s="25"/>
@@ -24611,7 +23891,6 @@
       <c r="K785" s="31"/>
       <c r="N785" s="21"/>
       <c r="P785" s="25"/>
-      <c r="Q785" s="25"/>
       <c r="R785" s="25"/>
       <c r="S785" s="25"/>
       <c r="T785" s="25"/>
@@ -24637,7 +23916,6 @@
       <c r="K786" s="31"/>
       <c r="N786" s="21"/>
       <c r="P786" s="25"/>
-      <c r="Q786" s="25"/>
       <c r="R786" s="25"/>
       <c r="S786" s="25"/>
       <c r="T786" s="25"/>
@@ -24663,7 +23941,6 @@
       <c r="K787" s="31"/>
       <c r="N787" s="21"/>
       <c r="P787" s="25"/>
-      <c r="Q787" s="25"/>
       <c r="R787" s="25"/>
       <c r="S787" s="25"/>
       <c r="T787" s="25"/>
@@ -24689,7 +23966,6 @@
       <c r="K788" s="31"/>
       <c r="N788" s="21"/>
       <c r="P788" s="25"/>
-      <c r="Q788" s="25"/>
       <c r="R788" s="25"/>
       <c r="S788" s="25"/>
       <c r="T788" s="25"/>
@@ -24715,7 +23991,6 @@
       <c r="K789" s="31"/>
       <c r="N789" s="21"/>
       <c r="P789" s="25"/>
-      <c r="Q789" s="25"/>
       <c r="R789" s="25"/>
       <c r="S789" s="25"/>
       <c r="T789" s="25"/>
@@ -24741,7 +24016,6 @@
       <c r="K790" s="31"/>
       <c r="N790" s="21"/>
       <c r="P790" s="25"/>
-      <c r="Q790" s="25"/>
       <c r="R790" s="25"/>
       <c r="S790" s="25"/>
       <c r="T790" s="25"/>
@@ -24767,7 +24041,6 @@
       <c r="K791" s="31"/>
       <c r="N791" s="21"/>
       <c r="P791" s="25"/>
-      <c r="Q791" s="25"/>
       <c r="R791" s="25"/>
       <c r="S791" s="25"/>
       <c r="T791" s="25"/>
@@ -24793,7 +24066,6 @@
       <c r="K792" s="31"/>
       <c r="N792" s="21"/>
       <c r="P792" s="25"/>
-      <c r="Q792" s="25"/>
       <c r="R792" s="25"/>
       <c r="S792" s="25"/>
       <c r="T792" s="25"/>
@@ -24819,7 +24091,6 @@
       <c r="K793" s="31"/>
       <c r="N793" s="21"/>
       <c r="P793" s="25"/>
-      <c r="Q793" s="25"/>
       <c r="R793" s="25"/>
       <c r="S793" s="25"/>
       <c r="T793" s="25"/>
@@ -24845,7 +24116,6 @@
       <c r="K794" s="31"/>
       <c r="N794" s="21"/>
       <c r="P794" s="25"/>
-      <c r="Q794" s="25"/>
       <c r="R794" s="25"/>
       <c r="S794" s="25"/>
       <c r="T794" s="25"/>
@@ -24871,7 +24141,6 @@
       <c r="K795" s="31"/>
       <c r="N795" s="21"/>
       <c r="P795" s="25"/>
-      <c r="Q795" s="25"/>
       <c r="R795" s="25"/>
       <c r="S795" s="25"/>
       <c r="T795" s="25"/>
@@ -24897,7 +24166,6 @@
       <c r="K796" s="31"/>
       <c r="N796" s="21"/>
       <c r="P796" s="25"/>
-      <c r="Q796" s="25"/>
       <c r="R796" s="25"/>
       <c r="S796" s="25"/>
       <c r="T796" s="25"/>
@@ -24923,7 +24191,6 @@
       <c r="K797" s="31"/>
       <c r="N797" s="21"/>
       <c r="P797" s="25"/>
-      <c r="Q797" s="25"/>
       <c r="R797" s="25"/>
       <c r="S797" s="25"/>
       <c r="T797" s="25"/>
@@ -24949,7 +24216,6 @@
       <c r="K798" s="31"/>
       <c r="N798" s="21"/>
       <c r="P798" s="25"/>
-      <c r="Q798" s="25"/>
       <c r="R798" s="25"/>
       <c r="S798" s="25"/>
       <c r="T798" s="25"/>
@@ -24975,7 +24241,6 @@
       <c r="K799" s="31"/>
       <c r="N799" s="21"/>
       <c r="P799" s="25"/>
-      <c r="Q799" s="25"/>
       <c r="R799" s="25"/>
       <c r="S799" s="25"/>
       <c r="T799" s="25"/>
@@ -25001,7 +24266,6 @@
       <c r="K800" s="31"/>
       <c r="N800" s="21"/>
       <c r="P800" s="25"/>
-      <c r="Q800" s="25"/>
       <c r="R800" s="25"/>
       <c r="S800" s="25"/>
       <c r="T800" s="25"/>
@@ -25027,7 +24291,6 @@
       <c r="K801" s="31"/>
       <c r="N801" s="21"/>
       <c r="P801" s="25"/>
-      <c r="Q801" s="25"/>
       <c r="R801" s="25"/>
       <c r="S801" s="25"/>
       <c r="T801" s="25"/>
@@ -25053,7 +24316,6 @@
       <c r="K802" s="31"/>
       <c r="N802" s="21"/>
       <c r="P802" s="25"/>
-      <c r="Q802" s="25"/>
       <c r="R802" s="25"/>
       <c r="S802" s="25"/>
       <c r="T802" s="25"/>
@@ -25079,7 +24341,6 @@
       <c r="K803" s="31"/>
       <c r="N803" s="21"/>
       <c r="P803" s="25"/>
-      <c r="Q803" s="25"/>
       <c r="R803" s="25"/>
       <c r="S803" s="25"/>
       <c r="T803" s="25"/>
@@ -25105,7 +24366,6 @@
       <c r="K804" s="31"/>
       <c r="N804" s="21"/>
       <c r="P804" s="25"/>
-      <c r="Q804" s="25"/>
       <c r="R804" s="25"/>
       <c r="S804" s="25"/>
       <c r="T804" s="25"/>
@@ -25131,7 +24391,6 @@
       <c r="K805" s="31"/>
       <c r="N805" s="21"/>
       <c r="P805" s="25"/>
-      <c r="Q805" s="25"/>
       <c r="R805" s="25"/>
       <c r="S805" s="25"/>
       <c r="T805" s="25"/>
@@ -25157,7 +24416,6 @@
       <c r="K806" s="31"/>
       <c r="N806" s="21"/>
       <c r="P806" s="25"/>
-      <c r="Q806" s="25"/>
       <c r="R806" s="25"/>
       <c r="S806" s="25"/>
       <c r="T806" s="25"/>
@@ -25183,7 +24441,6 @@
       <c r="K807" s="31"/>
       <c r="N807" s="21"/>
       <c r="P807" s="25"/>
-      <c r="Q807" s="25"/>
       <c r="R807" s="25"/>
       <c r="S807" s="25"/>
       <c r="T807" s="25"/>
@@ -25209,7 +24466,6 @@
       <c r="K808" s="31"/>
       <c r="N808" s="21"/>
       <c r="P808" s="25"/>
-      <c r="Q808" s="25"/>
       <c r="R808" s="25"/>
       <c r="S808" s="25"/>
       <c r="T808" s="25"/>
@@ -25235,7 +24491,6 @@
       <c r="K809" s="31"/>
       <c r="N809" s="21"/>
       <c r="P809" s="25"/>
-      <c r="Q809" s="25"/>
       <c r="R809" s="25"/>
       <c r="S809" s="25"/>
       <c r="T809" s="25"/>
@@ -25261,7 +24516,6 @@
       <c r="K810" s="31"/>
       <c r="N810" s="21"/>
       <c r="P810" s="25"/>
-      <c r="Q810" s="25"/>
       <c r="R810" s="25"/>
       <c r="S810" s="25"/>
       <c r="T810" s="25"/>
@@ -25287,7 +24541,6 @@
       <c r="K811" s="31"/>
       <c r="N811" s="21"/>
       <c r="P811" s="25"/>
-      <c r="Q811" s="25"/>
       <c r="R811" s="25"/>
       <c r="S811" s="25"/>
       <c r="T811" s="25"/>
@@ -25313,7 +24566,6 @@
       <c r="K812" s="31"/>
       <c r="N812" s="21"/>
       <c r="P812" s="25"/>
-      <c r="Q812" s="25"/>
       <c r="R812" s="25"/>
       <c r="S812" s="25"/>
       <c r="T812" s="25"/>
@@ -25339,7 +24591,6 @@
       <c r="K813" s="31"/>
       <c r="N813" s="21"/>
       <c r="P813" s="25"/>
-      <c r="Q813" s="25"/>
       <c r="R813" s="25"/>
       <c r="S813" s="25"/>
       <c r="T813" s="25"/>
@@ -25365,7 +24616,6 @@
       <c r="K814" s="31"/>
       <c r="N814" s="21"/>
       <c r="P814" s="25"/>
-      <c r="Q814" s="25"/>
       <c r="R814" s="25"/>
       <c r="S814" s="25"/>
       <c r="T814" s="25"/>
@@ -25391,7 +24641,6 @@
       <c r="K815" s="31"/>
       <c r="N815" s="21"/>
       <c r="P815" s="25"/>
-      <c r="Q815" s="25"/>
       <c r="R815" s="25"/>
       <c r="S815" s="25"/>
       <c r="T815" s="25"/>
@@ -25417,7 +24666,6 @@
       <c r="K816" s="31"/>
       <c r="N816" s="21"/>
       <c r="P816" s="25"/>
-      <c r="Q816" s="25"/>
       <c r="R816" s="25"/>
       <c r="S816" s="25"/>
       <c r="T816" s="25"/>
@@ -25443,7 +24691,6 @@
       <c r="K817" s="31"/>
       <c r="N817" s="21"/>
       <c r="P817" s="25"/>
-      <c r="Q817" s="25"/>
       <c r="R817" s="25"/>
       <c r="S817" s="25"/>
       <c r="T817" s="25"/>
@@ -25469,7 +24716,6 @@
       <c r="K818" s="31"/>
       <c r="N818" s="21"/>
       <c r="P818" s="25"/>
-      <c r="Q818" s="25"/>
       <c r="R818" s="25"/>
       <c r="S818" s="25"/>
       <c r="T818" s="25"/>
@@ -25495,7 +24741,6 @@
       <c r="K819" s="31"/>
       <c r="N819" s="21"/>
       <c r="P819" s="25"/>
-      <c r="Q819" s="25"/>
       <c r="R819" s="25"/>
       <c r="S819" s="25"/>
       <c r="T819" s="25"/>
@@ -25521,7 +24766,6 @@
       <c r="K820" s="31"/>
       <c r="N820" s="21"/>
       <c r="P820" s="25"/>
-      <c r="Q820" s="25"/>
       <c r="R820" s="25"/>
       <c r="S820" s="25"/>
       <c r="T820" s="25"/>
@@ -25547,7 +24791,6 @@
       <c r="K821" s="31"/>
       <c r="N821" s="21"/>
       <c r="P821" s="25"/>
-      <c r="Q821" s="25"/>
       <c r="R821" s="25"/>
       <c r="S821" s="25"/>
       <c r="T821" s="25"/>
@@ -25573,7 +24816,6 @@
       <c r="K822" s="31"/>
       <c r="N822" s="21"/>
       <c r="P822" s="25"/>
-      <c r="Q822" s="25"/>
       <c r="R822" s="25"/>
       <c r="S822" s="25"/>
       <c r="T822" s="25"/>
@@ -25599,7 +24841,6 @@
       <c r="K823" s="31"/>
       <c r="N823" s="21"/>
       <c r="P823" s="25"/>
-      <c r="Q823" s="25"/>
       <c r="R823" s="25"/>
       <c r="S823" s="25"/>
       <c r="T823" s="25"/>
@@ -25625,7 +24866,6 @@
       <c r="K824" s="31"/>
       <c r="N824" s="21"/>
       <c r="P824" s="25"/>
-      <c r="Q824" s="25"/>
       <c r="R824" s="25"/>
       <c r="S824" s="25"/>
       <c r="T824" s="25"/>
@@ -25651,7 +24891,6 @@
       <c r="K825" s="31"/>
       <c r="N825" s="21"/>
       <c r="P825" s="25"/>
-      <c r="Q825" s="25"/>
       <c r="R825" s="25"/>
       <c r="S825" s="25"/>
       <c r="T825" s="25"/>
@@ -25677,7 +24916,6 @@
       <c r="K826" s="31"/>
       <c r="N826" s="21"/>
       <c r="P826" s="25"/>
-      <c r="Q826" s="25"/>
       <c r="R826" s="25"/>
       <c r="S826" s="25"/>
       <c r="T826" s="25"/>
@@ -25703,7 +24941,6 @@
       <c r="K827" s="31"/>
       <c r="N827" s="21"/>
       <c r="P827" s="25"/>
-      <c r="Q827" s="25"/>
       <c r="R827" s="25"/>
       <c r="S827" s="25"/>
       <c r="T827" s="25"/>
@@ -25729,7 +24966,6 @@
       <c r="K828" s="31"/>
       <c r="N828" s="21"/>
       <c r="P828" s="25"/>
-      <c r="Q828" s="25"/>
       <c r="R828" s="25"/>
       <c r="S828" s="25"/>
       <c r="T828" s="25"/>
@@ -25755,7 +24991,6 @@
       <c r="K829" s="31"/>
       <c r="N829" s="21"/>
       <c r="P829" s="25"/>
-      <c r="Q829" s="25"/>
       <c r="R829" s="25"/>
       <c r="S829" s="25"/>
       <c r="T829" s="25"/>
@@ -25781,7 +25016,6 @@
       <c r="K830" s="31"/>
       <c r="N830" s="21"/>
       <c r="P830" s="25"/>
-      <c r="Q830" s="25"/>
       <c r="R830" s="25"/>
       <c r="S830" s="25"/>
       <c r="T830" s="25"/>
@@ -25807,7 +25041,6 @@
       <c r="K831" s="31"/>
       <c r="N831" s="21"/>
       <c r="P831" s="25"/>
-      <c r="Q831" s="25"/>
       <c r="R831" s="25"/>
       <c r="S831" s="25"/>
       <c r="T831" s="25"/>
@@ -25833,7 +25066,6 @@
       <c r="K832" s="31"/>
       <c r="N832" s="21"/>
       <c r="P832" s="25"/>
-      <c r="Q832" s="25"/>
       <c r="R832" s="25"/>
       <c r="S832" s="25"/>
       <c r="T832" s="25"/>
@@ -25859,7 +25091,6 @@
       <c r="K833" s="31"/>
       <c r="N833" s="21"/>
       <c r="P833" s="25"/>
-      <c r="Q833" s="25"/>
       <c r="R833" s="25"/>
       <c r="S833" s="25"/>
       <c r="T833" s="25"/>
@@ -25885,7 +25116,6 @@
       <c r="K834" s="31"/>
       <c r="N834" s="21"/>
       <c r="P834" s="25"/>
-      <c r="Q834" s="25"/>
       <c r="R834" s="25"/>
       <c r="S834" s="25"/>
       <c r="T834" s="25"/>
@@ -25911,7 +25141,6 @@
       <c r="K835" s="31"/>
       <c r="N835" s="21"/>
       <c r="P835" s="25"/>
-      <c r="Q835" s="25"/>
       <c r="R835" s="25"/>
       <c r="S835" s="25"/>
       <c r="T835" s="25"/>
@@ -25937,7 +25166,6 @@
       <c r="K836" s="31"/>
       <c r="N836" s="21"/>
       <c r="P836" s="25"/>
-      <c r="Q836" s="25"/>
       <c r="R836" s="25"/>
       <c r="S836" s="25"/>
       <c r="T836" s="25"/>
@@ -25963,7 +25191,6 @@
       <c r="K837" s="31"/>
       <c r="N837" s="21"/>
       <c r="P837" s="25"/>
-      <c r="Q837" s="25"/>
       <c r="R837" s="25"/>
       <c r="S837" s="25"/>
       <c r="T837" s="25"/>
@@ -25989,7 +25216,6 @@
       <c r="K838" s="31"/>
       <c r="N838" s="21"/>
       <c r="P838" s="25"/>
-      <c r="Q838" s="25"/>
       <c r="R838" s="25"/>
       <c r="S838" s="25"/>
       <c r="T838" s="25"/>
@@ -26015,7 +25241,6 @@
       <c r="K839" s="31"/>
       <c r="N839" s="21"/>
       <c r="P839" s="25"/>
-      <c r="Q839" s="25"/>
       <c r="R839" s="25"/>
       <c r="S839" s="25"/>
       <c r="T839" s="25"/>
@@ -26041,7 +25266,6 @@
       <c r="K840" s="31"/>
       <c r="N840" s="21"/>
       <c r="P840" s="25"/>
-      <c r="Q840" s="25"/>
       <c r="R840" s="25"/>
       <c r="S840" s="25"/>
       <c r="T840" s="25"/>
@@ -26067,7 +25291,6 @@
       <c r="K841" s="31"/>
       <c r="N841" s="21"/>
       <c r="P841" s="25"/>
-      <c r="Q841" s="25"/>
       <c r="R841" s="25"/>
       <c r="S841" s="25"/>
       <c r="T841" s="25"/>
@@ -26093,7 +25316,6 @@
       <c r="K842" s="31"/>
       <c r="N842" s="21"/>
       <c r="P842" s="25"/>
-      <c r="Q842" s="25"/>
       <c r="R842" s="25"/>
       <c r="S842" s="25"/>
       <c r="T842" s="25"/>
@@ -26119,7 +25341,6 @@
       <c r="K843" s="31"/>
       <c r="N843" s="21"/>
       <c r="P843" s="25"/>
-      <c r="Q843" s="25"/>
       <c r="R843" s="25"/>
       <c r="S843" s="25"/>
       <c r="T843" s="25"/>
@@ -26145,7 +25366,6 @@
       <c r="K844" s="31"/>
       <c r="N844" s="21"/>
       <c r="P844" s="25"/>
-      <c r="Q844" s="25"/>
       <c r="R844" s="25"/>
       <c r="S844" s="25"/>
       <c r="T844" s="25"/>
@@ -26171,7 +25391,6 @@
       <c r="K845" s="31"/>
       <c r="N845" s="21"/>
       <c r="P845" s="25"/>
-      <c r="Q845" s="25"/>
       <c r="R845" s="25"/>
       <c r="S845" s="25"/>
       <c r="T845" s="25"/>
@@ -26197,7 +25416,6 @@
       <c r="K846" s="31"/>
       <c r="N846" s="21"/>
       <c r="P846" s="25"/>
-      <c r="Q846" s="25"/>
       <c r="R846" s="25"/>
       <c r="S846" s="25"/>
       <c r="T846" s="25"/>
@@ -26223,7 +25441,6 @@
       <c r="K847" s="31"/>
       <c r="N847" s="21"/>
       <c r="P847" s="25"/>
-      <c r="Q847" s="25"/>
       <c r="R847" s="25"/>
       <c r="S847" s="25"/>
       <c r="T847" s="25"/>
@@ -26249,7 +25466,6 @@
       <c r="K848" s="31"/>
       <c r="N848" s="21"/>
       <c r="P848" s="25"/>
-      <c r="Q848" s="25"/>
       <c r="R848" s="25"/>
       <c r="S848" s="25"/>
       <c r="T848" s="25"/>
@@ -26275,7 +25491,6 @@
       <c r="K849" s="31"/>
       <c r="N849" s="21"/>
       <c r="P849" s="25"/>
-      <c r="Q849" s="25"/>
       <c r="R849" s="25"/>
       <c r="S849" s="25"/>
       <c r="T849" s="25"/>
@@ -26301,7 +25516,6 @@
       <c r="K850" s="31"/>
       <c r="N850" s="21"/>
       <c r="P850" s="25"/>
-      <c r="Q850" s="25"/>
       <c r="R850" s="25"/>
       <c r="S850" s="25"/>
       <c r="T850" s="25"/>
@@ -26327,7 +25541,6 @@
       <c r="K851" s="31"/>
       <c r="N851" s="21"/>
       <c r="P851" s="25"/>
-      <c r="Q851" s="25"/>
       <c r="R851" s="25"/>
       <c r="S851" s="25"/>
       <c r="T851" s="25"/>
@@ -26353,7 +25566,6 @@
       <c r="K852" s="31"/>
       <c r="N852" s="21"/>
       <c r="P852" s="25"/>
-      <c r="Q852" s="25"/>
       <c r="R852" s="25"/>
       <c r="S852" s="25"/>
       <c r="T852" s="25"/>
@@ -26379,7 +25591,6 @@
       <c r="K853" s="31"/>
       <c r="N853" s="21"/>
       <c r="P853" s="25"/>
-      <c r="Q853" s="25"/>
       <c r="R853" s="25"/>
       <c r="S853" s="25"/>
       <c r="T853" s="25"/>
@@ -26405,7 +25616,6 @@
       <c r="K854" s="31"/>
       <c r="N854" s="21"/>
       <c r="P854" s="25"/>
-      <c r="Q854" s="25"/>
       <c r="R854" s="25"/>
       <c r="S854" s="25"/>
       <c r="T854" s="25"/>
@@ -26431,7 +25641,6 @@
       <c r="K855" s="31"/>
       <c r="N855" s="21"/>
       <c r="P855" s="25"/>
-      <c r="Q855" s="25"/>
       <c r="R855" s="25"/>
       <c r="S855" s="25"/>
       <c r="T855" s="25"/>
@@ -26457,7 +25666,6 @@
       <c r="K856" s="31"/>
       <c r="N856" s="21"/>
       <c r="P856" s="25"/>
-      <c r="Q856" s="25"/>
       <c r="R856" s="25"/>
       <c r="S856" s="25"/>
       <c r="T856" s="25"/>
@@ -26483,7 +25691,6 @@
       <c r="K857" s="31"/>
       <c r="N857" s="21"/>
       <c r="P857" s="25"/>
-      <c r="Q857" s="25"/>
       <c r="R857" s="25"/>
       <c r="S857" s="25"/>
       <c r="T857" s="25"/>
@@ -26509,7 +25716,6 @@
       <c r="K858" s="31"/>
       <c r="N858" s="21"/>
       <c r="P858" s="25"/>
-      <c r="Q858" s="25"/>
       <c r="R858" s="25"/>
       <c r="S858" s="25"/>
       <c r="T858" s="25"/>
@@ -26535,7 +25741,6 @@
       <c r="K859" s="31"/>
       <c r="N859" s="21"/>
       <c r="P859" s="25"/>
-      <c r="Q859" s="25"/>
       <c r="R859" s="25"/>
       <c r="S859" s="25"/>
       <c r="T859" s="25"/>
@@ -26561,7 +25766,6 @@
       <c r="K860" s="31"/>
       <c r="N860" s="21"/>
       <c r="P860" s="25"/>
-      <c r="Q860" s="25"/>
       <c r="R860" s="25"/>
       <c r="S860" s="25"/>
       <c r="T860" s="25"/>
@@ -26587,7 +25791,6 @@
       <c r="K861" s="31"/>
       <c r="N861" s="21"/>
       <c r="P861" s="25"/>
-      <c r="Q861" s="25"/>
       <c r="R861" s="25"/>
       <c r="S861" s="25"/>
       <c r="T861" s="25"/>
@@ -26613,7 +25816,6 @@
       <c r="K862" s="31"/>
       <c r="N862" s="21"/>
       <c r="P862" s="25"/>
-      <c r="Q862" s="25"/>
       <c r="R862" s="25"/>
       <c r="S862" s="25"/>
       <c r="T862" s="25"/>
@@ -26639,7 +25841,6 @@
       <c r="K863" s="31"/>
       <c r="N863" s="21"/>
       <c r="P863" s="25"/>
-      <c r="Q863" s="25"/>
       <c r="R863" s="25"/>
       <c r="S863" s="25"/>
       <c r="T863" s="25"/>
@@ -26665,7 +25866,6 @@
       <c r="K864" s="31"/>
       <c r="N864" s="21"/>
       <c r="P864" s="25"/>
-      <c r="Q864" s="25"/>
       <c r="R864" s="25"/>
       <c r="S864" s="25"/>
       <c r="T864" s="25"/>
@@ -26691,7 +25891,6 @@
       <c r="K865" s="31"/>
       <c r="N865" s="21"/>
       <c r="P865" s="25"/>
-      <c r="Q865" s="25"/>
       <c r="R865" s="25"/>
       <c r="S865" s="25"/>
       <c r="T865" s="25"/>
@@ -26717,7 +25916,6 @@
       <c r="K866" s="31"/>
       <c r="N866" s="21"/>
       <c r="P866" s="25"/>
-      <c r="Q866" s="25"/>
       <c r="R866" s="25"/>
       <c r="S866" s="25"/>
       <c r="T866" s="25"/>
@@ -26743,7 +25941,6 @@
       <c r="K867" s="31"/>
       <c r="N867" s="21"/>
       <c r="P867" s="25"/>
-      <c r="Q867" s="25"/>
       <c r="R867" s="25"/>
       <c r="S867" s="25"/>
       <c r="T867" s="25"/>
@@ -26769,7 +25966,6 @@
       <c r="K868" s="31"/>
       <c r="N868" s="21"/>
       <c r="P868" s="25"/>
-      <c r="Q868" s="25"/>
       <c r="R868" s="25"/>
       <c r="S868" s="25"/>
       <c r="T868" s="25"/>
@@ -26795,7 +25991,6 @@
       <c r="K869" s="31"/>
       <c r="N869" s="21"/>
       <c r="P869" s="25"/>
-      <c r="Q869" s="25"/>
       <c r="R869" s="25"/>
       <c r="S869" s="25"/>
       <c r="T869" s="25"/>
@@ -26821,7 +26016,6 @@
       <c r="K870" s="31"/>
       <c r="N870" s="21"/>
       <c r="P870" s="25"/>
-      <c r="Q870" s="25"/>
       <c r="R870" s="25"/>
       <c r="S870" s="25"/>
       <c r="T870" s="25"/>
@@ -26847,7 +26041,6 @@
       <c r="K871" s="31"/>
       <c r="N871" s="21"/>
       <c r="P871" s="25"/>
-      <c r="Q871" s="25"/>
       <c r="R871" s="25"/>
       <c r="S871" s="25"/>
       <c r="T871" s="25"/>
@@ -26873,7 +26066,6 @@
       <c r="K872" s="31"/>
       <c r="N872" s="21"/>
       <c r="P872" s="25"/>
-      <c r="Q872" s="25"/>
       <c r="R872" s="25"/>
       <c r="S872" s="25"/>
       <c r="T872" s="25"/>
@@ -26899,7 +26091,6 @@
       <c r="K873" s="31"/>
       <c r="N873" s="21"/>
       <c r="P873" s="25"/>
-      <c r="Q873" s="25"/>
       <c r="R873" s="25"/>
       <c r="S873" s="25"/>
       <c r="T873" s="25"/>
@@ -26925,7 +26116,6 @@
       <c r="K874" s="31"/>
       <c r="N874" s="21"/>
       <c r="P874" s="25"/>
-      <c r="Q874" s="25"/>
       <c r="R874" s="25"/>
       <c r="S874" s="25"/>
       <c r="T874" s="25"/>
@@ -26951,7 +26141,6 @@
       <c r="K875" s="31"/>
       <c r="N875" s="21"/>
       <c r="P875" s="25"/>
-      <c r="Q875" s="25"/>
       <c r="R875" s="25"/>
       <c r="S875" s="25"/>
       <c r="T875" s="25"/>
@@ -26977,7 +26166,6 @@
       <c r="K876" s="31"/>
       <c r="N876" s="21"/>
       <c r="P876" s="25"/>
-      <c r="Q876" s="25"/>
       <c r="R876" s="25"/>
       <c r="S876" s="25"/>
       <c r="T876" s="25"/>
@@ -27003,7 +26191,6 @@
       <c r="K877" s="31"/>
       <c r="N877" s="21"/>
       <c r="P877" s="25"/>
-      <c r="Q877" s="25"/>
       <c r="R877" s="25"/>
       <c r="S877" s="25"/>
       <c r="T877" s="25"/>
@@ -27029,7 +26216,6 @@
       <c r="K878" s="31"/>
       <c r="N878" s="21"/>
       <c r="P878" s="25"/>
-      <c r="Q878" s="25"/>
       <c r="R878" s="25"/>
       <c r="S878" s="25"/>
       <c r="T878" s="25"/>
@@ -27055,7 +26241,6 @@
       <c r="K879" s="31"/>
       <c r="N879" s="21"/>
       <c r="P879" s="25"/>
-      <c r="Q879" s="25"/>
       <c r="R879" s="25"/>
       <c r="S879" s="25"/>
       <c r="T879" s="25"/>
@@ -27081,7 +26266,6 @@
       <c r="K880" s="31"/>
       <c r="N880" s="21"/>
       <c r="P880" s="25"/>
-      <c r="Q880" s="25"/>
       <c r="R880" s="25"/>
       <c r="S880" s="25"/>
       <c r="T880" s="25"/>
@@ -27107,7 +26291,6 @@
       <c r="K881" s="31"/>
       <c r="N881" s="21"/>
       <c r="P881" s="25"/>
-      <c r="Q881" s="25"/>
       <c r="R881" s="25"/>
       <c r="S881" s="25"/>
       <c r="T881" s="25"/>
@@ -27133,7 +26316,6 @@
       <c r="K882" s="31"/>
       <c r="N882" s="21"/>
       <c r="P882" s="25"/>
-      <c r="Q882" s="25"/>
       <c r="R882" s="25"/>
       <c r="S882" s="25"/>
       <c r="T882" s="25"/>
@@ -27159,7 +26341,6 @@
       <c r="K883" s="31"/>
       <c r="N883" s="21"/>
       <c r="P883" s="25"/>
-      <c r="Q883" s="25"/>
       <c r="R883" s="25"/>
       <c r="S883" s="25"/>
       <c r="T883" s="25"/>
@@ -27185,7 +26366,6 @@
       <c r="K884" s="31"/>
       <c r="N884" s="21"/>
       <c r="P884" s="25"/>
-      <c r="Q884" s="25"/>
       <c r="R884" s="25"/>
       <c r="S884" s="25"/>
       <c r="T884" s="25"/>
@@ -27211,7 +26391,6 @@
       <c r="K885" s="31"/>
       <c r="N885" s="21"/>
       <c r="P885" s="25"/>
-      <c r="Q885" s="25"/>
       <c r="R885" s="25"/>
       <c r="S885" s="25"/>
       <c r="T885" s="25"/>
@@ -27237,7 +26416,6 @@
       <c r="K886" s="31"/>
       <c r="N886" s="21"/>
       <c r="P886" s="25"/>
-      <c r="Q886" s="25"/>
       <c r="R886" s="25"/>
       <c r="S886" s="25"/>
       <c r="T886" s="25"/>
@@ -27263,7 +26441,6 @@
       <c r="K887" s="31"/>
       <c r="N887" s="21"/>
       <c r="P887" s="25"/>
-      <c r="Q887" s="25"/>
       <c r="R887" s="25"/>
       <c r="S887" s="25"/>
       <c r="T887" s="25"/>
@@ -27289,7 +26466,6 @@
       <c r="K888" s="31"/>
       <c r="N888" s="21"/>
       <c r="P888" s="25"/>
-      <c r="Q888" s="25"/>
       <c r="R888" s="25"/>
       <c r="S888" s="25"/>
       <c r="T888" s="25"/>
@@ -27315,7 +26491,6 @@
       <c r="K889" s="31"/>
       <c r="N889" s="21"/>
       <c r="P889" s="25"/>
-      <c r="Q889" s="25"/>
       <c r="R889" s="25"/>
       <c r="S889" s="25"/>
       <c r="T889" s="25"/>
@@ -27341,7 +26516,6 @@
       <c r="K890" s="31"/>
       <c r="N890" s="21"/>
       <c r="P890" s="25"/>
-      <c r="Q890" s="25"/>
       <c r="R890" s="25"/>
       <c r="S890" s="25"/>
       <c r="T890" s="25"/>
@@ -27367,7 +26541,6 @@
       <c r="K891" s="31"/>
       <c r="N891" s="21"/>
       <c r="P891" s="25"/>
-      <c r="Q891" s="25"/>
       <c r="R891" s="25"/>
       <c r="S891" s="25"/>
       <c r="T891" s="25"/>
@@ -27393,7 +26566,6 @@
       <c r="K892" s="31"/>
       <c r="N892" s="21"/>
       <c r="P892" s="25"/>
-      <c r="Q892" s="25"/>
       <c r="R892" s="25"/>
       <c r="S892" s="25"/>
       <c r="T892" s="25"/>
@@ -27419,7 +26591,6 @@
       <c r="K893" s="31"/>
       <c r="N893" s="21"/>
       <c r="P893" s="25"/>
-      <c r="Q893" s="25"/>
       <c r="R893" s="25"/>
       <c r="S893" s="25"/>
       <c r="T893" s="25"/>
@@ -27445,7 +26616,6 @@
       <c r="K894" s="31"/>
       <c r="N894" s="21"/>
       <c r="P894" s="25"/>
-      <c r="Q894" s="25"/>
       <c r="R894" s="25"/>
       <c r="S894" s="25"/>
       <c r="T894" s="25"/>
@@ -27471,7 +26641,6 @@
       <c r="K895" s="31"/>
       <c r="N895" s="21"/>
       <c r="P895" s="25"/>
-      <c r="Q895" s="25"/>
       <c r="R895" s="25"/>
       <c r="S895" s="25"/>
       <c r="T895" s="25"/>
@@ -27497,7 +26666,6 @@
       <c r="K896" s="31"/>
       <c r="N896" s="21"/>
       <c r="P896" s="25"/>
-      <c r="Q896" s="25"/>
       <c r="R896" s="25"/>
       <c r="S896" s="25"/>
       <c r="T896" s="25"/>
@@ -27523,7 +26691,6 @@
       <c r="K897" s="31"/>
       <c r="N897" s="21"/>
       <c r="P897" s="25"/>
-      <c r="Q897" s="25"/>
       <c r="R897" s="25"/>
       <c r="S897" s="25"/>
       <c r="T897" s="25"/>
@@ -27549,7 +26716,6 @@
       <c r="K898" s="31"/>
       <c r="N898" s="21"/>
       <c r="P898" s="25"/>
-      <c r="Q898" s="25"/>
       <c r="R898" s="25"/>
       <c r="S898" s="25"/>
       <c r="T898" s="25"/>
@@ -27575,7 +26741,6 @@
       <c r="K899" s="31"/>
       <c r="N899" s="21"/>
       <c r="P899" s="25"/>
-      <c r="Q899" s="25"/>
       <c r="R899" s="25"/>
       <c r="S899" s="25"/>
       <c r="T899" s="25"/>
@@ -27601,7 +26766,6 @@
       <c r="K900" s="31"/>
       <c r="N900" s="21"/>
       <c r="P900" s="25"/>
-      <c r="Q900" s="25"/>
       <c r="R900" s="25"/>
       <c r="S900" s="25"/>
       <c r="T900" s="25"/>
@@ -27627,7 +26791,6 @@
       <c r="K901" s="31"/>
       <c r="N901" s="21"/>
       <c r="P901" s="25"/>
-      <c r="Q901" s="25"/>
       <c r="R901" s="25"/>
       <c r="S901" s="25"/>
       <c r="T901" s="25"/>
@@ -27653,7 +26816,6 @@
       <c r="K902" s="31"/>
       <c r="N902" s="21"/>
       <c r="P902" s="25"/>
-      <c r="Q902" s="25"/>
       <c r="R902" s="25"/>
       <c r="S902" s="25"/>
       <c r="T902" s="25"/>
@@ -27679,7 +26841,6 @@
       <c r="K903" s="31"/>
       <c r="N903" s="21"/>
       <c r="P903" s="25"/>
-      <c r="Q903" s="25"/>
       <c r="R903" s="25"/>
       <c r="S903" s="25"/>
       <c r="T903" s="25"/>
@@ -27705,7 +26866,6 @@
       <c r="K904" s="31"/>
       <c r="N904" s="21"/>
       <c r="P904" s="25"/>
-      <c r="Q904" s="25"/>
       <c r="R904" s="25"/>
       <c r="S904" s="25"/>
       <c r="T904" s="25"/>
@@ -27731,7 +26891,6 @@
       <c r="K905" s="31"/>
       <c r="N905" s="21"/>
       <c r="P905" s="25"/>
-      <c r="Q905" s="25"/>
       <c r="R905" s="25"/>
       <c r="S905" s="25"/>
       <c r="T905" s="25"/>
@@ -27757,7 +26916,6 @@
       <c r="K906" s="31"/>
       <c r="N906" s="21"/>
       <c r="P906" s="25"/>
-      <c r="Q906" s="25"/>
       <c r="R906" s="25"/>
       <c r="S906" s="25"/>
       <c r="T906" s="25"/>
@@ -27783,7 +26941,6 @@
       <c r="K907" s="31"/>
       <c r="N907" s="21"/>
       <c r="P907" s="25"/>
-      <c r="Q907" s="25"/>
       <c r="R907" s="25"/>
       <c r="S907" s="25"/>
       <c r="T907" s="25"/>
@@ -27809,7 +26966,6 @@
       <c r="K908" s="31"/>
       <c r="N908" s="21"/>
       <c r="P908" s="25"/>
-      <c r="Q908" s="25"/>
       <c r="R908" s="25"/>
       <c r="S908" s="25"/>
       <c r="T908" s="25"/>
@@ -27835,7 +26991,6 @@
       <c r="K909" s="31"/>
       <c r="N909" s="21"/>
       <c r="P909" s="25"/>
-      <c r="Q909" s="25"/>
       <c r="R909" s="25"/>
       <c r="S909" s="25"/>
       <c r="T909" s="25"/>
@@ -27861,7 +27016,6 @@
       <c r="K910" s="31"/>
       <c r="N910" s="21"/>
       <c r="P910" s="25"/>
-      <c r="Q910" s="25"/>
       <c r="R910" s="25"/>
       <c r="S910" s="25"/>
       <c r="T910" s="25"/>
@@ -27887,7 +27041,6 @@
       <c r="K911" s="31"/>
       <c r="N911" s="21"/>
       <c r="P911" s="25"/>
-      <c r="Q911" s="25"/>
       <c r="R911" s="25"/>
       <c r="S911" s="25"/>
       <c r="T911" s="25"/>
@@ -27913,7 +27066,6 @@
       <c r="K912" s="31"/>
       <c r="N912" s="21"/>
       <c r="P912" s="25"/>
-      <c r="Q912" s="25"/>
       <c r="R912" s="25"/>
       <c r="S912" s="25"/>
       <c r="T912" s="25"/>
@@ -27939,7 +27091,6 @@
       <c r="K913" s="31"/>
       <c r="N913" s="21"/>
       <c r="P913" s="25"/>
-      <c r="Q913" s="25"/>
       <c r="R913" s="25"/>
       <c r="S913" s="25"/>
       <c r="T913" s="25"/>
@@ -27965,7 +27116,6 @@
       <c r="K914" s="31"/>
       <c r="N914" s="21"/>
       <c r="P914" s="25"/>
-      <c r="Q914" s="25"/>
       <c r="R914" s="25"/>
       <c r="S914" s="25"/>
       <c r="T914" s="25"/>
@@ -27991,7 +27141,6 @@
       <c r="K915" s="31"/>
       <c r="N915" s="21"/>
       <c r="P915" s="25"/>
-      <c r="Q915" s="25"/>
       <c r="R915" s="25"/>
       <c r="S915" s="25"/>
       <c r="T915" s="25"/>
@@ -28017,7 +27166,6 @@
       <c r="K916" s="31"/>
       <c r="N916" s="21"/>
       <c r="P916" s="25"/>
-      <c r="Q916" s="25"/>
       <c r="R916" s="25"/>
       <c r="S916" s="25"/>
       <c r="T916" s="25"/>
@@ -28043,7 +27191,6 @@
       <c r="K917" s="31"/>
       <c r="N917" s="21"/>
       <c r="P917" s="25"/>
-      <c r="Q917" s="25"/>
       <c r="R917" s="25"/>
       <c r="S917" s="25"/>
       <c r="T917" s="25"/>
@@ -28069,7 +27216,6 @@
       <c r="K918" s="31"/>
       <c r="N918" s="21"/>
       <c r="P918" s="25"/>
-      <c r="Q918" s="25"/>
       <c r="R918" s="25"/>
       <c r="S918" s="25"/>
       <c r="T918" s="25"/>
@@ -28095,7 +27241,6 @@
       <c r="K919" s="31"/>
       <c r="N919" s="21"/>
       <c r="P919" s="25"/>
-      <c r="Q919" s="25"/>
       <c r="R919" s="25"/>
       <c r="S919" s="25"/>
       <c r="T919" s="25"/>
@@ -28121,7 +27266,6 @@
       <c r="K920" s="31"/>
       <c r="N920" s="21"/>
       <c r="P920" s="25"/>
-      <c r="Q920" s="25"/>
       <c r="R920" s="25"/>
       <c r="S920" s="25"/>
       <c r="T920" s="25"/>
@@ -28147,7 +27291,6 @@
       <c r="K921" s="31"/>
       <c r="N921" s="21"/>
       <c r="P921" s="25"/>
-      <c r="Q921" s="25"/>
       <c r="R921" s="25"/>
       <c r="S921" s="25"/>
       <c r="T921" s="25"/>
@@ -28173,7 +27316,6 @@
       <c r="K922" s="31"/>
       <c r="N922" s="21"/>
       <c r="P922" s="25"/>
-      <c r="Q922" s="25"/>
       <c r="R922" s="25"/>
       <c r="S922" s="25"/>
       <c r="T922" s="25"/>
@@ -28199,7 +27341,6 @@
       <c r="K923" s="31"/>
       <c r="N923" s="21"/>
       <c r="P923" s="25"/>
-      <c r="Q923" s="25"/>
       <c r="R923" s="25"/>
       <c r="S923" s="25"/>
       <c r="T923" s="25"/>
@@ -28225,7 +27366,6 @@
       <c r="K924" s="31"/>
       <c r="N924" s="21"/>
       <c r="P924" s="25"/>
-      <c r="Q924" s="25"/>
       <c r="R924" s="25"/>
       <c r="S924" s="25"/>
       <c r="T924" s="25"/>
@@ -28251,7 +27391,6 @@
       <c r="K925" s="31"/>
       <c r="N925" s="21"/>
       <c r="P925" s="25"/>
-      <c r="Q925" s="25"/>
       <c r="R925" s="25"/>
       <c r="S925" s="25"/>
       <c r="T925" s="25"/>
@@ -28277,7 +27416,6 @@
       <c r="K926" s="31"/>
       <c r="N926" s="21"/>
       <c r="P926" s="25"/>
-      <c r="Q926" s="25"/>
       <c r="R926" s="25"/>
       <c r="S926" s="25"/>
       <c r="T926" s="25"/>
@@ -28303,7 +27441,6 @@
       <c r="K927" s="31"/>
       <c r="N927" s="21"/>
       <c r="P927" s="25"/>
-      <c r="Q927" s="25"/>
       <c r="R927" s="25"/>
       <c r="S927" s="25"/>
       <c r="T927" s="25"/>
@@ -28329,7 +27466,6 @@
       <c r="K928" s="31"/>
       <c r="N928" s="21"/>
       <c r="P928" s="25"/>
-      <c r="Q928" s="25"/>
       <c r="R928" s="25"/>
       <c r="S928" s="25"/>
       <c r="T928" s="25"/>
@@ -28355,7 +27491,6 @@
       <c r="K929" s="31"/>
       <c r="N929" s="21"/>
       <c r="P929" s="25"/>
-      <c r="Q929" s="25"/>
       <c r="R929" s="25"/>
       <c r="S929" s="25"/>
       <c r="T929" s="25"/>
@@ -28381,7 +27516,6 @@
       <c r="K930" s="31"/>
       <c r="N930" s="21"/>
       <c r="P930" s="25"/>
-      <c r="Q930" s="25"/>
       <c r="R930" s="25"/>
       <c r="S930" s="25"/>
       <c r="T930" s="25"/>
@@ -28407,7 +27541,6 @@
       <c r="K931" s="31"/>
       <c r="N931" s="21"/>
       <c r="P931" s="25"/>
-      <c r="Q931" s="25"/>
       <c r="R931" s="25"/>
       <c r="S931" s="25"/>
       <c r="T931" s="25"/>
@@ -28433,7 +27566,6 @@
       <c r="K932" s="31"/>
       <c r="N932" s="21"/>
       <c r="P932" s="25"/>
-      <c r="Q932" s="25"/>
       <c r="R932" s="25"/>
       <c r="S932" s="25"/>
       <c r="T932" s="25"/>
@@ -28459,7 +27591,6 @@
       <c r="K933" s="31"/>
       <c r="N933" s="21"/>
       <c r="P933" s="25"/>
-      <c r="Q933" s="25"/>
       <c r="R933" s="25"/>
       <c r="S933" s="25"/>
       <c r="T933" s="25"/>
@@ -28485,7 +27616,6 @@
       <c r="K934" s="31"/>
       <c r="N934" s="21"/>
       <c r="P934" s="25"/>
-      <c r="Q934" s="25"/>
       <c r="R934" s="25"/>
       <c r="S934" s="25"/>
       <c r="T934" s="25"/>
@@ -28511,7 +27641,6 @@
       <c r="K935" s="31"/>
       <c r="N935" s="21"/>
       <c r="P935" s="25"/>
-      <c r="Q935" s="25"/>
       <c r="R935" s="25"/>
       <c r="S935" s="25"/>
       <c r="T935" s="25"/>
@@ -28537,7 +27666,6 @@
       <c r="K936" s="31"/>
       <c r="N936" s="21"/>
       <c r="P936" s="25"/>
-      <c r="Q936" s="25"/>
       <c r="R936" s="25"/>
       <c r="S936" s="25"/>
       <c r="T936" s="25"/>
@@ -28563,7 +27691,6 @@
       <c r="K937" s="31"/>
       <c r="N937" s="21"/>
       <c r="P937" s="25"/>
-      <c r="Q937" s="25"/>
       <c r="R937" s="25"/>
       <c r="S937" s="25"/>
       <c r="T937" s="25"/>
@@ -28589,7 +27716,6 @@
       <c r="K938" s="31"/>
       <c r="N938" s="21"/>
       <c r="P938" s="25"/>
-      <c r="Q938" s="25"/>
       <c r="R938" s="25"/>
       <c r="S938" s="25"/>
       <c r="T938" s="25"/>
@@ -28615,7 +27741,6 @@
       <c r="K939" s="31"/>
       <c r="N939" s="21"/>
       <c r="P939" s="25"/>
-      <c r="Q939" s="25"/>
       <c r="R939" s="25"/>
       <c r="S939" s="25"/>
       <c r="T939" s="25"/>
@@ -28641,7 +27766,6 @@
       <c r="K940" s="31"/>
       <c r="N940" s="21"/>
       <c r="P940" s="25"/>
-      <c r="Q940" s="25"/>
       <c r="R940" s="25"/>
       <c r="S940" s="25"/>
       <c r="T940" s="25"/>
@@ -28667,7 +27791,6 @@
       <c r="K941" s="31"/>
       <c r="N941" s="21"/>
       <c r="P941" s="25"/>
-      <c r="Q941" s="25"/>
       <c r="R941" s="25"/>
       <c r="S941" s="25"/>
       <c r="T941" s="25"/>
@@ -28693,7 +27816,6 @@
       <c r="K942" s="31"/>
       <c r="N942" s="21"/>
       <c r="P942" s="25"/>
-      <c r="Q942" s="25"/>
       <c r="R942" s="25"/>
       <c r="S942" s="25"/>
       <c r="T942" s="25"/>
@@ -28719,7 +27841,6 @@
       <c r="K943" s="31"/>
       <c r="N943" s="21"/>
       <c r="P943" s="25"/>
-      <c r="Q943" s="25"/>
       <c r="R943" s="25"/>
       <c r="S943" s="25"/>
       <c r="T943" s="25"/>
@@ -28745,7 +27866,6 @@
       <c r="K944" s="31"/>
       <c r="N944" s="21"/>
       <c r="P944" s="25"/>
-      <c r="Q944" s="25"/>
       <c r="R944" s="25"/>
       <c r="S944" s="25"/>
       <c r="T944" s="25"/>
@@ -28771,7 +27891,6 @@
       <c r="K945" s="31"/>
       <c r="N945" s="21"/>
       <c r="P945" s="25"/>
-      <c r="Q945" s="25"/>
       <c r="R945" s="25"/>
       <c r="S945" s="25"/>
       <c r="T945" s="25"/>
@@ -28797,7 +27916,6 @@
       <c r="K946" s="31"/>
       <c r="N946" s="21"/>
       <c r="P946" s="25"/>
-      <c r="Q946" s="25"/>
       <c r="R946" s="25"/>
       <c r="S946" s="25"/>
       <c r="T946" s="25"/>
@@ -28823,7 +27941,6 @@
       <c r="K947" s="31"/>
       <c r="N947" s="21"/>
       <c r="P947" s="25"/>
-      <c r="Q947" s="25"/>
       <c r="R947" s="25"/>
       <c r="S947" s="25"/>
       <c r="T947" s="25"/>
@@ -28849,7 +27966,6 @@
       <c r="K948" s="31"/>
       <c r="N948" s="21"/>
       <c r="P948" s="25"/>
-      <c r="Q948" s="25"/>
       <c r="R948" s="25"/>
       <c r="S948" s="25"/>
       <c r="T948" s="25"/>
@@ -28875,7 +27991,6 @@
       <c r="K949" s="31"/>
       <c r="N949" s="21"/>
       <c r="P949" s="25"/>
-      <c r="Q949" s="25"/>
       <c r="R949" s="25"/>
       <c r="S949" s="25"/>
       <c r="T949" s="25"/>
@@ -28901,7 +28016,6 @@
       <c r="K950" s="31"/>
       <c r="N950" s="21"/>
       <c r="P950" s="25"/>
-      <c r="Q950" s="25"/>
       <c r="R950" s="25"/>
       <c r="S950" s="25"/>
       <c r="T950" s="25"/>
@@ -28927,7 +28041,6 @@
       <c r="K951" s="31"/>
       <c r="N951" s="21"/>
       <c r="P951" s="25"/>
-      <c r="Q951" s="25"/>
       <c r="R951" s="25"/>
       <c r="S951" s="25"/>
       <c r="T951" s="25"/>
@@ -28953,7 +28066,6 @@
       <c r="K952" s="31"/>
       <c r="N952" s="21"/>
       <c r="P952" s="25"/>
-      <c r="Q952" s="25"/>
       <c r="R952" s="25"/>
       <c r="S952" s="25"/>
       <c r="T952" s="25"/>
@@ -28979,7 +28091,6 @@
       <c r="K953" s="31"/>
       <c r="N953" s="21"/>
       <c r="P953" s="25"/>
-      <c r="Q953" s="25"/>
       <c r="R953" s="25"/>
       <c r="S953" s="25"/>
       <c r="T953" s="25"/>
@@ -29005,7 +28116,6 @@
       <c r="K954" s="31"/>
       <c r="N954" s="21"/>
       <c r="P954" s="25"/>
-      <c r="Q954" s="25"/>
       <c r="R954" s="25"/>
       <c r="S954" s="25"/>
       <c r="T954" s="25"/>
@@ -29031,7 +28141,6 @@
       <c r="K955" s="31"/>
       <c r="N955" s="21"/>
       <c r="P955" s="25"/>
-      <c r="Q955" s="25"/>
       <c r="R955" s="25"/>
       <c r="S955" s="25"/>
       <c r="T955" s="25"/>
@@ -29057,7 +28166,6 @@
       <c r="K956" s="31"/>
       <c r="N956" s="21"/>
       <c r="P956" s="25"/>
-      <c r="Q956" s="25"/>
       <c r="R956" s="25"/>
       <c r="S956" s="25"/>
       <c r="T956" s="25"/>
@@ -29083,7 +28191,6 @@
       <c r="K957" s="31"/>
       <c r="N957" s="21"/>
       <c r="P957" s="25"/>
-      <c r="Q957" s="25"/>
       <c r="R957" s="25"/>
       <c r="S957" s="25"/>
       <c r="T957" s="25"/>
@@ -29109,7 +28216,6 @@
       <c r="K958" s="31"/>
       <c r="N958" s="21"/>
       <c r="P958" s="25"/>
-      <c r="Q958" s="25"/>
       <c r="R958" s="25"/>
       <c r="S958" s="25"/>
       <c r="T958" s="25"/>
@@ -29135,7 +28241,6 @@
       <c r="K959" s="31"/>
       <c r="N959" s="21"/>
       <c r="P959" s="25"/>
-      <c r="Q959" s="25"/>
       <c r="R959" s="25"/>
       <c r="S959" s="25"/>
       <c r="T959" s="25"/>
@@ -29161,7 +28266,6 @@
       <c r="K960" s="31"/>
       <c r="N960" s="21"/>
       <c r="P960" s="25"/>
-      <c r="Q960" s="25"/>
       <c r="R960" s="25"/>
       <c r="S960" s="25"/>
       <c r="T960" s="25"/>
@@ -29187,7 +28291,6 @@
       <c r="K961" s="31"/>
       <c r="N961" s="21"/>
       <c r="P961" s="25"/>
-      <c r="Q961" s="25"/>
       <c r="R961" s="25"/>
       <c r="S961" s="25"/>
       <c r="T961" s="25"/>
@@ -29213,7 +28316,6 @@
       <c r="K962" s="31"/>
       <c r="N962" s="21"/>
       <c r="P962" s="25"/>
-      <c r="Q962" s="25"/>
       <c r="R962" s="25"/>
       <c r="S962" s="25"/>
       <c r="T962" s="25"/>
@@ -29239,7 +28341,6 @@
       <c r="K963" s="31"/>
       <c r="N963" s="21"/>
       <c r="P963" s="25"/>
-      <c r="Q963" s="25"/>
       <c r="R963" s="25"/>
       <c r="S963" s="25"/>
       <c r="T963" s="25"/>
@@ -29265,7 +28366,6 @@
       <c r="K964" s="31"/>
       <c r="N964" s="21"/>
       <c r="P964" s="25"/>
-      <c r="Q964" s="25"/>
       <c r="R964" s="25"/>
       <c r="S964" s="25"/>
       <c r="T964" s="25"/>
@@ -29291,7 +28391,6 @@
       <c r="K965" s="31"/>
       <c r="N965" s="21"/>
       <c r="P965" s="25"/>
-      <c r="Q965" s="25"/>
       <c r="R965" s="25"/>
       <c r="S965" s="25"/>
       <c r="T965" s="25"/>
@@ -29317,7 +28416,6 @@
       <c r="K966" s="31"/>
       <c r="N966" s="21"/>
       <c r="P966" s="25"/>
-      <c r="Q966" s="25"/>
       <c r="R966" s="25"/>
       <c r="S966" s="25"/>
       <c r="T966" s="25"/>
@@ -29343,7 +28441,6 @@
       <c r="K967" s="31"/>
       <c r="N967" s="21"/>
       <c r="P967" s="25"/>
-      <c r="Q967" s="25"/>
       <c r="R967" s="25"/>
       <c r="S967" s="25"/>
       <c r="T967" s="25"/>
@@ -29369,7 +28466,6 @@
       <c r="K968" s="31"/>
       <c r="N968" s="21"/>
       <c r="P968" s="25"/>
-      <c r="Q968" s="25"/>
       <c r="R968" s="25"/>
       <c r="S968" s="25"/>
       <c r="T968" s="25"/>
@@ -29395,7 +28491,6 @@
       <c r="K969" s="31"/>
       <c r="N969" s="21"/>
       <c r="P969" s="25"/>
-      <c r="Q969" s="25"/>
       <c r="R969" s="25"/>
       <c r="S969" s="25"/>
       <c r="T969" s="25"/>
@@ -29421,7 +28516,6 @@
       <c r="K970" s="31"/>
       <c r="N970" s="21"/>
       <c r="P970" s="25"/>
-      <c r="Q970" s="25"/>
       <c r="R970" s="25"/>
       <c r="S970" s="25"/>
       <c r="T970" s="25"/>
@@ -29447,7 +28541,6 @@
       <c r="K971" s="31"/>
       <c r="N971" s="21"/>
       <c r="P971" s="25"/>
-      <c r="Q971" s="25"/>
       <c r="R971" s="25"/>
       <c r="S971" s="25"/>
       <c r="T971" s="25"/>
@@ -29473,7 +28566,6 @@
       <c r="K972" s="31"/>
       <c r="N972" s="21"/>
       <c r="P972" s="25"/>
-      <c r="Q972" s="25"/>
       <c r="R972" s="25"/>
       <c r="S972" s="25"/>
       <c r="T972" s="25"/>
@@ -29499,7 +28591,6 @@
       <c r="K973" s="31"/>
       <c r="N973" s="21"/>
       <c r="P973" s="25"/>
-      <c r="Q973" s="25"/>
       <c r="R973" s="25"/>
       <c r="S973" s="25"/>
       <c r="T973" s="25"/>
@@ -29525,7 +28616,6 @@
       <c r="K974" s="31"/>
       <c r="N974" s="21"/>
       <c r="P974" s="25"/>
-      <c r="Q974" s="25"/>
       <c r="R974" s="25"/>
       <c r="S974" s="25"/>
       <c r="T974" s="25"/>
@@ -29551,7 +28641,6 @@
       <c r="K975" s="31"/>
       <c r="N975" s="21"/>
       <c r="P975" s="25"/>
-      <c r="Q975" s="25"/>
       <c r="R975" s="25"/>
       <c r="S975" s="25"/>
       <c r="T975" s="25"/>
@@ -29577,7 +28666,6 @@
       <c r="K976" s="31"/>
       <c r="N976" s="21"/>
       <c r="P976" s="25"/>
-      <c r="Q976" s="25"/>
       <c r="R976" s="25"/>
       <c r="S976" s="25"/>
       <c r="T976" s="25"/>
@@ -29603,7 +28691,6 @@
       <c r="K977" s="31"/>
       <c r="N977" s="21"/>
       <c r="P977" s="25"/>
-      <c r="Q977" s="25"/>
       <c r="R977" s="25"/>
       <c r="S977" s="25"/>
       <c r="T977" s="25"/>
@@ -29629,7 +28716,6 @@
       <c r="K978" s="31"/>
       <c r="N978" s="21"/>
       <c r="P978" s="25"/>
-      <c r="Q978" s="25"/>
       <c r="R978" s="25"/>
       <c r="S978" s="25"/>
       <c r="T978" s="25"/>
@@ -29655,7 +28741,6 @@
       <c r="K979" s="31"/>
       <c r="N979" s="21"/>
       <c r="P979" s="25"/>
-      <c r="Q979" s="25"/>
       <c r="R979" s="25"/>
       <c r="S979" s="25"/>
       <c r="T979" s="25"/>
@@ -29681,7 +28766,6 @@
       <c r="K980" s="31"/>
       <c r="N980" s="21"/>
       <c r="P980" s="25"/>
-      <c r="Q980" s="25"/>
       <c r="R980" s="25"/>
       <c r="S980" s="25"/>
       <c r="T980" s="25"/>
@@ -29707,7 +28791,6 @@
       <c r="K981" s="31"/>
       <c r="N981" s="21"/>
       <c r="P981" s="25"/>
-      <c r="Q981" s="25"/>
       <c r="R981" s="25"/>
       <c r="S981" s="25"/>
       <c r="T981" s="25"/>
@@ -29733,7 +28816,6 @@
       <c r="K982" s="31"/>
       <c r="N982" s="21"/>
       <c r="P982" s="25"/>
-      <c r="Q982" s="25"/>
       <c r="R982" s="25"/>
       <c r="S982" s="25"/>
       <c r="T982" s="25"/>
@@ -29759,7 +28841,6 @@
       <c r="K983" s="31"/>
       <c r="N983" s="21"/>
       <c r="P983" s="25"/>
-      <c r="Q983" s="25"/>
       <c r="R983" s="25"/>
       <c r="S983" s="25"/>
       <c r="T983" s="25"/>
@@ -29785,7 +28866,6 @@
       <c r="K984" s="31"/>
       <c r="N984" s="21"/>
       <c r="P984" s="25"/>
-      <c r="Q984" s="25"/>
       <c r="R984" s="25"/>
       <c r="S984" s="25"/>
       <c r="T984" s="25"/>
@@ -29811,7 +28891,6 @@
       <c r="K985" s="31"/>
       <c r="N985" s="21"/>
       <c r="P985" s="25"/>
-      <c r="Q985" s="25"/>
       <c r="R985" s="25"/>
       <c r="S985" s="25"/>
       <c r="T985" s="25"/>
@@ -29837,7 +28916,6 @@
       <c r="K986" s="31"/>
       <c r="N986" s="21"/>
       <c r="P986" s="25"/>
-      <c r="Q986" s="25"/>
       <c r="R986" s="25"/>
       <c r="S986" s="25"/>
       <c r="T986" s="25"/>
@@ -29863,7 +28941,6 @@
       <c r="K987" s="31"/>
       <c r="N987" s="21"/>
       <c r="P987" s="25"/>
-      <c r="Q987" s="25"/>
       <c r="R987" s="25"/>
       <c r="S987" s="25"/>
       <c r="T987" s="25"/>
@@ -29889,7 +28966,6 @@
       <c r="K988" s="31"/>
       <c r="N988" s="21"/>
       <c r="P988" s="25"/>
-      <c r="Q988" s="25"/>
       <c r="R988" s="25"/>
       <c r="S988" s="25"/>
       <c r="T988" s="25"/>
@@ -29915,7 +28991,6 @@
       <c r="K989" s="31"/>
       <c r="N989" s="21"/>
       <c r="P989" s="25"/>
-      <c r="Q989" s="25"/>
       <c r="R989" s="25"/>
       <c r="S989" s="25"/>
       <c r="T989" s="25"/>
@@ -29941,7 +29016,6 @@
       <c r="K990" s="31"/>
       <c r="N990" s="21"/>
       <c r="P990" s="25"/>
-      <c r="Q990" s="25"/>
       <c r="R990" s="25"/>
       <c r="S990" s="25"/>
       <c r="T990" s="25"/>
@@ -29967,7 +29041,6 @@
       <c r="K991" s="31"/>
       <c r="N991" s="21"/>
       <c r="P991" s="25"/>
-      <c r="Q991" s="25"/>
       <c r="R991" s="25"/>
       <c r="S991" s="25"/>
       <c r="T991" s="25"/>
@@ -29993,7 +29066,6 @@
       <c r="K992" s="31"/>
       <c r="N992" s="21"/>
       <c r="P992" s="25"/>
-      <c r="Q992" s="25"/>
       <c r="R992" s="25"/>
       <c r="S992" s="25"/>
       <c r="T992" s="25"/>
@@ -30019,7 +29091,6 @@
       <c r="K993" s="31"/>
       <c r="N993" s="21"/>
       <c r="P993" s="25"/>
-      <c r="Q993" s="25"/>
       <c r="R993" s="25"/>
       <c r="S993" s="25"/>
       <c r="T993" s="25"/>
@@ -30045,7 +29116,6 @@
       <c r="K994" s="31"/>
       <c r="N994" s="21"/>
       <c r="P994" s="25"/>
-      <c r="Q994" s="25"/>
       <c r="R994" s="25"/>
       <c r="S994" s="25"/>
       <c r="T994" s="25"/>
@@ -30071,7 +29141,6 @@
       <c r="K995" s="31"/>
       <c r="N995" s="21"/>
       <c r="P995" s="25"/>
-      <c r="Q995" s="25"/>
       <c r="R995" s="25"/>
       <c r="S995" s="25"/>
       <c r="T995" s="25"/>
@@ -30097,7 +29166,6 @@
       <c r="K996" s="31"/>
       <c r="N996" s="21"/>
       <c r="P996" s="25"/>
-      <c r="Q996" s="25"/>
       <c r="R996" s="25"/>
       <c r="S996" s="25"/>
       <c r="T996" s="25"/>
@@ -30123,7 +29191,6 @@
       <c r="K997" s="31"/>
       <c r="N997" s="21"/>
       <c r="P997" s="25"/>
-      <c r="Q997" s="25"/>
       <c r="R997" s="25"/>
       <c r="S997" s="25"/>
       <c r="T997" s="25"/>
@@ -30149,7 +29216,6 @@
       <c r="K998" s="31"/>
       <c r="N998" s="21"/>
       <c r="P998" s="25"/>
-      <c r="Q998" s="25"/>
       <c r="R998" s="25"/>
       <c r="S998" s="25"/>
       <c r="T998" s="25"/>
@@ -30175,7 +29241,6 @@
       <c r="K999" s="31"/>
       <c r="N999" s="21"/>
       <c r="P999" s="25"/>
-      <c r="Q999" s="25"/>
       <c r="R999" s="25"/>
       <c r="S999" s="25"/>
       <c r="T999" s="25"/>
@@ -30224,13 +29289,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -30264,7 +29329,7 @@
         <v>1000.0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -30280,24 +29345,24 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="29">
         <v>2000.0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="29">
         <v>2001.0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -31761,7 +30826,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>14</v>
@@ -31770,7 +30835,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>16</v>
@@ -31782,55 +30847,55 @@
         <v>19</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>30</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R1" s="36" t="s">
         <v>38</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T1" s="36" t="s">
         <v>33</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V1" s="36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y1" s="36" t="s">
         <v>49</v>
@@ -31856,7 +30921,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>71</v>
@@ -31868,7 +30933,7 @@
         <v>57</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>156</v>
@@ -31914,7 +30979,7 @@
         <v>45292.0</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y2" s="22" t="s">
         <v>66</v>
@@ -31946,13 +31011,13 @@
         <v>71</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>162</v>
@@ -31998,7 +31063,7 @@
         <v>45292.0</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="22" t="s">
         <v>66</v>
@@ -32015,13 +31080,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>167</v>
@@ -32036,7 +31101,7 @@
         <v>57</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>168</v>
@@ -32082,7 +31147,7 @@
         <v>45292.0</v>
       </c>
       <c r="X4" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="22" t="s">
         <v>66</v>
@@ -32099,13 +31164,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>173</v>
@@ -32114,13 +31179,13 @@
         <v>71</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>174</v>
@@ -32166,7 +31231,7 @@
         <v>45292.0</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="22" t="s">
         <v>66</v>
@@ -32183,13 +31248,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>179</v>
@@ -32198,13 +31263,13 @@
         <v>71</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>180</v>
@@ -32250,7 +31315,7 @@
         <v>45292.0</v>
       </c>
       <c r="X6" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="22" t="s">
         <v>66</v>
@@ -32267,13 +31332,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>181</v>
@@ -32282,13 +31347,13 @@
         <v>71</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>182</v>
@@ -32334,7 +31399,7 @@
         <v>45292.0</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="22" t="s">
         <v>66</v>
@@ -32351,13 +31416,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>183</v>
@@ -32366,13 +31431,13 @@
         <v>71</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>184</v>
@@ -32418,7 +31483,7 @@
         <v>45292.0</v>
       </c>
       <c r="X8" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y8" s="22" t="s">
         <v>66</v>
@@ -32435,13 +31500,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>185</v>
@@ -32450,13 +31515,13 @@
         <v>71</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>186</v>
@@ -32502,7 +31567,7 @@
         <v>45292.0</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y9" s="22" t="s">
         <v>66</v>
@@ -32519,13 +31584,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>187</v>
@@ -32534,13 +31599,13 @@
         <v>71</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>188</v>
@@ -32586,7 +31651,7 @@
         <v>45292.0</v>
       </c>
       <c r="X10" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y10" s="22" t="s">
         <v>66</v>
@@ -32603,13 +31668,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>189</v>
@@ -32618,13 +31683,13 @@
         <v>71</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>190</v>
@@ -32670,7 +31735,7 @@
         <v>45292.0</v>
       </c>
       <c r="X11" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="22" t="s">
         <v>66</v>
@@ -32687,13 +31752,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>191</v>
@@ -32702,13 +31767,13 @@
         <v>71</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>192</v>
@@ -32754,7 +31819,7 @@
         <v>45292.0</v>
       </c>
       <c r="X12" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y12" s="22" t="s">
         <v>66</v>
@@ -32771,13 +31836,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>193</v>
@@ -32786,13 +31851,13 @@
         <v>71</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I13" s="27" t="s">
         <v>194</v>
@@ -32838,7 +31903,7 @@
         <v>45292.0</v>
       </c>
       <c r="X13" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y13" s="22" t="s">
         <v>66</v>
@@ -32855,13 +31920,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>195</v>
@@ -32870,13 +31935,13 @@
         <v>71</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I14" s="27" t="s">
         <v>196</v>
@@ -32922,7 +31987,7 @@
         <v>45292.0</v>
       </c>
       <c r="X14" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y14" s="22" t="s">
         <v>66</v>
@@ -32939,13 +32004,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>197</v>
@@ -32954,13 +32019,13 @@
         <v>71</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I15" s="27" t="s">
         <v>198</v>
@@ -33006,7 +32071,7 @@
         <v>45292.0</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y15" s="22" t="s">
         <v>66</v>
@@ -33023,13 +32088,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>199</v>
@@ -33038,13 +32103,13 @@
         <v>71</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>200</v>
@@ -33090,7 +32155,7 @@
         <v>45292.0</v>
       </c>
       <c r="X16" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y16" s="22" t="s">
         <v>66</v>
@@ -33107,13 +32172,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>201</v>
@@ -33122,13 +32187,13 @@
         <v>71</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>202</v>
@@ -33174,7 +32239,7 @@
         <v>45292.0</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y17" s="22" t="s">
         <v>66</v>
@@ -36436,13 +35501,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="39">
         <v>1007.0</v>
@@ -36450,13 +35515,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="39">
         <v>1008.0</v>

--- a/TNR_PREJDD/PREJDD.RT.ART.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.ART.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -257,9 +257,6 @@
     <t>CCO.RT.ART.001.MAJ.01</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>VENTELIV</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>FOU.RT.ART.001.LEC.01</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>REF RT.ART.001.LEC.01</t>
@@ -778,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -866,6 +866,9 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -2482,7 +2485,7 @@
         <v>57</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
@@ -2528,7 +2531,7 @@
       </c>
       <c r="AH3" s="21"/>
       <c r="AI3" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>68</v>
@@ -2548,16 +2551,16 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="E4" s="29">
         <v>2000.0</v>
@@ -2567,22 +2570,22 @@
         <v>57</v>
       </c>
       <c r="H4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="19" t="s">
@@ -2638,7 +2641,7 @@
       </c>
       <c r="AH4" s="21"/>
       <c r="AI4" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>68</v>
@@ -2658,13 +2661,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>71</v>
@@ -2677,22 +2680,22 @@
         <v>57</v>
       </c>
       <c r="H5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="19" t="s">
@@ -2768,13 +2771,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>71</v>
@@ -2793,13 +2796,13 @@
         <v>57</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>57</v>
@@ -2858,7 +2861,7 @@
       </c>
       <c r="AH6" s="21"/>
       <c r="AI6" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>68</v>
@@ -2878,13 +2881,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>71</v>
@@ -2903,13 +2906,13 @@
         <v>57</v>
       </c>
       <c r="J7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="M7" s="19" t="s">
         <v>57</v>
@@ -2968,7 +2971,7 @@
       </c>
       <c r="AH7" s="21"/>
       <c r="AI7" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>68</v>
@@ -2988,13 +2991,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>71</v>
@@ -3013,13 +3016,13 @@
         <v>57</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>75</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>57</v>
@@ -3078,7 +3081,7 @@
       </c>
       <c r="AH8" s="21"/>
       <c r="AI8" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>68</v>
@@ -3098,13 +3101,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>71</v>
@@ -3123,13 +3126,13 @@
         <v>57</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>57</v>
@@ -3188,7 +3191,7 @@
       </c>
       <c r="AH9" s="21"/>
       <c r="AI9" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ9" s="28" t="s">
         <v>68</v>
@@ -3208,13 +3211,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>71</v>
@@ -3233,13 +3236,13 @@
         <v>57</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>57</v>
@@ -3298,7 +3301,7 @@
       </c>
       <c r="AH10" s="21"/>
       <c r="AI10" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ10" s="28" t="s">
         <v>68</v>
@@ -3318,13 +3321,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>71</v>
@@ -3343,13 +3346,13 @@
         <v>57</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>57</v>
@@ -3408,7 +3411,7 @@
       </c>
       <c r="AH11" s="21"/>
       <c r="AI11" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ11" s="28" t="s">
         <v>68</v>
@@ -3428,13 +3431,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>71</v>
@@ -3453,13 +3456,13 @@
         <v>57</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>57</v>
@@ -3518,7 +3521,7 @@
       </c>
       <c r="AH12" s="21"/>
       <c r="AI12" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ12" s="28" t="s">
         <v>68</v>
@@ -3538,13 +3541,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>71</v>
@@ -3563,13 +3566,13 @@
         <v>57</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>57</v>
@@ -3628,7 +3631,7 @@
       </c>
       <c r="AH13" s="21"/>
       <c r="AI13" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ13" s="28" t="s">
         <v>68</v>
@@ -3648,13 +3651,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>71</v>
@@ -3673,13 +3676,13 @@
         <v>57</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>57</v>
@@ -3738,7 +3741,7 @@
       </c>
       <c r="AH14" s="21"/>
       <c r="AI14" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ14" s="28" t="s">
         <v>68</v>
@@ -3758,13 +3761,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>71</v>
@@ -3783,13 +3786,13 @@
         <v>57</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>57</v>
@@ -3848,7 +3851,7 @@
       </c>
       <c r="AH15" s="21"/>
       <c r="AI15" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ15" s="28" t="s">
         <v>68</v>
@@ -3868,13 +3871,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>71</v>
@@ -3893,13 +3896,13 @@
         <v>57</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>57</v>
@@ -3958,7 +3961,7 @@
       </c>
       <c r="AH16" s="21"/>
       <c r="AI16" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ16" s="28" t="s">
         <v>68</v>
@@ -3978,13 +3981,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>71</v>
@@ -4003,13 +4006,13 @@
         <v>57</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K17" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>57</v>
@@ -4068,7 +4071,7 @@
       </c>
       <c r="AH17" s="21"/>
       <c r="AI17" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ17" s="28" t="s">
         <v>68</v>
@@ -4088,13 +4091,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>71</v>
@@ -4113,13 +4116,13 @@
         <v>57</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>57</v>
@@ -4178,7 +4181,7 @@
       </c>
       <c r="AH18" s="21"/>
       <c r="AI18" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ18" s="28" t="s">
         <v>68</v>
@@ -4198,13 +4201,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>71</v>
@@ -4223,13 +4226,13 @@
         <v>57</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>57</v>
@@ -4288,7 +4291,7 @@
       </c>
       <c r="AH19" s="21"/>
       <c r="AI19" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ19" s="28" t="s">
         <v>68</v>
@@ -4308,13 +4311,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>71</v>
@@ -4333,13 +4336,13 @@
         <v>57</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>57</v>
@@ -4398,7 +4401,7 @@
       </c>
       <c r="AH20" s="21"/>
       <c r="AI20" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ20" s="28" t="s">
         <v>68</v>
@@ -4418,13 +4421,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>71</v>
@@ -4443,13 +4446,13 @@
         <v>57</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>57</v>
@@ -4508,7 +4511,7 @@
       </c>
       <c r="AH21" s="21"/>
       <c r="AI21" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ21" s="28" t="s">
         <v>68</v>
@@ -4528,13 +4531,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>71</v>
@@ -4553,13 +4556,13 @@
         <v>57</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>61</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M22" s="19" t="s">
         <v>57</v>
@@ -4618,7 +4621,7 @@
       </c>
       <c r="AH22" s="21"/>
       <c r="AI22" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ22" s="28" t="s">
         <v>68</v>
@@ -29289,13 +29292,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -29329,7 +29332,7 @@
         <v>1000.0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -29345,24 +29348,24 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="29">
         <v>2000.0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="29">
         <v>2001.0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -30826,7 +30829,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>14</v>
@@ -30835,7 +30838,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>16</v>
@@ -30847,55 +30850,55 @@
         <v>19</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>142</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>143</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>144</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>145</v>
       </c>
       <c r="M1" s="36" t="s">
         <v>30</v>
       </c>
       <c r="N1" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>148</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>149</v>
       </c>
       <c r="R1" s="36" t="s">
         <v>38</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T1" s="36" t="s">
         <v>33</v>
       </c>
       <c r="U1" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>153</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>154</v>
       </c>
       <c r="Y1" s="36" t="s">
         <v>49</v>
@@ -30921,7 +30924,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>71</v>
@@ -30933,7 +30936,7 @@
         <v>57</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>156</v>
@@ -30950,7 +30953,9 @@
       <c r="M2" s="19">
         <v>1.0</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O2" s="18" t="s">
         <v>158</v>
       </c>
@@ -30972,14 +30977,14 @@
       <c r="U2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="39">
         <v>45292.0</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y2" s="22" t="s">
         <v>66</v>
@@ -31011,13 +31016,13 @@
         <v>71</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>162</v>
@@ -31034,7 +31039,9 @@
       <c r="M3" s="19">
         <v>2.0</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O3" s="18" t="s">
         <v>164</v>
       </c>
@@ -31056,14 +31063,14 @@
       <c r="U3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W3" s="38">
+      <c r="W3" s="39">
         <v>45292.0</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y3" s="22" t="s">
         <v>66</v>
@@ -31080,13 +31087,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>167</v>
@@ -31101,7 +31108,7 @@
         <v>57</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>168</v>
@@ -31118,7 +31125,9 @@
       <c r="M4" s="19">
         <v>3.0</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O4" s="18" t="s">
         <v>170</v>
       </c>
@@ -31140,14 +31149,14 @@
       <c r="U4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V4" s="38">
+      <c r="V4" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W4" s="38">
+      <c r="W4" s="39">
         <v>45292.0</v>
       </c>
       <c r="X4" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y4" s="22" t="s">
         <v>66</v>
@@ -31164,13 +31173,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>173</v>
@@ -31179,13 +31188,13 @@
         <v>71</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>174</v>
@@ -31202,7 +31211,9 @@
       <c r="M5" s="19">
         <v>4.0</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O5" s="18" t="s">
         <v>176</v>
       </c>
@@ -31224,14 +31235,14 @@
       <c r="U5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="39">
         <v>45292.0</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y5" s="22" t="s">
         <v>66</v>
@@ -31248,13 +31259,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>179</v>
@@ -31263,13 +31274,13 @@
         <v>71</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>180</v>
@@ -31286,7 +31297,9 @@
       <c r="M6" s="19">
         <v>5.0</v>
       </c>
-      <c r="N6" s="21"/>
+      <c r="N6" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O6" s="27" t="s">
         <v>180</v>
       </c>
@@ -31308,14 +31321,14 @@
       <c r="U6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="38">
+      <c r="V6" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W6" s="38">
+      <c r="W6" s="39">
         <v>45292.0</v>
       </c>
       <c r="X6" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y6" s="22" t="s">
         <v>66</v>
@@ -31332,13 +31345,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>181</v>
@@ -31347,13 +31360,13 @@
         <v>71</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>182</v>
@@ -31370,7 +31383,9 @@
       <c r="M7" s="19">
         <v>6.0</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O7" s="27" t="s">
         <v>182</v>
       </c>
@@ -31392,14 +31407,14 @@
       <c r="U7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W7" s="38">
+      <c r="W7" s="39">
         <v>45292.0</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y7" s="22" t="s">
         <v>66</v>
@@ -31416,13 +31431,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>183</v>
@@ -31431,13 +31446,13 @@
         <v>71</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>184</v>
@@ -31454,7 +31469,9 @@
       <c r="M8" s="19">
         <v>7.0</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O8" s="27" t="s">
         <v>184</v>
       </c>
@@ -31476,14 +31493,14 @@
       <c r="U8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W8" s="38">
+      <c r="W8" s="39">
         <v>45292.0</v>
       </c>
       <c r="X8" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y8" s="22" t="s">
         <v>66</v>
@@ -31500,13 +31517,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>185</v>
@@ -31515,13 +31532,13 @@
         <v>71</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>186</v>
@@ -31538,7 +31555,9 @@
       <c r="M9" s="19">
         <v>8.0</v>
       </c>
-      <c r="N9" s="21"/>
+      <c r="N9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O9" s="27" t="s">
         <v>186</v>
       </c>
@@ -31560,14 +31579,14 @@
       <c r="U9" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="38">
+      <c r="V9" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W9" s="38">
+      <c r="W9" s="39">
         <v>45292.0</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y9" s="22" t="s">
         <v>66</v>
@@ -31584,13 +31603,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>187</v>
@@ -31599,13 +31618,13 @@
         <v>71</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>188</v>
@@ -31622,7 +31641,9 @@
       <c r="M10" s="19">
         <v>9.0</v>
       </c>
-      <c r="N10" s="21"/>
+      <c r="N10" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O10" s="27" t="s">
         <v>188</v>
       </c>
@@ -31644,14 +31665,14 @@
       <c r="U10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W10" s="38">
+      <c r="W10" s="39">
         <v>45292.0</v>
       </c>
       <c r="X10" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y10" s="22" t="s">
         <v>66</v>
@@ -31668,13 +31689,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>189</v>
@@ -31683,13 +31704,13 @@
         <v>71</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>190</v>
@@ -31706,7 +31727,9 @@
       <c r="M11" s="19">
         <v>10.0</v>
       </c>
-      <c r="N11" s="21"/>
+      <c r="N11" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O11" s="27" t="s">
         <v>190</v>
       </c>
@@ -31728,14 +31751,14 @@
       <c r="U11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V11" s="38">
+      <c r="V11" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W11" s="38">
+      <c r="W11" s="39">
         <v>45292.0</v>
       </c>
       <c r="X11" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y11" s="22" t="s">
         <v>66</v>
@@ -31752,13 +31775,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>191</v>
@@ -31767,13 +31790,13 @@
         <v>71</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>192</v>
@@ -31790,7 +31813,9 @@
       <c r="M12" s="19">
         <v>11.0</v>
       </c>
-      <c r="N12" s="21"/>
+      <c r="N12" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O12" s="27" t="s">
         <v>192</v>
       </c>
@@ -31812,14 +31837,14 @@
       <c r="U12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V12" s="38">
+      <c r="V12" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W12" s="38">
+      <c r="W12" s="39">
         <v>45292.0</v>
       </c>
       <c r="X12" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y12" s="22" t="s">
         <v>66</v>
@@ -31836,13 +31861,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>193</v>
@@ -31851,13 +31876,13 @@
         <v>71</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I13" s="27" t="s">
         <v>194</v>
@@ -31874,7 +31899,9 @@
       <c r="M13" s="19">
         <v>12.0</v>
       </c>
-      <c r="N13" s="21"/>
+      <c r="N13" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O13" s="27" t="s">
         <v>194</v>
       </c>
@@ -31896,14 +31923,14 @@
       <c r="U13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V13" s="38">
+      <c r="V13" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W13" s="38">
+      <c r="W13" s="39">
         <v>45292.0</v>
       </c>
       <c r="X13" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y13" s="22" t="s">
         <v>66</v>
@@ -31920,13 +31947,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>195</v>
@@ -31935,13 +31962,13 @@
         <v>71</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I14" s="27" t="s">
         <v>196</v>
@@ -31958,7 +31985,9 @@
       <c r="M14" s="19">
         <v>13.0</v>
       </c>
-      <c r="N14" s="21"/>
+      <c r="N14" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O14" s="27" t="s">
         <v>196</v>
       </c>
@@ -31980,14 +32009,14 @@
       <c r="U14" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V14" s="38">
+      <c r="V14" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W14" s="38">
+      <c r="W14" s="39">
         <v>45292.0</v>
       </c>
       <c r="X14" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y14" s="22" t="s">
         <v>66</v>
@@ -32004,13 +32033,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>197</v>
@@ -32019,13 +32048,13 @@
         <v>71</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I15" s="27" t="s">
         <v>198</v>
@@ -32042,7 +32071,9 @@
       <c r="M15" s="19">
         <v>14.0</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O15" s="27" t="s">
         <v>198</v>
       </c>
@@ -32064,14 +32095,14 @@
       <c r="U15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W15" s="38">
+      <c r="W15" s="39">
         <v>45292.0</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y15" s="22" t="s">
         <v>66</v>
@@ -32088,13 +32119,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>199</v>
@@ -32103,13 +32134,13 @@
         <v>71</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I16" s="27" t="s">
         <v>200</v>
@@ -32126,7 +32157,9 @@
       <c r="M16" s="19">
         <v>15.0</v>
       </c>
-      <c r="N16" s="21"/>
+      <c r="N16" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O16" s="27" t="s">
         <v>200</v>
       </c>
@@ -32148,14 +32181,14 @@
       <c r="U16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W16" s="38">
+      <c r="W16" s="39">
         <v>45292.0</v>
       </c>
       <c r="X16" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y16" s="22" t="s">
         <v>66</v>
@@ -32172,13 +32205,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>201</v>
@@ -32187,13 +32220,13 @@
         <v>71</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>202</v>
@@ -32210,7 +32243,9 @@
       <c r="M17" s="19">
         <v>16.0</v>
       </c>
-      <c r="N17" s="21"/>
+      <c r="N17" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="O17" s="27" t="s">
         <v>202</v>
       </c>
@@ -32232,14 +32267,14 @@
       <c r="U17" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="39">
         <v>44927.0</v>
       </c>
-      <c r="W17" s="38">
+      <c r="W17" s="39">
         <v>45292.0</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y17" s="22" t="s">
         <v>66</v>
@@ -35481,7 +35516,7 @@
       <c r="C2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="40">
         <v>1005.0</v>
       </c>
     </row>
@@ -35495,35 +35530,35 @@
       <c r="C3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="40">
         <v>1006.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="39">
+        <v>80</v>
+      </c>
+      <c r="D4" s="40">
         <v>1007.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="39">
+        <v>89</v>
+      </c>
+      <c r="D5" s="40">
         <v>1008.0</v>
       </c>
     </row>

--- a/TNR_PREJDD/PREJDD.RT.ART.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.ART.xlsx
@@ -2375,7 +2375,7 @@
         <v>57</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R2" s="25"/>
       <c r="S2" s="25"/>
@@ -2485,7 +2485,7 @@
         <v>57</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R3" s="25"/>
       <c r="S3" s="25"/>
@@ -2595,7 +2595,7 @@
         <v>57</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
@@ -2705,7 +2705,7 @@
         <v>57</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
@@ -2815,7 +2815,7 @@
         <v>57</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
@@ -2925,7 +2925,7 @@
         <v>57</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
@@ -3035,7 +3035,7 @@
         <v>57</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
@@ -3145,7 +3145,7 @@
         <v>57</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
@@ -3255,7 +3255,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
@@ -3365,7 +3365,7 @@
         <v>57</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
@@ -3475,7 +3475,7 @@
         <v>57</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -3585,7 +3585,7 @@
         <v>57</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
@@ -3695,7 +3695,7 @@
         <v>57</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -3805,7 +3805,7 @@
         <v>57</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
@@ -3915,7 +3915,7 @@
         <v>57</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
@@ -4025,7 +4025,7 @@
         <v>57</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -4135,7 +4135,7 @@
         <v>57</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -4245,7 +4245,7 @@
         <v>57</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -4355,7 +4355,7 @@
         <v>57</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
@@ -4465,7 +4465,7 @@
         <v>57</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
@@ -4575,7 +4575,7 @@
         <v>57</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>

--- a/TNR_PREJDD/PREJDD.RT.ART.xlsx
+++ b/TNR_PREJDD/PREJDD.RT.ART.xlsx
@@ -278,6 +278,9 @@
     <t>ARTICLE OBSOLETE</t>
   </si>
   <si>
+    <t>HST</t>
+  </si>
+  <si>
     <t>TEXTE ARTICLE OBSOLETE</t>
   </si>
   <si>
@@ -300,9 +303,6 @@
   </si>
   <si>
     <t>ARTICLE DE PRESSE</t>
-  </si>
-  <si>
-    <t>HST</t>
   </si>
   <si>
     <t>TEXTE ARTICLE DE PRESSE</t>
@@ -2436,10 +2436,10 @@
         <v>65</v>
       </c>
       <c r="AN2" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>69</v>
       </c>
@@ -2539,8 +2539,8 @@
       <c r="AK3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" s="22" t="s">
-        <v>66</v>
+      <c r="AL3" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="AM3" s="22" t="s">
         <v>65</v>
@@ -2579,13 +2579,13 @@
         <v>84</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="19" t="s">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="AH4" s="21"/>
       <c r="AI4" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>68</v>
@@ -2650,7 +2650,7 @@
         <v>66</v>
       </c>
       <c r="AL4" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM4" s="22" t="s">
         <v>65</v>
@@ -2661,13 +2661,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>71</v>
@@ -2680,16 +2680,16 @@
         <v>57</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>94</v>
@@ -2760,7 +2760,7 @@
         <v>66</v>
       </c>
       <c r="AL5" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM5" s="22" t="s">
         <v>65</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AH6" s="21"/>
       <c r="AI6" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>68</v>
@@ -2870,7 +2870,7 @@
         <v>66</v>
       </c>
       <c r="AL6" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM6" s="22" t="s">
         <v>65</v>
@@ -2909,7 +2909,7 @@
         <v>102</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>103</v>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="AH7" s="21"/>
       <c r="AI7" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>68</v>
@@ -2980,7 +2980,7 @@
         <v>66</v>
       </c>
       <c r="AL7" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM7" s="22" t="s">
         <v>65</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="AH8" s="21"/>
       <c r="AI8" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>68</v>
@@ -3090,7 +3090,7 @@
         <v>66</v>
       </c>
       <c r="AL8" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM8" s="22" t="s">
         <v>65</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="AH9" s="21"/>
       <c r="AI9" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ9" s="28" t="s">
         <v>68</v>
@@ -3200,7 +3200,7 @@
         <v>66</v>
       </c>
       <c r="AL9" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM9" s="22" t="s">
         <v>65</v>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="AH10" s="21"/>
       <c r="AI10" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ10" s="28" t="s">
         <v>68</v>
@@ -3310,7 +3310,7 @@
         <v>66</v>
       </c>
       <c r="AL10" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM10" s="22" t="s">
         <v>65</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="AH11" s="21"/>
       <c r="AI11" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ11" s="28" t="s">
         <v>68</v>
@@ -3420,7 +3420,7 @@
         <v>66</v>
       </c>
       <c r="AL11" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM11" s="22" t="s">
         <v>65</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="AH12" s="21"/>
       <c r="AI12" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ12" s="28" t="s">
         <v>68</v>
@@ -3530,7 +3530,7 @@
         <v>66</v>
       </c>
       <c r="AL12" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM12" s="22" t="s">
         <v>65</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="AH13" s="21"/>
       <c r="AI13" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ13" s="28" t="s">
         <v>68</v>
@@ -3640,7 +3640,7 @@
         <v>66</v>
       </c>
       <c r="AL13" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM13" s="22" t="s">
         <v>65</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="AH14" s="21"/>
       <c r="AI14" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ14" s="28" t="s">
         <v>68</v>
@@ -3750,7 +3750,7 @@
         <v>66</v>
       </c>
       <c r="AL14" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM14" s="22" t="s">
         <v>65</v>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="AH15" s="21"/>
       <c r="AI15" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ15" s="28" t="s">
         <v>68</v>
@@ -3860,7 +3860,7 @@
         <v>66</v>
       </c>
       <c r="AL15" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM15" s="22" t="s">
         <v>65</v>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="AH16" s="21"/>
       <c r="AI16" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ16" s="28" t="s">
         <v>68</v>
@@ -3970,7 +3970,7 @@
         <v>66</v>
       </c>
       <c r="AL16" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM16" s="22" t="s">
         <v>65</v>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="AH17" s="21"/>
       <c r="AI17" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ17" s="28" t="s">
         <v>68</v>
@@ -4080,7 +4080,7 @@
         <v>66</v>
       </c>
       <c r="AL17" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM17" s="22" t="s">
         <v>65</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="AH18" s="21"/>
       <c r="AI18" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ18" s="28" t="s">
         <v>68</v>
@@ -4190,7 +4190,7 @@
         <v>66</v>
       </c>
       <c r="AL18" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM18" s="22" t="s">
         <v>65</v>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="AH19" s="21"/>
       <c r="AI19" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ19" s="28" t="s">
         <v>68</v>
@@ -4300,7 +4300,7 @@
         <v>66</v>
       </c>
       <c r="AL19" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM19" s="22" t="s">
         <v>65</v>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="AH20" s="21"/>
       <c r="AI20" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ20" s="28" t="s">
         <v>68</v>
@@ -4410,7 +4410,7 @@
         <v>66</v>
       </c>
       <c r="AL20" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM20" s="22" t="s">
         <v>65</v>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="AH21" s="21"/>
       <c r="AI21" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ21" s="28" t="s">
         <v>68</v>
@@ -4520,7 +4520,7 @@
         <v>66</v>
       </c>
       <c r="AL21" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM21" s="22" t="s">
         <v>65</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="AH22" s="21"/>
       <c r="AI22" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ22" s="28" t="s">
         <v>68</v>
@@ -4630,7 +4630,7 @@
         <v>66</v>
       </c>
       <c r="AL22" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AM22" s="22" t="s">
         <v>65</v>
@@ -29359,13 +29359,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="29">
         <v>2001.0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -30996,7 +30996,7 @@
         <v>65</v>
       </c>
       <c r="AB2" s="22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -31076,7 +31076,7 @@
         <v>66</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA3" s="22" t="s">
         <v>65</v>
@@ -31162,7 +31162,7 @@
         <v>66</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA4" s="22" t="s">
         <v>65</v>
@@ -31173,13 +31173,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>173</v>
@@ -31188,7 +31188,7 @@
         <v>71</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>57</v>
@@ -31248,7 +31248,7 @@
         <v>66</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA5" s="22" t="s">
         <v>65</v>
@@ -31274,7 +31274,7 @@
         <v>71</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>57</v>
@@ -31334,7 +31334,7 @@
         <v>66</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA6" s="22" t="s">
         <v>65</v>
@@ -31360,7 +31360,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>57</v>
@@ -31420,7 +31420,7 @@
         <v>66</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA7" s="22" t="s">
         <v>65</v>
@@ -31446,7 +31446,7 @@
         <v>71</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>57</v>
@@ -31506,7 +31506,7 @@
         <v>66</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA8" s="22" t="s">
         <v>65</v>
@@ -31532,7 +31532,7 @@
         <v>71</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>57</v>
@@ -31592,7 +31592,7 @@
         <v>66</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA9" s="22" t="s">
         <v>65</v>
@@ -31618,7 +31618,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>57</v>
@@ -31678,7 +31678,7 @@
         <v>66</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA10" s="22" t="s">
         <v>65</v>
@@ -31704,7 +31704,7 @@
         <v>71</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>57</v>
@@ -31764,7 +31764,7 @@
         <v>66</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA11" s="22" t="s">
         <v>65</v>
@@ -31790,7 +31790,7 @@
         <v>71</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>57</v>
@@ -31850,7 +31850,7 @@
         <v>66</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA12" s="22" t="s">
         <v>65</v>
@@ -31876,7 +31876,7 @@
         <v>71</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>57</v>
@@ -31936,7 +31936,7 @@
         <v>66</v>
       </c>
       <c r="Z13" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA13" s="22" t="s">
         <v>65</v>
@@ -31962,7 +31962,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>57</v>
@@ -32022,7 +32022,7 @@
         <v>66</v>
       </c>
       <c r="Z14" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA14" s="22" t="s">
         <v>65</v>
@@ -32048,7 +32048,7 @@
         <v>71</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>57</v>
@@ -32108,7 +32108,7 @@
         <v>66</v>
       </c>
       <c r="Z15" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA15" s="22" t="s">
         <v>65</v>
@@ -32134,7 +32134,7 @@
         <v>71</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>57</v>
@@ -32194,7 +32194,7 @@
         <v>66</v>
       </c>
       <c r="Z16" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA16" s="22" t="s">
         <v>65</v>
@@ -32220,7 +32220,7 @@
         <v>71</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>57</v>
@@ -32280,7 +32280,7 @@
         <v>66</v>
       </c>
       <c r="Z17" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AA17" s="22" t="s">
         <v>65</v>
@@ -35550,13 +35550,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="40">
         <v>1008.0</v>
